--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户关系逻辑图" sheetId="3" r:id="rId1"/>
@@ -4252,10 +4252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报警未处理；提醒未处理；工程师未及时回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISDEALED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4362,6 +4358,10 @@
     <t>2014.6.28零件部位明细合并，同时将EMC信息合并进来。
 EMC是普通工程零件的扩展信息。
 增加零件的时候，通过工程类型来确定是否需要添加EMC信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警未处理；提醒未处理；工程师未及时回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5164,17 +5164,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5236,6 +5236,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5243,9 +5246,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5269,8 +5269,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5278,29 +5287,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5314,8 +5302,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9369,25 +9369,25 @@
         <v>768</v>
       </c>
       <c r="E26" s="76" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F26" s="76" t="s">
         <v>1004</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="G26" s="76" t="s">
         <v>1005</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="H26" s="76" t="s">
         <v>1006</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="I26" s="76" t="s">
         <v>1007</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="J26" s="76" t="s">
         <v>1008</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="K26" s="76" t="s">
         <v>1009</v>
-      </c>
-      <c r="K26" s="76" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" thickTop="1"/>
@@ -9554,134 +9554,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="136" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="129" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="130"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="129" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="130"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="127" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="129"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="125" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="L7" s="126" t="s">
+      <c r="I7" s="126"/>
+      <c r="L7" s="129" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="127"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="129" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="L8" s="126" t="s">
+      <c r="F8" s="130"/>
+      <c r="L8" s="129" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="127"/>
+      <c r="M8" s="130"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="129" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="L9" s="128" t="s">
+      <c r="F9" s="130"/>
+      <c r="L9" s="127" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="129"/>
+      <c r="M9" s="128"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="128" t="s">
+      <c r="E10" s="127" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="129"/>
-      <c r="L10" s="130" t="s">
+      <c r="F10" s="128"/>
+      <c r="L10" s="125" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="131"/>
+      <c r="M10" s="126"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="I11" s="126" t="s">
+      <c r="F11" s="126"/>
+      <c r="I11" s="129" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="127"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="129" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="127"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="128" t="s">
+      <c r="I13" s="127" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="129"/>
+      <c r="J13" s="128"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="130" t="s">
+      <c r="I14" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="131"/>
+      <c r="J14" s="126"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -9698,709 +9698,743 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="129" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="129" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="127"/>
+      <c r="I18" s="130"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="128" t="s">
+      <c r="H19" s="127" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="130" t="s">
+      <c r="H20" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="131"/>
+      <c r="I20" s="126"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="125" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="131"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="132" t="s">
+      <c r="W22" s="137" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="133"/>
-      <c r="Z22" s="136" t="s">
+      <c r="X22" s="138"/>
+      <c r="Z22" s="132" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="137"/>
+      <c r="AA22" s="133"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="129" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="H23" s="126" t="s">
+      <c r="C23" s="131"/>
+      <c r="H23" s="129" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="127"/>
-      <c r="W23" s="134"/>
-      <c r="X23" s="135"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="139"/>
+      <c r="I23" s="130"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="140"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="135"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="129" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="H24" s="126" t="s">
+      <c r="C24" s="130"/>
+      <c r="H24" s="129" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="127" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="H25" s="130" t="s">
+      <c r="C25" s="128"/>
+      <c r="H25" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="131"/>
-      <c r="N25" s="126" t="s">
+      <c r="I25" s="126"/>
+      <c r="N25" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="127"/>
-      <c r="T25" s="126" t="s">
+      <c r="O25" s="130"/>
+      <c r="T25" s="129" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="127"/>
-      <c r="W25" s="126" t="s">
+      <c r="U25" s="130"/>
+      <c r="W25" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="127"/>
+      <c r="X25" s="130"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="H26" s="128" t="s">
+      <c r="C26" s="126"/>
+      <c r="H26" s="127" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="129"/>
-      <c r="N26" s="126" t="s">
+      <c r="I26" s="128"/>
+      <c r="N26" s="129" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="127"/>
-      <c r="T26" s="126" t="s">
+      <c r="O26" s="130"/>
+      <c r="T26" s="129" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="127"/>
-      <c r="W26" s="126" t="s">
+      <c r="U26" s="130"/>
+      <c r="W26" s="129" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="127"/>
+      <c r="X26" s="130"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="H27" s="130" t="s">
+      <c r="C27" s="126"/>
+      <c r="H27" s="125" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="131"/>
-      <c r="N27" s="128" t="s">
+      <c r="I27" s="126"/>
+      <c r="N27" s="127" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="129" t="s">
+      <c r="O27" s="128" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="128" t="s">
+      <c r="T27" s="127" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="129" t="s">
+      <c r="U27" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="128" t="s">
+      <c r="W27" s="127" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="129" t="s">
+      <c r="X27" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="125" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="N28" s="130" t="s">
+      <c r="C28" s="126"/>
+      <c r="N28" s="125" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="131" t="s">
+      <c r="O28" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="130" t="s">
+      <c r="T28" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="131" t="s">
+      <c r="U28" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="130" t="s">
+      <c r="W28" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="131" t="s">
+      <c r="X28" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="126" t="s">
+      <c r="K30" s="129" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="127"/>
+      <c r="L30" s="130"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="126" t="s">
+      <c r="K31" s="129" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="127"/>
-      <c r="N31" s="126" t="s">
+      <c r="L31" s="130"/>
+      <c r="N31" s="129" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="127"/>
-      <c r="T31" s="126" t="s">
+      <c r="O31" s="130"/>
+      <c r="T31" s="129" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="127"/>
-      <c r="W31" s="126" t="s">
+      <c r="U31" s="130"/>
+      <c r="W31" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="127"/>
+      <c r="X31" s="130"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="128" t="s">
+      <c r="K32" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="129" t="s">
+      <c r="L32" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="126" t="s">
+      <c r="N32" s="129" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="127"/>
-      <c r="T32" s="126" t="s">
+      <c r="O32" s="130"/>
+      <c r="T32" s="129" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="127"/>
-      <c r="W32" s="126" t="s">
+      <c r="U32" s="130"/>
+      <c r="W32" s="129" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="127"/>
+      <c r="X32" s="130"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="130" t="s">
+      <c r="K33" s="125" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="131" t="s">
+      <c r="L33" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="128" t="s">
+      <c r="N33" s="127" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="129" t="s">
+      <c r="O33" s="128" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="128" t="s">
+      <c r="T33" s="127" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="129" t="s">
+      <c r="U33" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="128" t="s">
+      <c r="W33" s="127" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="129" t="s">
+      <c r="X33" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="130" t="s">
+      <c r="N34" s="125" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="131" t="s">
+      <c r="O34" s="126" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="130" t="s">
+      <c r="T34" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="131" t="s">
+      <c r="U34" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="130" t="s">
+      <c r="W34" s="125" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="131" t="s">
+      <c r="X34" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="126" t="s">
+      <c r="E35" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="127"/>
+      <c r="F35" s="130"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="126" t="s">
+      <c r="E36" s="129" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="140"/>
+      <c r="F36" s="131"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="128" t="s">
+      <c r="E37" s="127" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="129"/>
-      <c r="J37" s="126" t="s">
+      <c r="F37" s="128"/>
+      <c r="J37" s="129" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="127"/>
-      <c r="T37" s="126" t="s">
+      <c r="K37" s="130"/>
+      <c r="T37" s="129" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="127"/>
-      <c r="W37" s="126" t="s">
+      <c r="U37" s="130"/>
+      <c r="W37" s="129" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="127"/>
+      <c r="X37" s="130"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="126" t="s">
+      <c r="J38" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="127"/>
-      <c r="Q38" s="126" t="s">
+      <c r="K38" s="130"/>
+      <c r="Q38" s="129" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="127"/>
-      <c r="T38" s="126" t="s">
+      <c r="R38" s="130"/>
+      <c r="T38" s="129" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="127"/>
-      <c r="W38" s="126" t="s">
+      <c r="U38" s="130"/>
+      <c r="W38" s="129" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="127"/>
+      <c r="X38" s="130"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="128" t="s">
+      <c r="J39" s="127" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="129" t="s">
+      <c r="K39" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="126" t="s">
+      <c r="Q39" s="129" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="127"/>
-      <c r="T39" s="128" t="s">
+      <c r="R39" s="130"/>
+      <c r="T39" s="127" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="129" t="s">
+      <c r="U39" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="128" t="s">
+      <c r="W39" s="127" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="129" t="s">
+      <c r="X39" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="130" t="s">
+      <c r="J40" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="131" t="s">
+      <c r="K40" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="128" t="s">
+      <c r="Q40" s="127" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="129" t="s">
+      <c r="R40" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="130" t="s">
+      <c r="T40" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="131" t="s">
+      <c r="U40" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="130" t="s">
+      <c r="W40" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="131" t="s">
+      <c r="X40" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="130" t="s">
+      <c r="Q41" s="125" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="131" t="s">
+      <c r="R41" s="126" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="126" t="s">
+      <c r="T43" s="129" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="127"/>
-      <c r="W43" s="126" t="s">
+      <c r="U43" s="130"/>
+      <c r="W43" s="129" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="127"/>
+      <c r="X43" s="130"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="126" t="s">
+      <c r="T44" s="129" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="127"/>
-      <c r="W44" s="126" t="s">
+      <c r="U44" s="130"/>
+      <c r="W44" s="129" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="127"/>
+      <c r="X44" s="130"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="128" t="s">
+      <c r="T45" s="127" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="129" t="s">
+      <c r="U45" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="128" t="s">
+      <c r="W45" s="127" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="129" t="s">
+      <c r="X45" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="130" t="s">
+      <c r="T46" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="131" t="s">
+      <c r="U46" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="130" t="s">
+      <c r="W46" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="131" t="s">
+      <c r="X46" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="126" t="s">
+      <c r="T49" s="129" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="127"/>
-      <c r="W49" s="126" t="s">
+      <c r="U49" s="130"/>
+      <c r="W49" s="129" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="127"/>
+      <c r="X49" s="130"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="126" t="s">
+      <c r="T50" s="129" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="127"/>
-      <c r="W50" s="126" t="s">
+      <c r="U50" s="130"/>
+      <c r="W50" s="129" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="127"/>
+      <c r="X50" s="130"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="128" t="s">
+      <c r="T51" s="127" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="129" t="s">
+      <c r="U51" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="128" t="s">
+      <c r="W51" s="127" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="129" t="s">
+      <c r="X51" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="130" t="s">
+      <c r="T52" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="131" t="s">
+      <c r="U52" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="130" t="s">
+      <c r="W52" s="125" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="131" t="s">
+      <c r="X52" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="126" t="s">
+      <c r="T55" s="129" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="127"/>
-      <c r="W55" s="126" t="s">
+      <c r="U55" s="130"/>
+      <c r="W55" s="129" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="127"/>
+      <c r="X55" s="130"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="126" t="s">
+      <c r="T56" s="129" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="127"/>
-      <c r="W56" s="126" t="s">
+      <c r="U56" s="130"/>
+      <c r="W56" s="129" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="127"/>
+      <c r="X56" s="130"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="128" t="s">
+      <c r="T57" s="127" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="129" t="s">
+      <c r="U57" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="128" t="s">
+      <c r="W57" s="127" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="129" t="s">
+      <c r="X57" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="130" t="s">
+      <c r="T58" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="131" t="s">
+      <c r="U58" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="130" t="s">
+      <c r="W58" s="125" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="131" t="s">
+      <c r="X58" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="126" t="s">
+      <c r="T61" s="129" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="127"/>
-      <c r="W61" s="126" t="s">
+      <c r="U61" s="130"/>
+      <c r="W61" s="129" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="127"/>
+      <c r="X61" s="130"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="126" t="s">
+      <c r="T62" s="129" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="127"/>
-      <c r="W62" s="126" t="s">
+      <c r="U62" s="130"/>
+      <c r="W62" s="129" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="127"/>
+      <c r="X62" s="130"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="128" t="s">
+      <c r="T63" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="129" t="s">
+      <c r="U63" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="128" t="s">
+      <c r="W63" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="129" t="s">
+      <c r="X63" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="130" t="s">
+      <c r="T64" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="131" t="s">
+      <c r="U64" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="130" t="s">
+      <c r="W64" s="125" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="131" t="s">
+      <c r="X64" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="126" t="s">
+      <c r="T67" s="129" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="127"/>
-      <c r="W67" s="126" t="s">
+      <c r="U67" s="130"/>
+      <c r="W67" s="129" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="127"/>
+      <c r="X67" s="130"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="126" t="s">
+      <c r="T68" s="129" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="127"/>
-      <c r="W68" s="126" t="s">
+      <c r="U68" s="130"/>
+      <c r="W68" s="129" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="127"/>
+      <c r="X68" s="130"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="128" t="s">
+      <c r="T69" s="127" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="129" t="s">
+      <c r="U69" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="128" t="s">
+      <c r="W69" s="127" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="129" t="s">
+      <c r="X69" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="130" t="s">
+      <c r="T70" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="131" t="s">
+      <c r="U70" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="130" t="s">
+      <c r="W70" s="125" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="131" t="s">
+      <c r="X70" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="126" t="s">
+      <c r="T73" s="129" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="127"/>
-      <c r="W73" s="126" t="s">
+      <c r="U73" s="130"/>
+      <c r="W73" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="127"/>
+      <c r="X73" s="130"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="126" t="s">
+      <c r="T74" s="129" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="127"/>
-      <c r="W74" s="126" t="s">
+      <c r="U74" s="130"/>
+      <c r="W74" s="129" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="127"/>
+      <c r="X74" s="130"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="128" t="s">
+      <c r="T75" s="127" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="129" t="s">
+      <c r="U75" s="128" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="128" t="s">
+      <c r="W75" s="127" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="129" t="s">
+      <c r="X75" s="128" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="130" t="s">
+      <c r="T76" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="131" t="s">
+      <c r="U76" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="130" t="s">
+      <c r="W76" s="125" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="131" t="s">
+      <c r="X76" s="126" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C1:L3"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
@@ -10425,76 +10459,42 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="C1:L3"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="W67:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10732,7 +10732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E37"/>
     </sheetView>
   </sheetViews>
@@ -10762,7 +10762,7 @@
       <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>772</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -10777,7 +10777,7 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="93"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="83" t="s">
         <v>777</v>
       </c>
@@ -10790,7 +10790,7 @@
       <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="90" t="s">
         <v>794</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -10867,8 +10867,8 @@
       <c r="D9" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>1011</v>
+      <c r="E9" s="93" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5">
@@ -10882,7 +10882,7 @@
       <c r="D10" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="92"/>
@@ -10895,7 +10895,7 @@
       <c r="D11" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="92"/>
@@ -10908,7 +10908,7 @@
       <c r="D12" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="92"/>
@@ -10921,7 +10921,7 @@
       <c r="D13" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="92"/>
@@ -10934,7 +10934,7 @@
       <c r="D14" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="92"/>
@@ -10947,7 +10947,7 @@
       <c r="D15" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="92"/>
@@ -10960,10 +10960,10 @@
       <c r="D16" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="93"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="83" t="s">
         <v>878</v>
       </c>
@@ -10973,10 +10973,10 @@
       <c r="D17" s="85" t="s">
         <v>993</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>898</v>
       </c>
       <c r="B18" s="83" t="s">
@@ -11004,7 +11004,7 @@
       <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="93"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="83" t="s">
         <v>896</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="E20" s="85"/>
     </row>
     <row r="21" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>964</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -11027,8 +11027,8 @@
         <v>971</v>
       </c>
       <c r="D21" s="85"/>
-      <c r="E21" s="90" t="s">
-        <v>1022</v>
+      <c r="E21" s="93" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5">
@@ -11040,7 +11040,7 @@
         <v>943</v>
       </c>
       <c r="D22" s="85"/>
-      <c r="E22" s="90"/>
+      <c r="E22" s="93"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="92"/>
@@ -11051,7 +11051,7 @@
         <v>944</v>
       </c>
       <c r="D23" s="85"/>
-      <c r="E23" s="90"/>
+      <c r="E23" s="93"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="92"/>
@@ -11062,7 +11062,7 @@
         <v>945</v>
       </c>
       <c r="D24" s="85"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="92"/>
@@ -11073,7 +11073,7 @@
         <v>946</v>
       </c>
       <c r="D25" s="85"/>
-      <c r="E25" s="90"/>
+      <c r="E25" s="93"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="92"/>
@@ -11084,7 +11084,7 @@
         <v>947</v>
       </c>
       <c r="D26" s="85"/>
-      <c r="E26" s="90"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="92"/>
@@ -11095,7 +11095,7 @@
         <v>948</v>
       </c>
       <c r="D27" s="85"/>
-      <c r="E27" s="90"/>
+      <c r="E27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="92"/>
@@ -11106,10 +11106,10 @@
         <v>949</v>
       </c>
       <c r="D28" s="85"/>
-      <c r="E28" s="90"/>
+      <c r="E28" s="93"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="93"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="83" t="s">
         <v>935</v>
       </c>
@@ -11117,20 +11117,20 @@
         <v>950</v>
       </c>
       <c r="D29" s="85"/>
-      <c r="E29" s="90"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="90" t="s">
         <v>963</v>
       </c>
       <c r="B30" s="83" t="s">
         <v>951</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D30" s="85"/>
-      <c r="E30" s="90"/>
+      <c r="E30" s="93"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="92"/>
@@ -11138,10 +11138,10 @@
         <v>954</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D31" s="85"/>
-      <c r="E31" s="90"/>
+      <c r="E31" s="93"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="92"/>
@@ -11149,10 +11149,10 @@
         <v>957</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D32" s="85"/>
-      <c r="E32" s="90"/>
+      <c r="E32" s="93"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="92"/>
@@ -11160,10 +11160,10 @@
         <v>958</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D33" s="85"/>
-      <c r="E33" s="90"/>
+      <c r="E33" s="93"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="92"/>
@@ -11171,10 +11171,10 @@
         <v>959</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D34" s="85"/>
-      <c r="E34" s="90"/>
+      <c r="E34" s="93"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="92"/>
@@ -11182,10 +11182,10 @@
         <v>960</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D35" s="85"/>
-      <c r="E35" s="90"/>
+      <c r="E35" s="93"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="92"/>
@@ -11193,10 +11193,10 @@
         <v>961</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D36" s="85"/>
-      <c r="E36" s="90"/>
+      <c r="E36" s="93"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="92"/>
@@ -11204,10 +11204,10 @@
         <v>962</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D37" s="85"/>
-      <c r="E37" s="90"/>
+      <c r="E37" s="93"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="81" t="s">
@@ -11222,7 +11222,7 @@
       <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="90" t="s">
         <v>972</v>
       </c>
       <c r="B39" s="80" t="s">
@@ -11284,7 +11284,7 @@
       <c r="D44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="93"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="80" t="s">
         <v>988</v>
       </c>
@@ -11473,16 +11473,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E9:E17"/>
+    <mergeCell ref="E21:E37"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B46:C74"/>
+    <mergeCell ref="A46:A74"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E9:E17"/>
-    <mergeCell ref="E21:E37"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="B46:C74"/>
-    <mergeCell ref="A46:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13458,7 +13458,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E125" s="4"/>
     </row>
@@ -13471,7 +13471,7 @@
         <v>428</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E126" s="4"/>
     </row>
@@ -14209,18 +14209,6 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -14237,6 +14225,18 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14248,8 +14248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -14453,32 +14453,32 @@
         <v>438</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="106"/>
       <c r="B15" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>734</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="106"/>
       <c r="B16" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -14498,7 +14498,7 @@
     <row r="18" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="106"/>
       <c r="B18" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>85</v>
@@ -14580,7 +14580,7 @@
     <row r="24" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="106"/>
       <c r="B24" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>441</v>
@@ -14683,233 +14683,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="116" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -16154,30 +16154,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="117"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="117"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="117"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -16307,30 +16307,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="116"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-      <c r="L46" s="117"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="117"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="117"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="117"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="114"/>
+      <c r="S46" s="114"/>
+      <c r="T46" s="114"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="114"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -16486,30 +16486,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="117"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="117"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="117"/>
-      <c r="U58" s="117"/>
-      <c r="V58" s="117"/>
-      <c r="W58" s="117"/>
-      <c r="X58" s="117"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
+      <c r="O58" s="114"/>
+      <c r="P58" s="114"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="114"/>
+      <c r="T58" s="114"/>
+      <c r="U58" s="114"/>
+      <c r="V58" s="114"/>
+      <c r="W58" s="114"/>
+      <c r="X58" s="114"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -16767,30 +16767,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="116"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="117"/>
-      <c r="U66" s="117"/>
-      <c r="V66" s="117"/>
-      <c r="W66" s="117"/>
-      <c r="X66" s="117"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+      <c r="S66" s="114"/>
+      <c r="T66" s="114"/>
+      <c r="U66" s="114"/>
+      <c r="V66" s="114"/>
+      <c r="W66" s="114"/>
+      <c r="X66" s="114"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -16907,30 +16907,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="117"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="117"/>
-      <c r="P75" s="117"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="117"/>
-      <c r="S75" s="117"/>
-      <c r="T75" s="117"/>
-      <c r="U75" s="117"/>
-      <c r="V75" s="117"/>
-      <c r="W75" s="117"/>
-      <c r="X75" s="117"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="114"/>
+      <c r="P75" s="114"/>
+      <c r="Q75" s="114"/>
+      <c r="R75" s="114"/>
+      <c r="S75" s="114"/>
+      <c r="T75" s="114"/>
+      <c r="U75" s="114"/>
+      <c r="V75" s="114"/>
+      <c r="W75" s="114"/>
+      <c r="X75" s="114"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -17112,30 +17112,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="117"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="117"/>
-      <c r="L89" s="117"/>
-      <c r="M89" s="117"/>
-      <c r="N89" s="117"/>
-      <c r="O89" s="117"/>
-      <c r="P89" s="117"/>
-      <c r="Q89" s="117"/>
-      <c r="R89" s="117"/>
-      <c r="S89" s="117"/>
-      <c r="T89" s="117"/>
-      <c r="U89" s="117"/>
-      <c r="V89" s="117"/>
-      <c r="W89" s="117"/>
-      <c r="X89" s="117"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="114"/>
+      <c r="K89" s="114"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
+      <c r="Q89" s="114"/>
+      <c r="R89" s="114"/>
+      <c r="S89" s="114"/>
+      <c r="T89" s="114"/>
+      <c r="U89" s="114"/>
+      <c r="V89" s="114"/>
+      <c r="W89" s="114"/>
+      <c r="X89" s="114"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -17239,30 +17239,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="117"/>
-      <c r="B97" s="117"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="117"/>
-      <c r="I97" s="117"/>
-      <c r="J97" s="117"/>
-      <c r="K97" s="117"/>
-      <c r="L97" s="117"/>
-      <c r="M97" s="117"/>
-      <c r="N97" s="117"/>
-      <c r="O97" s="117"/>
-      <c r="P97" s="117"/>
-      <c r="Q97" s="117"/>
-      <c r="R97" s="117"/>
-      <c r="S97" s="117"/>
-      <c r="T97" s="117"/>
-      <c r="U97" s="117"/>
-      <c r="V97" s="117"/>
-      <c r="W97" s="117"/>
-      <c r="X97" s="117"/>
+      <c r="A97" s="114"/>
+      <c r="B97" s="114"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="114"/>
+      <c r="J97" s="114"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="114"/>
+      <c r="O97" s="114"/>
+      <c r="P97" s="114"/>
+      <c r="Q97" s="114"/>
+      <c r="R97" s="114"/>
+      <c r="S97" s="114"/>
+      <c r="T97" s="114"/>
+      <c r="U97" s="114"/>
+      <c r="V97" s="114"/>
+      <c r="W97" s="114"/>
+      <c r="X97" s="114"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -17366,30 +17366,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="117"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="117"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="117"/>
-      <c r="H105" s="117"/>
-      <c r="I105" s="117"/>
-      <c r="J105" s="117"/>
-      <c r="K105" s="117"/>
-      <c r="L105" s="117"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="117"/>
-      <c r="O105" s="117"/>
-      <c r="P105" s="117"/>
-      <c r="Q105" s="117"/>
-      <c r="R105" s="117"/>
-      <c r="S105" s="117"/>
-      <c r="T105" s="117"/>
-      <c r="U105" s="117"/>
-      <c r="V105" s="117"/>
-      <c r="W105" s="117"/>
-      <c r="X105" s="117"/>
+      <c r="A105" s="114"/>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="114"/>
+      <c r="G105" s="114"/>
+      <c r="H105" s="114"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="114"/>
+      <c r="K105" s="114"/>
+      <c r="L105" s="114"/>
+      <c r="M105" s="114"/>
+      <c r="N105" s="114"/>
+      <c r="O105" s="114"/>
+      <c r="P105" s="114"/>
+      <c r="Q105" s="114"/>
+      <c r="R105" s="114"/>
+      <c r="S105" s="114"/>
+      <c r="T105" s="114"/>
+      <c r="U105" s="114"/>
+      <c r="V105" s="114"/>
+      <c r="W105" s="114"/>
+      <c r="X105" s="114"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -17495,15 +17495,6 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -17517,6 +17508,15 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17581,31 +17581,31 @@
       <c r="W1" s="118"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -18922,29 +18922,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
       <c r="S30" s="119"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -20262,28 +20262,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="119"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
       <c r="S58" s="119"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="115"/>
-      <c r="W58" s="115"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="116"/>
+      <c r="W58" s="116"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -21680,29 +21680,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="115"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="115"/>
-      <c r="L86" s="115"/>
-      <c r="M86" s="115"/>
-      <c r="N86" s="115"/>
-      <c r="O86" s="115"/>
-      <c r="P86" s="115"/>
-      <c r="Q86" s="115"/>
-      <c r="R86" s="115"/>
-      <c r="S86" s="115"/>
-      <c r="T86" s="115"/>
-      <c r="U86" s="115"/>
-      <c r="V86" s="115"/>
-      <c r="W86" s="115"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="116"/>
+      <c r="M86" s="116"/>
+      <c r="N86" s="116"/>
+      <c r="O86" s="116"/>
+      <c r="P86" s="116"/>
+      <c r="Q86" s="116"/>
+      <c r="R86" s="116"/>
+      <c r="S86" s="116"/>
+      <c r="T86" s="116"/>
+      <c r="U86" s="116"/>
+      <c r="V86" s="116"/>
+      <c r="W86" s="116"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -23178,29 +23178,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="115"/>
-      <c r="B114" s="115"/>
-      <c r="C114" s="115"/>
-      <c r="D114" s="115"/>
-      <c r="E114" s="115"/>
-      <c r="F114" s="115"/>
-      <c r="G114" s="115"/>
-      <c r="H114" s="115"/>
-      <c r="I114" s="115"/>
-      <c r="J114" s="115"/>
-      <c r="K114" s="115"/>
-      <c r="L114" s="115"/>
-      <c r="M114" s="115"/>
-      <c r="N114" s="115"/>
-      <c r="O114" s="115"/>
-      <c r="P114" s="115"/>
-      <c r="Q114" s="115"/>
-      <c r="R114" s="115"/>
-      <c r="S114" s="115"/>
-      <c r="T114" s="115"/>
-      <c r="U114" s="115"/>
-      <c r="V114" s="115"/>
-      <c r="W114" s="115"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="116"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+      <c r="G114" s="116"/>
+      <c r="H114" s="116"/>
+      <c r="I114" s="116"/>
+      <c r="J114" s="116"/>
+      <c r="K114" s="116"/>
+      <c r="L114" s="116"/>
+      <c r="M114" s="116"/>
+      <c r="N114" s="116"/>
+      <c r="O114" s="116"/>
+      <c r="P114" s="116"/>
+      <c r="Q114" s="116"/>
+      <c r="R114" s="116"/>
+      <c r="S114" s="116"/>
+      <c r="T114" s="116"/>
+      <c r="U114" s="116"/>
+      <c r="V114" s="116"/>
+      <c r="W114" s="116"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -24672,29 +24672,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="115"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="115"/>
-      <c r="D142" s="115"/>
-      <c r="E142" s="115"/>
-      <c r="F142" s="115"/>
-      <c r="G142" s="115"/>
-      <c r="H142" s="115"/>
-      <c r="I142" s="115"/>
-      <c r="J142" s="115"/>
-      <c r="K142" s="115"/>
-      <c r="L142" s="115"/>
-      <c r="M142" s="115"/>
-      <c r="N142" s="115"/>
-      <c r="O142" s="115"/>
-      <c r="P142" s="115"/>
-      <c r="Q142" s="115"/>
-      <c r="R142" s="115"/>
-      <c r="S142" s="115"/>
-      <c r="T142" s="115"/>
-      <c r="U142" s="115"/>
-      <c r="V142" s="115"/>
-      <c r="W142" s="115"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="116"/>
+      <c r="E142" s="116"/>
+      <c r="F142" s="116"/>
+      <c r="G142" s="116"/>
+      <c r="H142" s="116"/>
+      <c r="I142" s="116"/>
+      <c r="J142" s="116"/>
+      <c r="K142" s="116"/>
+      <c r="L142" s="116"/>
+      <c r="M142" s="116"/>
+      <c r="N142" s="116"/>
+      <c r="O142" s="116"/>
+      <c r="P142" s="116"/>
+      <c r="Q142" s="116"/>
+      <c r="R142" s="116"/>
+      <c r="S142" s="116"/>
+      <c r="T142" s="116"/>
+      <c r="U142" s="116"/>
+      <c r="V142" s="116"/>
+      <c r="W142" s="116"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -26165,29 +26165,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="115"/>
-      <c r="B170" s="115"/>
-      <c r="C170" s="115"/>
-      <c r="D170" s="115"/>
-      <c r="E170" s="115"/>
-      <c r="F170" s="115"/>
-      <c r="G170" s="115"/>
-      <c r="H170" s="115"/>
-      <c r="I170" s="115"/>
-      <c r="J170" s="115"/>
-      <c r="K170" s="115"/>
-      <c r="L170" s="115"/>
-      <c r="M170" s="115"/>
-      <c r="N170" s="115"/>
-      <c r="O170" s="115"/>
-      <c r="P170" s="115"/>
-      <c r="Q170" s="115"/>
-      <c r="R170" s="115"/>
-      <c r="S170" s="115"/>
-      <c r="T170" s="115"/>
-      <c r="U170" s="115"/>
-      <c r="V170" s="115"/>
-      <c r="W170" s="115"/>
+      <c r="A170" s="116"/>
+      <c r="B170" s="116"/>
+      <c r="C170" s="116"/>
+      <c r="D170" s="116"/>
+      <c r="E170" s="116"/>
+      <c r="F170" s="116"/>
+      <c r="G170" s="116"/>
+      <c r="H170" s="116"/>
+      <c r="I170" s="116"/>
+      <c r="J170" s="116"/>
+      <c r="K170" s="116"/>
+      <c r="L170" s="116"/>
+      <c r="M170" s="116"/>
+      <c r="N170" s="116"/>
+      <c r="O170" s="116"/>
+      <c r="P170" s="116"/>
+      <c r="Q170" s="116"/>
+      <c r="R170" s="116"/>
+      <c r="S170" s="116"/>
+      <c r="T170" s="116"/>
+      <c r="U170" s="116"/>
+      <c r="V170" s="116"/>
+      <c r="W170" s="116"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -27659,29 +27659,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="115"/>
-      <c r="B198" s="115"/>
-      <c r="C198" s="115"/>
-      <c r="D198" s="115"/>
-      <c r="E198" s="115"/>
-      <c r="F198" s="115"/>
-      <c r="G198" s="115"/>
-      <c r="H198" s="115"/>
-      <c r="I198" s="115"/>
-      <c r="J198" s="115"/>
-      <c r="K198" s="115"/>
-      <c r="L198" s="115"/>
-      <c r="M198" s="115"/>
-      <c r="N198" s="115"/>
-      <c r="O198" s="115"/>
-      <c r="P198" s="115"/>
-      <c r="Q198" s="115"/>
-      <c r="R198" s="115"/>
-      <c r="S198" s="115"/>
-      <c r="T198" s="115"/>
-      <c r="U198" s="115"/>
-      <c r="V198" s="115"/>
-      <c r="W198" s="115"/>
+      <c r="A198" s="116"/>
+      <c r="B198" s="116"/>
+      <c r="C198" s="116"/>
+      <c r="D198" s="116"/>
+      <c r="E198" s="116"/>
+      <c r="F198" s="116"/>
+      <c r="G198" s="116"/>
+      <c r="H198" s="116"/>
+      <c r="I198" s="116"/>
+      <c r="J198" s="116"/>
+      <c r="K198" s="116"/>
+      <c r="L198" s="116"/>
+      <c r="M198" s="116"/>
+      <c r="N198" s="116"/>
+      <c r="O198" s="116"/>
+      <c r="P198" s="116"/>
+      <c r="Q198" s="116"/>
+      <c r="R198" s="116"/>
+      <c r="S198" s="116"/>
+      <c r="T198" s="116"/>
+      <c r="U198" s="116"/>
+      <c r="V198" s="116"/>
+      <c r="W198" s="116"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -29173,15 +29173,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="M60:M85"/>
+    <mergeCell ref="S144:S169"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A30:W30"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="A32:A57"/>
+    <mergeCell ref="S4:S29"/>
+    <mergeCell ref="M4:M29"/>
+    <mergeCell ref="G4:G29"/>
+    <mergeCell ref="A60:A85"/>
+    <mergeCell ref="G32:G57"/>
+    <mergeCell ref="M32:M57"/>
+    <mergeCell ref="S32:S57"/>
     <mergeCell ref="G60:G85"/>
     <mergeCell ref="G172:G195"/>
     <mergeCell ref="A200:A225"/>
@@ -29198,22 +29205,15 @@
     <mergeCell ref="A114:W114"/>
     <mergeCell ref="G88:G111"/>
     <mergeCell ref="A88:A113"/>
-    <mergeCell ref="M60:M85"/>
-    <mergeCell ref="S144:S169"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A30:W30"/>
-    <mergeCell ref="A58:W58"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="A32:A57"/>
-    <mergeCell ref="S4:S29"/>
-    <mergeCell ref="M4:M29"/>
-    <mergeCell ref="G4:G29"/>
-    <mergeCell ref="A60:A85"/>
-    <mergeCell ref="G32:G57"/>
-    <mergeCell ref="M32:M57"/>
-    <mergeCell ref="S32:S57"/>
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30464,11 +30464,6 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -30476,6 +30471,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -5211,7 +5211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5470,17 +5470,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5551,9 +5551,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5561,6 +5558,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5584,11 +5584,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5596,14 +5599,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5617,20 +5629,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5647,24 +5647,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5673,6 +5655,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5686,11 +5683,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5698,8 +5698,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9923,134 +9929,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="136" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="137" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="138"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="L7" s="140" t="s">
+      <c r="I7" s="142"/>
+      <c r="L7" s="137" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="141"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="137" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="L8" s="140" t="s">
+      <c r="F8" s="138"/>
+      <c r="L8" s="137" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="141"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="L9" s="138" t="s">
+      <c r="F9" s="138"/>
+      <c r="L9" s="139" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="139"/>
+      <c r="M9" s="140"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="L10" s="136" t="s">
+      <c r="F10" s="140"/>
+      <c r="L10" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="137"/>
+      <c r="M10" s="142"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="137"/>
-      <c r="I11" s="140" t="s">
+      <c r="F11" s="142"/>
+      <c r="I11" s="137" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="141"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="137" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="138"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="138" t="s">
+      <c r="I13" s="139" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="137"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -10067,673 +10073,779 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="137" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="138"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="138" t="s">
+      <c r="H19" s="139" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="139"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="137"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="141" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="137"/>
+      <c r="I21" s="142"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="148" t="s">
+      <c r="W22" s="143" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="149"/>
-      <c r="Z22" s="143" t="s">
+      <c r="X22" s="144"/>
+      <c r="Z22" s="147" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="144"/>
+      <c r="AA22" s="148"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="137" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="H23" s="140" t="s">
+      <c r="C23" s="151"/>
+      <c r="H23" s="137" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="151"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="146"/>
+      <c r="I23" s="138"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="146"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="150"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="H24" s="140" t="s">
+      <c r="C24" s="138"/>
+      <c r="H24" s="137" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="141"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="H25" s="136" t="s">
+      <c r="C25" s="140"/>
+      <c r="H25" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="N25" s="140" t="s">
+      <c r="I25" s="142"/>
+      <c r="N25" s="137" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="141"/>
-      <c r="T25" s="140" t="s">
+      <c r="O25" s="138"/>
+      <c r="T25" s="137" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="141"/>
-      <c r="W25" s="140" t="s">
+      <c r="U25" s="138"/>
+      <c r="W25" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="141"/>
+      <c r="X25" s="138"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="H26" s="138" t="s">
+      <c r="C26" s="142"/>
+      <c r="H26" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="139"/>
-      <c r="N26" s="140" t="s">
+      <c r="I26" s="140"/>
+      <c r="N26" s="137" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="141"/>
-      <c r="T26" s="140" t="s">
+      <c r="O26" s="138"/>
+      <c r="T26" s="137" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="141"/>
-      <c r="W26" s="140" t="s">
+      <c r="U26" s="138"/>
+      <c r="W26" s="137" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="141"/>
+      <c r="X26" s="138"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="H27" s="136" t="s">
+      <c r="C27" s="142"/>
+      <c r="H27" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="137"/>
-      <c r="N27" s="138" t="s">
+      <c r="I27" s="142"/>
+      <c r="N27" s="139" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="140" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="138" t="s">
+      <c r="T27" s="139" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="139" t="s">
+      <c r="U27" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="138" t="s">
+      <c r="W27" s="139" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="139" t="s">
+      <c r="X27" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="N28" s="136" t="s">
+      <c r="C28" s="142"/>
+      <c r="N28" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="142" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="136" t="s">
+      <c r="T28" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="137" t="s">
+      <c r="U28" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="136" t="s">
+      <c r="W28" s="141" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="137" t="s">
+      <c r="X28" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="137" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="141"/>
+      <c r="L30" s="138"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="140" t="s">
+      <c r="K31" s="137" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="141"/>
-      <c r="N31" s="140" t="s">
+      <c r="L31" s="138"/>
+      <c r="N31" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="141"/>
-      <c r="T31" s="140" t="s">
+      <c r="O31" s="138"/>
+      <c r="T31" s="137" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="141"/>
-      <c r="W31" s="140" t="s">
+      <c r="U31" s="138"/>
+      <c r="W31" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="141"/>
+      <c r="X31" s="138"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="139" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="139" t="s">
+      <c r="L32" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="140" t="s">
+      <c r="N32" s="137" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="141"/>
-      <c r="T32" s="140" t="s">
+      <c r="O32" s="138"/>
+      <c r="T32" s="137" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="141"/>
-      <c r="W32" s="140" t="s">
+      <c r="U32" s="138"/>
+      <c r="W32" s="137" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="141"/>
+      <c r="X32" s="138"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="141" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="137" t="s">
+      <c r="L33" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="138" t="s">
+      <c r="N33" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="139" t="s">
+      <c r="O33" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="138" t="s">
+      <c r="T33" s="139" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="139" t="s">
+      <c r="U33" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="138" t="s">
+      <c r="W33" s="139" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="139" t="s">
+      <c r="X33" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="136" t="s">
+      <c r="N34" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="137" t="s">
+      <c r="O34" s="142" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="136" t="s">
+      <c r="T34" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="137" t="s">
+      <c r="U34" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="136" t="s">
+      <c r="W34" s="141" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="137" t="s">
+      <c r="X34" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="140" t="s">
+      <c r="E35" s="137" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="141"/>
+      <c r="F35" s="138"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="140" t="s">
+      <c r="E36" s="137" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="142"/>
+      <c r="F36" s="151"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="139" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="J37" s="140" t="s">
+      <c r="F37" s="140"/>
+      <c r="J37" s="137" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="141"/>
-      <c r="T37" s="140" t="s">
+      <c r="K37" s="138"/>
+      <c r="T37" s="137" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="141"/>
-      <c r="W37" s="140" t="s">
+      <c r="U37" s="138"/>
+      <c r="W37" s="137" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="141"/>
+      <c r="X37" s="138"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="140" t="s">
+      <c r="J38" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="141"/>
-      <c r="Q38" s="140" t="s">
+      <c r="K38" s="138"/>
+      <c r="Q38" s="137" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="141"/>
-      <c r="T38" s="140" t="s">
+      <c r="R38" s="138"/>
+      <c r="T38" s="137" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="141"/>
-      <c r="W38" s="140" t="s">
+      <c r="U38" s="138"/>
+      <c r="W38" s="137" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="141"/>
+      <c r="X38" s="138"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="138" t="s">
+      <c r="J39" s="139" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="139" t="s">
+      <c r="K39" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="140" t="s">
+      <c r="Q39" s="137" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="141"/>
-      <c r="T39" s="138" t="s">
+      <c r="R39" s="138"/>
+      <c r="T39" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="139" t="s">
+      <c r="U39" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="138" t="s">
+      <c r="W39" s="139" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="139" t="s">
+      <c r="X39" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="136" t="s">
+      <c r="J40" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="137" t="s">
+      <c r="K40" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="138" t="s">
+      <c r="Q40" s="139" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="139" t="s">
+      <c r="R40" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="136" t="s">
+      <c r="T40" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="137" t="s">
+      <c r="U40" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="136" t="s">
+      <c r="W40" s="141" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="137" t="s">
+      <c r="X40" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="136" t="s">
+      <c r="Q41" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="142" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="140" t="s">
+      <c r="T43" s="137" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="141"/>
-      <c r="W43" s="140" t="s">
+      <c r="U43" s="138"/>
+      <c r="W43" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="141"/>
+      <c r="X43" s="138"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="140" t="s">
+      <c r="T44" s="137" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="141"/>
-      <c r="W44" s="140" t="s">
+      <c r="U44" s="138"/>
+      <c r="W44" s="137" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="141"/>
+      <c r="X44" s="138"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="138" t="s">
+      <c r="T45" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="139" t="s">
+      <c r="U45" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="138" t="s">
+      <c r="W45" s="139" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="139" t="s">
+      <c r="X45" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="136" t="s">
+      <c r="T46" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="137" t="s">
+      <c r="U46" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="136" t="s">
+      <c r="W46" s="141" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="137" t="s">
+      <c r="X46" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="140" t="s">
+      <c r="T49" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="141"/>
-      <c r="W49" s="140" t="s">
+      <c r="U49" s="138"/>
+      <c r="W49" s="137" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="141"/>
+      <c r="X49" s="138"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="140" t="s">
+      <c r="T50" s="137" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="141"/>
-      <c r="W50" s="140" t="s">
+      <c r="U50" s="138"/>
+      <c r="W50" s="137" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="141"/>
+      <c r="X50" s="138"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="138" t="s">
+      <c r="T51" s="139" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="139" t="s">
+      <c r="U51" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="138" t="s">
+      <c r="W51" s="139" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="139" t="s">
+      <c r="X51" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="136" t="s">
+      <c r="T52" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="137" t="s">
+      <c r="U52" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="136" t="s">
+      <c r="W52" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="137" t="s">
+      <c r="X52" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="140" t="s">
+      <c r="T55" s="137" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="141"/>
-      <c r="W55" s="140" t="s">
+      <c r="U55" s="138"/>
+      <c r="W55" s="137" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="141"/>
+      <c r="X55" s="138"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="140" t="s">
+      <c r="T56" s="137" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="141"/>
-      <c r="W56" s="140" t="s">
+      <c r="U56" s="138"/>
+      <c r="W56" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="141"/>
+      <c r="X56" s="138"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="138" t="s">
+      <c r="T57" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="139" t="s">
+      <c r="U57" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="138" t="s">
+      <c r="W57" s="139" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="139" t="s">
+      <c r="X57" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="136" t="s">
+      <c r="T58" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="137" t="s">
+      <c r="U58" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="136" t="s">
+      <c r="W58" s="141" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="137" t="s">
+      <c r="X58" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="140" t="s">
+      <c r="T61" s="137" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="141"/>
-      <c r="W61" s="140" t="s">
+      <c r="U61" s="138"/>
+      <c r="W61" s="137" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="141"/>
+      <c r="X61" s="138"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="140" t="s">
+      <c r="T62" s="137" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="141"/>
-      <c r="W62" s="140" t="s">
+      <c r="U62" s="138"/>
+      <c r="W62" s="137" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="141"/>
+      <c r="X62" s="138"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="138" t="s">
+      <c r="T63" s="139" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="139" t="s">
+      <c r="U63" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="138" t="s">
+      <c r="W63" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="139" t="s">
+      <c r="X63" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="136" t="s">
+      <c r="T64" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="137" t="s">
+      <c r="U64" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="136" t="s">
+      <c r="W64" s="141" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="137" t="s">
+      <c r="X64" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="140" t="s">
+      <c r="T67" s="137" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="141"/>
-      <c r="W67" s="140" t="s">
+      <c r="U67" s="138"/>
+      <c r="W67" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="141"/>
+      <c r="X67" s="138"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="140" t="s">
+      <c r="T68" s="137" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="141"/>
-      <c r="W68" s="140" t="s">
+      <c r="U68" s="138"/>
+      <c r="W68" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="141"/>
+      <c r="X68" s="138"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="138" t="s">
+      <c r="T69" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="139" t="s">
+      <c r="U69" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="138" t="s">
+      <c r="W69" s="139" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="139" t="s">
+      <c r="X69" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="136" t="s">
+      <c r="T70" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="137" t="s">
+      <c r="U70" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="136" t="s">
+      <c r="W70" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="137" t="s">
+      <c r="X70" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="140" t="s">
+      <c r="T73" s="137" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="141"/>
-      <c r="W73" s="140" t="s">
+      <c r="U73" s="138"/>
+      <c r="W73" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="141"/>
+      <c r="X73" s="138"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="140" t="s">
+      <c r="T74" s="137" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="141"/>
-      <c r="W74" s="140" t="s">
+      <c r="U74" s="138"/>
+      <c r="W74" s="137" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="141"/>
+      <c r="X74" s="138"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="138" t="s">
+      <c r="T75" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="139" t="s">
+      <c r="U75" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="138" t="s">
+      <c r="W75" s="139" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="139" t="s">
+      <c r="X75" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="136" t="s">
+      <c r="T76" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="137" t="s">
+      <c r="U76" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="136" t="s">
+      <c r="W76" s="141" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="137" t="s">
+      <c r="X76" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
     <mergeCell ref="C1:L3"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W74:X74"/>
@@ -10758,112 +10870,6 @@
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="W45:X45"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11102,292 +11108,297 @@
   <dimension ref="B4:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G19"/>
+      <selection activeCell="D18" sqref="D18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="6" width="84.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="71.125" customWidth="1"/>
     <col min="7" max="7" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
       <c r="G4" s="89" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="160" t="s">
         <v>1022</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163" t="s">
+      <c r="C5" s="161"/>
+      <c r="D5" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="165"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="160" t="s">
         <v>1028</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163" t="s">
+      <c r="C6" s="161"/>
+      <c r="D6" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="165"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="160" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="161"/>
+      <c r="D7" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="165"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
       <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="160" t="s">
         <v>1030</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163" t="s">
+      <c r="C8" s="161"/>
+      <c r="D8" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
       <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="160" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163" t="s">
+      <c r="C9" s="161"/>
+      <c r="D9" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="167" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="157" t="s">
+      <c r="C10" s="168"/>
+      <c r="D10" s="169" t="s">
         <v>1023</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="170" t="s">
+      <c r="E10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="162" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="167" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="157" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="169" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="174"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="163"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="167" t="s">
         <v>1033</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="157" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="169" t="s">
         <v>1024</v>
       </c>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="171"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="164"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="160" t="s">
         <v>1034</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163" t="s">
+      <c r="C13" s="161"/>
+      <c r="D13" s="157" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="165"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="88" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="160" t="s">
         <v>1035</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="166" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="165" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="160" t="s">
         <v>1036</v>
       </c>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="167"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="166"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="160" t="s">
         <v>1038</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="166" t="s">
+      <c r="C16" s="161"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="165" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="160" t="s">
         <v>1039</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="167"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="166"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="160" t="s">
         <v>1041</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="166" t="s">
+      <c r="C18" s="161"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="165" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="160" t="s">
         <v>1042</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="167"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="166"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="172" t="s">
         <v>1045</v>
       </c>
       <c r="C20" s="173"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166" t="s">
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="165" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="160" t="s">
         <v>1046</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="167"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="172" t="s">
         <v>1048</v>
       </c>
       <c r="C22" s="173"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="89" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="160" t="s">
         <v>1050</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="166" t="s">
+      <c r="C23" s="161"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="165" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="160" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="167"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="167" t="s">
         <v>1065</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="157" t="s">
+      <c r="C25" s="168"/>
+      <c r="D25" s="169" t="s">
         <v>1068</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="170" t="s">
+      <c r="E25" s="170"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="162" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="167" t="s">
         <v>1066</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="157" t="s">
+      <c r="C26" s="168"/>
+      <c r="D26" s="169" t="s">
         <v>1067</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="171"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="164"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="160" t="s">
         <v>1026</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163" t="s">
+      <c r="C27" s="161"/>
+      <c r="D27" s="157" t="s">
         <v>1027</v>
       </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="165"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="73"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" thickBot="1">
@@ -11402,14 +11413,14 @@
       <c r="C31" s="92" t="s">
         <v>1057</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="174" t="s">
         <v>1069</v>
       </c>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-    </row>
-    <row r="32" spans="2:7" ht="14.25" thickBot="1">
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+    </row>
+    <row r="32" spans="2:7" ht="45.75" customHeight="1" thickBot="1">
       <c r="B32" s="91">
         <v>1</v>
       </c>
@@ -11421,7 +11432,7 @@
       <c r="F32" s="73"/>
       <c r="G32" s="73"/>
     </row>
-    <row r="33" spans="2:7" ht="14.25" thickBot="1">
+    <row r="33" spans="2:7" ht="45" customHeight="1" thickBot="1">
       <c r="B33" s="91">
         <v>2</v>
       </c>
@@ -11433,7 +11444,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="2:7" ht="14.25" thickBot="1">
+    <row r="34" spans="2:7" ht="41.25" customHeight="1" thickBot="1">
       <c r="B34" s="91">
         <v>3</v>
       </c>
@@ -11445,7 +11456,7 @@
       <c r="F34" s="73"/>
       <c r="G34" s="73"/>
     </row>
-    <row r="35" spans="2:7" ht="14.25" thickBot="1">
+    <row r="35" spans="2:7" ht="41.25" customHeight="1" thickBot="1">
       <c r="B35" s="91">
         <v>4</v>
       </c>
@@ -11457,7 +11468,7 @@
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
     </row>
-    <row r="36" spans="2:7" ht="14.25" thickBot="1">
+    <row r="36" spans="2:7" ht="44.25" customHeight="1" thickBot="1">
       <c r="B36" s="91">
         <v>5</v>
       </c>
@@ -11469,7 +11480,7 @@
       <c r="F36" s="73"/>
       <c r="G36" s="73"/>
     </row>
-    <row r="37" spans="2:7" ht="14.25" thickBot="1">
+    <row r="37" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B37" s="91">
         <v>6</v>
       </c>
@@ -11482,17 +11493,36 @@
       <c r="G37" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="55">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="B14:C14"/>
@@ -11508,35 +11538,17 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11578,7 +11590,7 @@
       <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -11593,7 +11605,7 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="99"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="83" t="s">
         <v>754</v>
       </c>
@@ -11606,7 +11618,7 @@
       <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>771</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -11683,7 +11695,7 @@
       <c r="D9" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="98" t="s">
         <v>986</v>
       </c>
     </row>
@@ -11698,7 +11710,7 @@
       <c r="D10" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="100"/>
@@ -11711,7 +11723,7 @@
       <c r="D11" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="100"/>
@@ -11724,7 +11736,7 @@
       <c r="D12" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="100"/>
@@ -11737,7 +11749,7 @@
       <c r="D13" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="100"/>
@@ -11750,7 +11762,7 @@
       <c r="D14" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="100"/>
@@ -11763,7 +11775,7 @@
       <c r="D15" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="98"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="100"/>
@@ -11776,10 +11788,10 @@
       <c r="D16" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="99"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="83" t="s">
         <v>855</v>
       </c>
@@ -11789,10 +11801,10 @@
       <c r="D17" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="99" t="s">
         <v>875</v>
       </c>
       <c r="B18" s="83" t="s">
@@ -11818,7 +11830,7 @@
       <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="99"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="83" t="s">
         <v>873</v>
       </c>
@@ -11829,7 +11841,7 @@
       <c r="E20" s="85"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="99" t="s">
         <v>941</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -11841,7 +11853,7 @@
       <c r="D21" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="98" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -11856,7 +11868,7 @@
       <c r="D22" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="100"/>
@@ -11869,7 +11881,7 @@
       <c r="D23" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="100"/>
@@ -11882,7 +11894,7 @@
       <c r="D24" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="100"/>
@@ -11895,7 +11907,7 @@
       <c r="D25" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E25" s="101"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="100"/>
@@ -11908,7 +11920,7 @@
       <c r="D26" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="100"/>
@@ -11921,7 +11933,7 @@
       <c r="D27" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E27" s="101"/>
+      <c r="E27" s="98"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="100"/>
@@ -11934,10 +11946,10 @@
       <c r="D28" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E28" s="101"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="99"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="83" t="s">
         <v>912</v>
       </c>
@@ -11947,10 +11959,10 @@
       <c r="D29" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E29" s="101"/>
+      <c r="E29" s="98"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="99" t="s">
         <v>940</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -11962,7 +11974,7 @@
       <c r="D30" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E30" s="101"/>
+      <c r="E30" s="98"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="100"/>
@@ -11975,7 +11987,7 @@
       <c r="D31" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E31" s="101"/>
+      <c r="E31" s="98"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="100"/>
@@ -11988,7 +12000,7 @@
       <c r="D32" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E32" s="101"/>
+      <c r="E32" s="98"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="100"/>
@@ -12001,7 +12013,7 @@
       <c r="D33" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E33" s="101"/>
+      <c r="E33" s="98"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="100"/>
@@ -12014,7 +12026,7 @@
       <c r="D34" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E34" s="101"/>
+      <c r="E34" s="98"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="100"/>
@@ -12027,7 +12039,7 @@
       <c r="D35" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E35" s="101"/>
+      <c r="E35" s="98"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="100"/>
@@ -12040,7 +12052,7 @@
       <c r="D36" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E36" s="101"/>
+      <c r="E36" s="98"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="100"/>
@@ -12053,7 +12065,7 @@
       <c r="D37" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E37" s="101"/>
+      <c r="E37" s="98"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="81" t="s">
@@ -12069,7 +12081,7 @@
       <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="99" t="s">
         <v>948</v>
       </c>
       <c r="B39" s="80" t="s">
@@ -12137,7 +12149,7 @@
       <c r="E44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="99"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="80" t="s">
         <v>964</v>
       </c>
@@ -12327,17 +12339,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15064,6 +15076,18 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -15080,18 +15104,6 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15538,233 +15550,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="126" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -17009,30 +17021,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="125"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
-      <c r="W36" s="125"/>
-      <c r="X36" s="125"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -17162,30 +17174,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="128"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="125"/>
-      <c r="U46" s="125"/>
-      <c r="V46" s="125"/>
-      <c r="W46" s="125"/>
-      <c r="X46" s="125"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -17341,30 +17353,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="128"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125"/>
-      <c r="W58" s="125"/>
-      <c r="X58" s="125"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -17622,30 +17634,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="125"/>
-      <c r="N66" s="125"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="125"/>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="125"/>
-      <c r="S66" s="125"/>
-      <c r="T66" s="125"/>
-      <c r="U66" s="125"/>
-      <c r="V66" s="125"/>
-      <c r="W66" s="125"/>
-      <c r="X66" s="125"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -17762,30 +17774,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="125"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125"/>
-      <c r="Q75" s="125"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
-      <c r="U75" s="125"/>
-      <c r="V75" s="125"/>
-      <c r="W75" s="125"/>
-      <c r="X75" s="125"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="128"/>
+      <c r="K75" s="128"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="128"/>
+      <c r="N75" s="128"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="128"/>
+      <c r="U75" s="128"/>
+      <c r="V75" s="128"/>
+      <c r="W75" s="128"/>
+      <c r="X75" s="128"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -17967,30 +17979,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="125"/>
-      <c r="O89" s="125"/>
-      <c r="P89" s="125"/>
-      <c r="Q89" s="125"/>
-      <c r="R89" s="125"/>
-      <c r="S89" s="125"/>
-      <c r="T89" s="125"/>
-      <c r="U89" s="125"/>
-      <c r="V89" s="125"/>
-      <c r="W89" s="125"/>
-      <c r="X89" s="125"/>
+      <c r="A89" s="128"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="128"/>
+      <c r="O89" s="128"/>
+      <c r="P89" s="128"/>
+      <c r="Q89" s="128"/>
+      <c r="R89" s="128"/>
+      <c r="S89" s="128"/>
+      <c r="T89" s="128"/>
+      <c r="U89" s="128"/>
+      <c r="V89" s="128"/>
+      <c r="W89" s="128"/>
+      <c r="X89" s="128"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -18094,30 +18106,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="125"/>
-      <c r="B97" s="125"/>
-      <c r="C97" s="125"/>
-      <c r="D97" s="125"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="125"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125"/>
-      <c r="J97" s="125"/>
-      <c r="K97" s="125"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="125"/>
-      <c r="N97" s="125"/>
-      <c r="O97" s="125"/>
-      <c r="P97" s="125"/>
-      <c r="Q97" s="125"/>
-      <c r="R97" s="125"/>
-      <c r="S97" s="125"/>
-      <c r="T97" s="125"/>
-      <c r="U97" s="125"/>
-      <c r="V97" s="125"/>
-      <c r="W97" s="125"/>
-      <c r="X97" s="125"/>
+      <c r="A97" s="128"/>
+      <c r="B97" s="128"/>
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="128"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="128"/>
+      <c r="J97" s="128"/>
+      <c r="K97" s="128"/>
+      <c r="L97" s="128"/>
+      <c r="M97" s="128"/>
+      <c r="N97" s="128"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="128"/>
+      <c r="Q97" s="128"/>
+      <c r="R97" s="128"/>
+      <c r="S97" s="128"/>
+      <c r="T97" s="128"/>
+      <c r="U97" s="128"/>
+      <c r="V97" s="128"/>
+      <c r="W97" s="128"/>
+      <c r="X97" s="128"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -18221,30 +18233,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="125"/>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="125"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="125"/>
-      <c r="K105" s="125"/>
-      <c r="L105" s="125"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="125"/>
-      <c r="O105" s="125"/>
-      <c r="P105" s="125"/>
-      <c r="Q105" s="125"/>
-      <c r="R105" s="125"/>
-      <c r="S105" s="125"/>
-      <c r="T105" s="125"/>
-      <c r="U105" s="125"/>
-      <c r="V105" s="125"/>
-      <c r="W105" s="125"/>
-      <c r="X105" s="125"/>
+      <c r="A105" s="128"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="128"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
+      <c r="F105" s="128"/>
+      <c r="G105" s="128"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="128"/>
+      <c r="M105" s="128"/>
+      <c r="N105" s="128"/>
+      <c r="O105" s="128"/>
+      <c r="P105" s="128"/>
+      <c r="Q105" s="128"/>
+      <c r="R105" s="128"/>
+      <c r="S105" s="128"/>
+      <c r="T105" s="128"/>
+      <c r="U105" s="128"/>
+      <c r="V105" s="128"/>
+      <c r="W105" s="128"/>
+      <c r="X105" s="128"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -18350,6 +18362,15 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -18363,15 +18384,6 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18436,31 +18448,31 @@
       <c r="W1" s="129"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -19777,29 +19789,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
       <c r="S30" s="130"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -21117,28 +21129,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="130"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="127"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="127"/>
-      <c r="R58" s="127"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
       <c r="S58" s="130"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="127"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -22535,29 +22547,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="127"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="127"/>
-      <c r="N86" s="127"/>
-      <c r="O86" s="127"/>
-      <c r="P86" s="127"/>
-      <c r="Q86" s="127"/>
-      <c r="R86" s="127"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="127"/>
-      <c r="U86" s="127"/>
-      <c r="V86" s="127"/>
-      <c r="W86" s="127"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
+      <c r="M86" s="126"/>
+      <c r="N86" s="126"/>
+      <c r="O86" s="126"/>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
+      <c r="R86" s="126"/>
+      <c r="S86" s="126"/>
+      <c r="T86" s="126"/>
+      <c r="U86" s="126"/>
+      <c r="V86" s="126"/>
+      <c r="W86" s="126"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -24033,29 +24045,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="127"/>
-      <c r="B114" s="127"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="127"/>
-      <c r="L114" s="127"/>
-      <c r="M114" s="127"/>
-      <c r="N114" s="127"/>
-      <c r="O114" s="127"/>
-      <c r="P114" s="127"/>
-      <c r="Q114" s="127"/>
-      <c r="R114" s="127"/>
-      <c r="S114" s="127"/>
-      <c r="T114" s="127"/>
-      <c r="U114" s="127"/>
-      <c r="V114" s="127"/>
-      <c r="W114" s="127"/>
+      <c r="A114" s="126"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+      <c r="M114" s="126"/>
+      <c r="N114" s="126"/>
+      <c r="O114" s="126"/>
+      <c r="P114" s="126"/>
+      <c r="Q114" s="126"/>
+      <c r="R114" s="126"/>
+      <c r="S114" s="126"/>
+      <c r="T114" s="126"/>
+      <c r="U114" s="126"/>
+      <c r="V114" s="126"/>
+      <c r="W114" s="126"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -25527,29 +25539,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="127"/>
-      <c r="B142" s="127"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="127"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="127"/>
-      <c r="L142" s="127"/>
-      <c r="M142" s="127"/>
-      <c r="N142" s="127"/>
-      <c r="O142" s="127"/>
-      <c r="P142" s="127"/>
-      <c r="Q142" s="127"/>
-      <c r="R142" s="127"/>
-      <c r="S142" s="127"/>
-      <c r="T142" s="127"/>
-      <c r="U142" s="127"/>
-      <c r="V142" s="127"/>
-      <c r="W142" s="127"/>
+      <c r="A142" s="126"/>
+      <c r="B142" s="126"/>
+      <c r="C142" s="126"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="126"/>
+      <c r="F142" s="126"/>
+      <c r="G142" s="126"/>
+      <c r="H142" s="126"/>
+      <c r="I142" s="126"/>
+      <c r="J142" s="126"/>
+      <c r="K142" s="126"/>
+      <c r="L142" s="126"/>
+      <c r="M142" s="126"/>
+      <c r="N142" s="126"/>
+      <c r="O142" s="126"/>
+      <c r="P142" s="126"/>
+      <c r="Q142" s="126"/>
+      <c r="R142" s="126"/>
+      <c r="S142" s="126"/>
+      <c r="T142" s="126"/>
+      <c r="U142" s="126"/>
+      <c r="V142" s="126"/>
+      <c r="W142" s="126"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -27020,29 +27032,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="127"/>
-      <c r="B170" s="127"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="127"/>
-      <c r="E170" s="127"/>
-      <c r="F170" s="127"/>
-      <c r="G170" s="127"/>
-      <c r="H170" s="127"/>
-      <c r="I170" s="127"/>
-      <c r="J170" s="127"/>
-      <c r="K170" s="127"/>
-      <c r="L170" s="127"/>
-      <c r="M170" s="127"/>
-      <c r="N170" s="127"/>
-      <c r="O170" s="127"/>
-      <c r="P170" s="127"/>
-      <c r="Q170" s="127"/>
-      <c r="R170" s="127"/>
-      <c r="S170" s="127"/>
-      <c r="T170" s="127"/>
-      <c r="U170" s="127"/>
-      <c r="V170" s="127"/>
-      <c r="W170" s="127"/>
+      <c r="A170" s="126"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="126"/>
+      <c r="D170" s="126"/>
+      <c r="E170" s="126"/>
+      <c r="F170" s="126"/>
+      <c r="G170" s="126"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
+      <c r="J170" s="126"/>
+      <c r="K170" s="126"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="126"/>
+      <c r="N170" s="126"/>
+      <c r="O170" s="126"/>
+      <c r="P170" s="126"/>
+      <c r="Q170" s="126"/>
+      <c r="R170" s="126"/>
+      <c r="S170" s="126"/>
+      <c r="T170" s="126"/>
+      <c r="U170" s="126"/>
+      <c r="V170" s="126"/>
+      <c r="W170" s="126"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -28514,29 +28526,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="127"/>
-      <c r="B198" s="127"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="127"/>
-      <c r="L198" s="127"/>
-      <c r="M198" s="127"/>
-      <c r="N198" s="127"/>
-      <c r="O198" s="127"/>
-      <c r="P198" s="127"/>
-      <c r="Q198" s="127"/>
-      <c r="R198" s="127"/>
-      <c r="S198" s="127"/>
-      <c r="T198" s="127"/>
-      <c r="U198" s="127"/>
-      <c r="V198" s="127"/>
-      <c r="W198" s="127"/>
+      <c r="A198" s="126"/>
+      <c r="B198" s="126"/>
+      <c r="C198" s="126"/>
+      <c r="D198" s="126"/>
+      <c r="E198" s="126"/>
+      <c r="F198" s="126"/>
+      <c r="G198" s="126"/>
+      <c r="H198" s="126"/>
+      <c r="I198" s="126"/>
+      <c r="J198" s="126"/>
+      <c r="K198" s="126"/>
+      <c r="L198" s="126"/>
+      <c r="M198" s="126"/>
+      <c r="N198" s="126"/>
+      <c r="O198" s="126"/>
+      <c r="P198" s="126"/>
+      <c r="Q198" s="126"/>
+      <c r="R198" s="126"/>
+      <c r="S198" s="126"/>
+      <c r="T198" s="126"/>
+      <c r="U198" s="126"/>
+      <c r="V198" s="126"/>
+      <c r="W198" s="126"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -30028,6 +30040,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="G60:G85"/>
+    <mergeCell ref="G172:G195"/>
+    <mergeCell ref="A200:A225"/>
+    <mergeCell ref="G200:G223"/>
+    <mergeCell ref="A198:W198"/>
+    <mergeCell ref="A170:W170"/>
+    <mergeCell ref="M200:M225"/>
+    <mergeCell ref="S200:S225"/>
+    <mergeCell ref="S172:S197"/>
+    <mergeCell ref="S60:S85"/>
+    <mergeCell ref="M116:M141"/>
+    <mergeCell ref="M144:M169"/>
+    <mergeCell ref="M172:M197"/>
+    <mergeCell ref="A114:W114"/>
+    <mergeCell ref="G88:G111"/>
+    <mergeCell ref="A88:A113"/>
     <mergeCell ref="M60:M85"/>
     <mergeCell ref="S144:S169"/>
     <mergeCell ref="A1:W1"/>
@@ -30044,31 +30081,6 @@
     <mergeCell ref="G32:G57"/>
     <mergeCell ref="M32:M57"/>
     <mergeCell ref="S32:S57"/>
-    <mergeCell ref="G60:G85"/>
-    <mergeCell ref="G172:G195"/>
-    <mergeCell ref="A200:A225"/>
-    <mergeCell ref="G200:G223"/>
-    <mergeCell ref="A198:W198"/>
-    <mergeCell ref="A170:W170"/>
-    <mergeCell ref="M200:M225"/>
-    <mergeCell ref="S200:S225"/>
-    <mergeCell ref="S172:S197"/>
-    <mergeCell ref="S60:S85"/>
-    <mergeCell ref="M116:M141"/>
-    <mergeCell ref="M144:M169"/>
-    <mergeCell ref="M172:M197"/>
-    <mergeCell ref="A114:W114"/>
-    <mergeCell ref="G88:G111"/>
-    <mergeCell ref="A88:A113"/>
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30287,7 +30299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -31319,6 +31331,11 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -31326,11 +31343,6 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="用户关系逻辑图" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="数据库关系视图" sheetId="9" r:id="rId10"/>
     <sheet name="问题讨论" sheetId="11" r:id="rId11"/>
     <sheet name="算法对位" sheetId="13" r:id="rId12"/>
+    <sheet name="原型设计-工程对位" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="1072">
   <si>
     <t>用户角色与权限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4585,12 +4586,40 @@
     <t>可见条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>1. 工程信息管理界面,在增，删，改，查后面增加一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工程对位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的功能，选择一条工程记录，将数据库中的工程记录和现场的工程编号进行关联，关联的工程编号及名称通过OPC的表名称解析出来，界面如下：
+2. 现场工程名称列表的数据来源【张洋在返回数据的时候，将现场数据对应的工程名称填写到数据库中】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4730,6 +4759,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -5211,7 +5248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5470,17 +5507,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5551,6 +5588,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5558,9 +5598,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5584,8 +5621,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5593,29 +5639,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5629,8 +5654,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5647,6 +5684,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5655,21 +5716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5683,14 +5729,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5698,14 +5741,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5714,72 +5760,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -9260,6 +9240,552 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="1390650"/>
+          <a:ext cx="5457825" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419351" y="2505076"/>
+          <a:ext cx="1104900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现场工程名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200776" y="3667125"/>
+          <a:ext cx="485774" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877051" y="3657600"/>
+          <a:ext cx="476249" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810001" y="2514600"/>
+          <a:ext cx="2009774" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下来选择现场的工程名称</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438401" y="2047875"/>
+          <a:ext cx="1104900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统工程名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="2047875"/>
+          <a:ext cx="2000249" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前记录的工程名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只读</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447926" y="1609725"/>
+          <a:ext cx="1104900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1609725"/>
+          <a:ext cx="2724150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前记录的工程对应的客户名称</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只读</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -9268,7 +9794,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9929,134 +10455,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="147" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="140" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="138"/>
+      <c r="I4" s="141"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="140" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="138"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="142"/>
-      <c r="L7" s="137" t="s">
+      <c r="I7" s="137"/>
+      <c r="L7" s="140" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="138"/>
+      <c r="M7" s="141"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="L8" s="137" t="s">
+      <c r="F8" s="141"/>
+      <c r="L8" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="138"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="L9" s="139" t="s">
+      <c r="F9" s="141"/>
+      <c r="L9" s="138" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="140"/>
+      <c r="M9" s="139"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="L10" s="141" t="s">
+      <c r="F10" s="139"/>
+      <c r="L10" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="142"/>
+      <c r="M10" s="137"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="136" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="I11" s="137" t="s">
+      <c r="F11" s="137"/>
+      <c r="I11" s="140" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="138"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="137" t="s">
+      <c r="I12" s="140" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="138"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="139" t="s">
+      <c r="I13" s="138" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="141" t="s">
+      <c r="I14" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="142"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -10073,709 +10599,743 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="140" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="138"/>
+      <c r="I17" s="141"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="140" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="138"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="139" t="s">
+      <c r="H19" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="142"/>
+      <c r="I20" s="137"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="142"/>
+      <c r="I21" s="137"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="143" t="s">
+      <c r="W22" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="144"/>
-      <c r="Z22" s="147" t="s">
+      <c r="X22" s="149"/>
+      <c r="Z22" s="143" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="148"/>
+      <c r="AA22" s="144"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="140" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="H23" s="137" t="s">
+      <c r="C23" s="142"/>
+      <c r="H23" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="138"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="146"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="150"/>
+      <c r="I23" s="141"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="151"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="146"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="140" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="H24" s="137" t="s">
+      <c r="C24" s="141"/>
+      <c r="H24" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="138"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="H25" s="141" t="s">
+      <c r="C25" s="139"/>
+      <c r="H25" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="142"/>
-      <c r="N25" s="137" t="s">
+      <c r="I25" s="137"/>
+      <c r="N25" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="138"/>
-      <c r="T25" s="137" t="s">
+      <c r="O25" s="141"/>
+      <c r="T25" s="140" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="138"/>
-      <c r="W25" s="137" t="s">
+      <c r="U25" s="141"/>
+      <c r="W25" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="138"/>
+      <c r="X25" s="141"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="H26" s="139" t="s">
+      <c r="C26" s="137"/>
+      <c r="H26" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="140"/>
-      <c r="N26" s="137" t="s">
+      <c r="I26" s="139"/>
+      <c r="N26" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="138"/>
-      <c r="T26" s="137" t="s">
+      <c r="O26" s="141"/>
+      <c r="T26" s="140" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="138"/>
-      <c r="W26" s="137" t="s">
+      <c r="U26" s="141"/>
+      <c r="W26" s="140" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="138"/>
+      <c r="X26" s="141"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="H27" s="141" t="s">
+      <c r="C27" s="137"/>
+      <c r="H27" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="142"/>
-      <c r="N27" s="139" t="s">
+      <c r="I27" s="137"/>
+      <c r="N27" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="140" t="s">
+      <c r="O27" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="139" t="s">
+      <c r="T27" s="138" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="140" t="s">
+      <c r="U27" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="139" t="s">
+      <c r="W27" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="140" t="s">
+      <c r="X27" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="N28" s="141" t="s">
+      <c r="C28" s="137"/>
+      <c r="N28" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="142" t="s">
+      <c r="O28" s="137" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="141" t="s">
+      <c r="T28" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="142" t="s">
+      <c r="U28" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="141" t="s">
+      <c r="W28" s="136" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="142" t="s">
+      <c r="X28" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="137" t="s">
+      <c r="K30" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="138"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="140" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="138"/>
-      <c r="N31" s="137" t="s">
+      <c r="L31" s="141"/>
+      <c r="N31" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="138"/>
-      <c r="T31" s="137" t="s">
+      <c r="O31" s="141"/>
+      <c r="T31" s="140" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="138"/>
-      <c r="W31" s="137" t="s">
+      <c r="U31" s="141"/>
+      <c r="W31" s="140" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="138"/>
+      <c r="X31" s="141"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="139" t="s">
+      <c r="K32" s="138" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="140" t="s">
+      <c r="L32" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="137" t="s">
+      <c r="N32" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="138"/>
-      <c r="T32" s="137" t="s">
+      <c r="O32" s="141"/>
+      <c r="T32" s="140" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="138"/>
-      <c r="W32" s="137" t="s">
+      <c r="U32" s="141"/>
+      <c r="W32" s="140" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="138"/>
+      <c r="X32" s="141"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="136" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="142" t="s">
+      <c r="L33" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="139" t="s">
+      <c r="N33" s="138" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="140" t="s">
+      <c r="O33" s="139" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="139" t="s">
+      <c r="T33" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="140" t="s">
+      <c r="U33" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="139" t="s">
+      <c r="W33" s="138" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="140" t="s">
+      <c r="X33" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="141" t="s">
+      <c r="N34" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="142" t="s">
+      <c r="O34" s="137" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="141" t="s">
+      <c r="T34" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="142" t="s">
+      <c r="U34" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="141" t="s">
+      <c r="W34" s="136" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="142" t="s">
+      <c r="X34" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="137" t="s">
+      <c r="E35" s="140" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="138"/>
+      <c r="F35" s="141"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="137" t="s">
+      <c r="E36" s="140" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="151"/>
+      <c r="F36" s="142"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="139" t="s">
+      <c r="E37" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="J37" s="137" t="s">
+      <c r="F37" s="139"/>
+      <c r="J37" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="138"/>
-      <c r="T37" s="137" t="s">
+      <c r="K37" s="141"/>
+      <c r="T37" s="140" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="138"/>
-      <c r="W37" s="137" t="s">
+      <c r="U37" s="141"/>
+      <c r="W37" s="140" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="138"/>
+      <c r="X37" s="141"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="137" t="s">
+      <c r="J38" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="138"/>
-      <c r="Q38" s="137" t="s">
+      <c r="K38" s="141"/>
+      <c r="Q38" s="140" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="138"/>
-      <c r="T38" s="137" t="s">
+      <c r="R38" s="141"/>
+      <c r="T38" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="138"/>
-      <c r="W38" s="137" t="s">
+      <c r="U38" s="141"/>
+      <c r="W38" s="140" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="138"/>
+      <c r="X38" s="141"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="139" t="s">
+      <c r="J39" s="138" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="137" t="s">
+      <c r="Q39" s="140" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="138"/>
-      <c r="T39" s="139" t="s">
+      <c r="R39" s="141"/>
+      <c r="T39" s="138" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="140" t="s">
+      <c r="U39" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="139" t="s">
+      <c r="W39" s="138" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="140" t="s">
+      <c r="X39" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="141" t="s">
+      <c r="J40" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="142" t="s">
+      <c r="K40" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="139" t="s">
+      <c r="Q40" s="138" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="140" t="s">
+      <c r="R40" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="141" t="s">
+      <c r="T40" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="142" t="s">
+      <c r="U40" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="141" t="s">
+      <c r="W40" s="136" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="142" t="s">
+      <c r="X40" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="141" t="s">
+      <c r="Q41" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="142" t="s">
+      <c r="R41" s="137" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="137" t="s">
+      <c r="T43" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="138"/>
-      <c r="W43" s="137" t="s">
+      <c r="U43" s="141"/>
+      <c r="W43" s="140" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="138"/>
+      <c r="X43" s="141"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="137" t="s">
+      <c r="T44" s="140" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="138"/>
-      <c r="W44" s="137" t="s">
+      <c r="U44" s="141"/>
+      <c r="W44" s="140" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="138"/>
+      <c r="X44" s="141"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="139" t="s">
+      <c r="T45" s="138" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="140" t="s">
+      <c r="U45" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="139" t="s">
+      <c r="W45" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="140" t="s">
+      <c r="X45" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="141" t="s">
+      <c r="T46" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="142" t="s">
+      <c r="U46" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="141" t="s">
+      <c r="W46" s="136" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="142" t="s">
+      <c r="X46" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="137" t="s">
+      <c r="T49" s="140" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="138"/>
-      <c r="W49" s="137" t="s">
+      <c r="U49" s="141"/>
+      <c r="W49" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="138"/>
+      <c r="X49" s="141"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="137" t="s">
+      <c r="T50" s="140" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="138"/>
-      <c r="W50" s="137" t="s">
+      <c r="U50" s="141"/>
+      <c r="W50" s="140" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="138"/>
+      <c r="X50" s="141"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="139" t="s">
+      <c r="T51" s="138" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="140" t="s">
+      <c r="U51" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="139" t="s">
+      <c r="W51" s="138" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="140" t="s">
+      <c r="X51" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="141" t="s">
+      <c r="T52" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="142" t="s">
+      <c r="U52" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="141" t="s">
+      <c r="W52" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="142" t="s">
+      <c r="X52" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="137" t="s">
+      <c r="T55" s="140" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="138"/>
-      <c r="W55" s="137" t="s">
+      <c r="U55" s="141"/>
+      <c r="W55" s="140" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="138"/>
+      <c r="X55" s="141"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="137" t="s">
+      <c r="T56" s="140" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="138"/>
-      <c r="W56" s="137" t="s">
+      <c r="U56" s="141"/>
+      <c r="W56" s="140" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="138"/>
+      <c r="X56" s="141"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="139" t="s">
+      <c r="T57" s="138" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="140" t="s">
+      <c r="U57" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="139" t="s">
+      <c r="W57" s="138" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="140" t="s">
+      <c r="X57" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="141" t="s">
+      <c r="T58" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="142" t="s">
+      <c r="U58" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="141" t="s">
+      <c r="W58" s="136" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="142" t="s">
+      <c r="X58" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="137" t="s">
+      <c r="T61" s="140" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="138"/>
-      <c r="W61" s="137" t="s">
+      <c r="U61" s="141"/>
+      <c r="W61" s="140" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="138"/>
+      <c r="X61" s="141"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="137" t="s">
+      <c r="T62" s="140" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="138"/>
-      <c r="W62" s="137" t="s">
+      <c r="U62" s="141"/>
+      <c r="W62" s="140" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="138"/>
+      <c r="X62" s="141"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="139" t="s">
+      <c r="T63" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="140" t="s">
+      <c r="U63" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="139" t="s">
+      <c r="W63" s="138" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="140" t="s">
+      <c r="X63" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="141" t="s">
+      <c r="T64" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="142" t="s">
+      <c r="U64" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="141" t="s">
+      <c r="W64" s="136" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="142" t="s">
+      <c r="X64" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="137" t="s">
+      <c r="T67" s="140" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="138"/>
-      <c r="W67" s="137" t="s">
+      <c r="U67" s="141"/>
+      <c r="W67" s="140" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="138"/>
+      <c r="X67" s="141"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="137" t="s">
+      <c r="T68" s="140" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="138"/>
-      <c r="W68" s="137" t="s">
+      <c r="U68" s="141"/>
+      <c r="W68" s="140" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="138"/>
+      <c r="X68" s="141"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="139" t="s">
+      <c r="T69" s="138" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="140" t="s">
+      <c r="U69" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="139" t="s">
+      <c r="W69" s="138" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="140" t="s">
+      <c r="X69" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="141" t="s">
+      <c r="T70" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="142" t="s">
+      <c r="U70" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="141" t="s">
+      <c r="W70" s="136" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="142" t="s">
+      <c r="X70" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="137" t="s">
+      <c r="T73" s="140" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="138"/>
-      <c r="W73" s="137" t="s">
+      <c r="U73" s="141"/>
+      <c r="W73" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="138"/>
+      <c r="X73" s="141"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="137" t="s">
+      <c r="T74" s="140" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="138"/>
-      <c r="W74" s="137" t="s">
+      <c r="U74" s="141"/>
+      <c r="W74" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="138"/>
+      <c r="X74" s="141"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="139" t="s">
+      <c r="T75" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="140" t="s">
+      <c r="U75" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="139" t="s">
+      <c r="W75" s="138" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="140" t="s">
+      <c r="X75" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="141" t="s">
+      <c r="T76" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="142" t="s">
+      <c r="U76" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="141" t="s">
+      <c r="W76" s="136" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="142" t="s">
+      <c r="X76" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C1:L3"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
@@ -10800,76 +11360,42 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="C1:L3"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="W67:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11107,8 +11633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:F18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11120,285 +11646,285 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="89" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="163" t="s">
         <v>1022</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="164"/>
+      <c r="D5" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="163" t="s">
         <v>1028</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="157" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="163" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="163" t="s">
         <v>1030</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="163" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="157" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="170" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169" t="s">
+      <c r="C10" s="171"/>
+      <c r="D10" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="172" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="170" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169" t="s">
+      <c r="C11" s="171"/>
+      <c r="D11" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="163"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="176"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="170" t="s">
         <v>1033</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="159" t="s">
         <v>1024</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="164"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="173"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="163" t="s">
         <v>1034</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="157" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="165" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="88" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="163" t="s">
         <v>1035</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="165" t="s">
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="163" t="s">
         <v>1036</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="166"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="169"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="163" t="s">
         <v>1038</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="165" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="163" t="s">
         <v>1039</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="163" t="s">
         <v>1041</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="165" t="s">
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="163" t="s">
         <v>1042</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="166"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="174" t="s">
         <v>1045</v>
       </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="165" t="s">
+      <c r="C20" s="175"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="163" t="s">
         <v>1046</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="166"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="169"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="174" t="s">
         <v>1048</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="159"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
       <c r="G22" s="89" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="163" t="s">
         <v>1050</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="165" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="163" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="166"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="170" t="s">
         <v>1065</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169" t="s">
+      <c r="C25" s="171"/>
+      <c r="D25" s="159" t="s">
         <v>1068</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="162" t="s">
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="172" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="170" t="s">
         <v>1066</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169" t="s">
+      <c r="C26" s="171"/>
+      <c r="D26" s="159" t="s">
         <v>1067</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="164"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="163" t="s">
         <v>1026</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="157" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165" t="s">
         <v>1027</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
       <c r="G27" s="73"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" thickBot="1">
@@ -11413,12 +11939,12 @@
       <c r="C31" s="92" t="s">
         <v>1057</v>
       </c>
-      <c r="D31" s="174" t="s">
+      <c r="D31" s="162" t="s">
         <v>1069</v>
       </c>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
     </row>
     <row r="32" spans="2:7" ht="45.75" customHeight="1" thickBot="1">
       <c r="B32" s="91">
@@ -11494,6 +12020,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D31:G31"/>
@@ -11510,49 +12075,48 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="80.25" customHeight="1">
+      <c r="A1" s="177" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11590,7 +12154,7 @@
       <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -11605,7 +12169,7 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="101"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="83" t="s">
         <v>754</v>
       </c>
@@ -11618,7 +12182,7 @@
       <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>771</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -11695,7 +12259,7 @@
       <c r="D9" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="101" t="s">
         <v>986</v>
       </c>
     </row>
@@ -11710,7 +12274,7 @@
       <c r="D10" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="100"/>
@@ -11723,7 +12287,7 @@
       <c r="D11" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="100"/>
@@ -11736,7 +12300,7 @@
       <c r="D12" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="100"/>
@@ -11749,7 +12313,7 @@
       <c r="D13" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="100"/>
@@ -11762,7 +12326,7 @@
       <c r="D14" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="100"/>
@@ -11775,7 +12339,7 @@
       <c r="D15" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="100"/>
@@ -11788,10 +12352,10 @@
       <c r="D16" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E16" s="98"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="101"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="83" t="s">
         <v>855</v>
       </c>
@@ -11801,10 +12365,10 @@
       <c r="D17" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>875</v>
       </c>
       <c r="B18" s="83" t="s">
@@ -11830,7 +12394,7 @@
       <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="101"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="83" t="s">
         <v>873</v>
       </c>
@@ -11841,7 +12405,7 @@
       <c r="E20" s="85"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>941</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -11853,7 +12417,7 @@
       <c r="D21" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="101" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -11868,7 +12432,7 @@
       <c r="D22" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="100"/>
@@ -11881,7 +12445,7 @@
       <c r="D23" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E23" s="98"/>
+      <c r="E23" s="101"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="100"/>
@@ -11894,7 +12458,7 @@
       <c r="D24" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E24" s="98"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="100"/>
@@ -11907,7 +12471,7 @@
       <c r="D25" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E25" s="98"/>
+      <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="100"/>
@@ -11920,7 +12484,7 @@
       <c r="D26" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E26" s="98"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="100"/>
@@ -11933,7 +12497,7 @@
       <c r="D27" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E27" s="98"/>
+      <c r="E27" s="101"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="100"/>
@@ -11946,10 +12510,10 @@
       <c r="D28" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="101"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="101"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="83" t="s">
         <v>912</v>
       </c>
@@ -11959,10 +12523,10 @@
       <c r="D29" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E29" s="98"/>
+      <c r="E29" s="101"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="98" t="s">
         <v>940</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -11974,7 +12538,7 @@
       <c r="D30" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E30" s="98"/>
+      <c r="E30" s="101"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="100"/>
@@ -11987,7 +12551,7 @@
       <c r="D31" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E31" s="98"/>
+      <c r="E31" s="101"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="100"/>
@@ -12000,7 +12564,7 @@
       <c r="D32" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E32" s="98"/>
+      <c r="E32" s="101"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="100"/>
@@ -12013,7 +12577,7 @@
       <c r="D33" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E33" s="98"/>
+      <c r="E33" s="101"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="100"/>
@@ -12026,7 +12590,7 @@
       <c r="D34" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E34" s="98"/>
+      <c r="E34" s="101"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="100"/>
@@ -12039,7 +12603,7 @@
       <c r="D35" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E35" s="98"/>
+      <c r="E35" s="101"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="100"/>
@@ -12052,7 +12616,7 @@
       <c r="D36" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="101"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="100"/>
@@ -12065,7 +12629,7 @@
       <c r="D37" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="81" t="s">
@@ -12081,7 +12645,7 @@
       <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="98" t="s">
         <v>948</v>
       </c>
       <c r="B39" s="80" t="s">
@@ -12149,7 +12713,7 @@
       <c r="E44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="101"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="80" t="s">
         <v>964</v>
       </c>
@@ -12339,17 +12903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15076,18 +15640,6 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -15104,6 +15656,18 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15550,233 +16114,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="127" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -17021,30 +17585,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="128"/>
-      <c r="X36" s="128"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -17174,30 +17738,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="127"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="128"/>
-      <c r="S46" s="128"/>
-      <c r="T46" s="128"/>
-      <c r="U46" s="128"/>
-      <c r="V46" s="128"/>
-      <c r="W46" s="128"/>
-      <c r="X46" s="128"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -17353,30 +17917,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="127"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
-      <c r="R58" s="128"/>
-      <c r="S58" s="128"/>
-      <c r="T58" s="128"/>
-      <c r="U58" s="128"/>
-      <c r="V58" s="128"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="128"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="125"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
+      <c r="X58" s="125"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -17634,30 +18198,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="127"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="128"/>
-      <c r="M66" s="128"/>
-      <c r="N66" s="128"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="128"/>
-      <c r="R66" s="128"/>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="125"/>
+      <c r="L66" s="125"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="125"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="125"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="125"/>
+      <c r="S66" s="125"/>
+      <c r="T66" s="125"/>
+      <c r="U66" s="125"/>
+      <c r="V66" s="125"/>
+      <c r="W66" s="125"/>
+      <c r="X66" s="125"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -17774,30 +18338,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="128"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="128"/>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="128"/>
-      <c r="N75" s="128"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="128"/>
-      <c r="Q75" s="128"/>
-      <c r="R75" s="128"/>
-      <c r="S75" s="128"/>
-      <c r="T75" s="128"/>
-      <c r="U75" s="128"/>
-      <c r="V75" s="128"/>
-      <c r="W75" s="128"/>
-      <c r="X75" s="128"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="125"/>
+      <c r="M75" s="125"/>
+      <c r="N75" s="125"/>
+      <c r="O75" s="125"/>
+      <c r="P75" s="125"/>
+      <c r="Q75" s="125"/>
+      <c r="R75" s="125"/>
+      <c r="S75" s="125"/>
+      <c r="T75" s="125"/>
+      <c r="U75" s="125"/>
+      <c r="V75" s="125"/>
+      <c r="W75" s="125"/>
+      <c r="X75" s="125"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -17979,30 +18543,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="128"/>
-      <c r="B89" s="128"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="128"/>
-      <c r="L89" s="128"/>
-      <c r="M89" s="128"/>
-      <c r="N89" s="128"/>
-      <c r="O89" s="128"/>
-      <c r="P89" s="128"/>
-      <c r="Q89" s="128"/>
-      <c r="R89" s="128"/>
-      <c r="S89" s="128"/>
-      <c r="T89" s="128"/>
-      <c r="U89" s="128"/>
-      <c r="V89" s="128"/>
-      <c r="W89" s="128"/>
-      <c r="X89" s="128"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="125"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="125"/>
+      <c r="N89" s="125"/>
+      <c r="O89" s="125"/>
+      <c r="P89" s="125"/>
+      <c r="Q89" s="125"/>
+      <c r="R89" s="125"/>
+      <c r="S89" s="125"/>
+      <c r="T89" s="125"/>
+      <c r="U89" s="125"/>
+      <c r="V89" s="125"/>
+      <c r="W89" s="125"/>
+      <c r="X89" s="125"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -18106,30 +18670,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="128"/>
-      <c r="B97" s="128"/>
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-      <c r="H97" s="128"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="128"/>
-      <c r="K97" s="128"/>
-      <c r="L97" s="128"/>
-      <c r="M97" s="128"/>
-      <c r="N97" s="128"/>
-      <c r="O97" s="128"/>
-      <c r="P97" s="128"/>
-      <c r="Q97" s="128"/>
-      <c r="R97" s="128"/>
-      <c r="S97" s="128"/>
-      <c r="T97" s="128"/>
-      <c r="U97" s="128"/>
-      <c r="V97" s="128"/>
-      <c r="W97" s="128"/>
-      <c r="X97" s="128"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="125"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="125"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125"/>
+      <c r="Q97" s="125"/>
+      <c r="R97" s="125"/>
+      <c r="S97" s="125"/>
+      <c r="T97" s="125"/>
+      <c r="U97" s="125"/>
+      <c r="V97" s="125"/>
+      <c r="W97" s="125"/>
+      <c r="X97" s="125"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -18233,30 +18797,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="128"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
-      <c r="H105" s="128"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="128"/>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
-      <c r="M105" s="128"/>
-      <c r="N105" s="128"/>
-      <c r="O105" s="128"/>
-      <c r="P105" s="128"/>
-      <c r="Q105" s="128"/>
-      <c r="R105" s="128"/>
-      <c r="S105" s="128"/>
-      <c r="T105" s="128"/>
-      <c r="U105" s="128"/>
-      <c r="V105" s="128"/>
-      <c r="W105" s="128"/>
-      <c r="X105" s="128"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="125"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="125"/>
+      <c r="N105" s="125"/>
+      <c r="O105" s="125"/>
+      <c r="P105" s="125"/>
+      <c r="Q105" s="125"/>
+      <c r="R105" s="125"/>
+      <c r="S105" s="125"/>
+      <c r="T105" s="125"/>
+      <c r="U105" s="125"/>
+      <c r="V105" s="125"/>
+      <c r="W105" s="125"/>
+      <c r="X105" s="125"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -18362,15 +18926,6 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -18384,6 +18939,15 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18448,31 +19012,31 @@
       <c r="W1" s="129"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -19789,29 +20353,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="130"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -21129,28 +21693,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="130"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
       <c r="S58" s="130"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
-      <c r="V58" s="126"/>
-      <c r="W58" s="126"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -22547,29 +23111,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="126"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="126"/>
-      <c r="N86" s="126"/>
-      <c r="O86" s="126"/>
-      <c r="P86" s="126"/>
-      <c r="Q86" s="126"/>
-      <c r="R86" s="126"/>
-      <c r="S86" s="126"/>
-      <c r="T86" s="126"/>
-      <c r="U86" s="126"/>
-      <c r="V86" s="126"/>
-      <c r="W86" s="126"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="127"/>
+      <c r="L86" s="127"/>
+      <c r="M86" s="127"/>
+      <c r="N86" s="127"/>
+      <c r="O86" s="127"/>
+      <c r="P86" s="127"/>
+      <c r="Q86" s="127"/>
+      <c r="R86" s="127"/>
+      <c r="S86" s="127"/>
+      <c r="T86" s="127"/>
+      <c r="U86" s="127"/>
+      <c r="V86" s="127"/>
+      <c r="W86" s="127"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -24045,29 +24609,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="126"/>
-      <c r="B114" s="126"/>
-      <c r="C114" s="126"/>
-      <c r="D114" s="126"/>
-      <c r="E114" s="126"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="I114" s="126"/>
-      <c r="J114" s="126"/>
-      <c r="K114" s="126"/>
-      <c r="L114" s="126"/>
-      <c r="M114" s="126"/>
-      <c r="N114" s="126"/>
-      <c r="O114" s="126"/>
-      <c r="P114" s="126"/>
-      <c r="Q114" s="126"/>
-      <c r="R114" s="126"/>
-      <c r="S114" s="126"/>
-      <c r="T114" s="126"/>
-      <c r="U114" s="126"/>
-      <c r="V114" s="126"/>
-      <c r="W114" s="126"/>
+      <c r="A114" s="127"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="127"/>
+      <c r="L114" s="127"/>
+      <c r="M114" s="127"/>
+      <c r="N114" s="127"/>
+      <c r="O114" s="127"/>
+      <c r="P114" s="127"/>
+      <c r="Q114" s="127"/>
+      <c r="R114" s="127"/>
+      <c r="S114" s="127"/>
+      <c r="T114" s="127"/>
+      <c r="U114" s="127"/>
+      <c r="V114" s="127"/>
+      <c r="W114" s="127"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -25539,29 +26103,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="126"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="126"/>
-      <c r="F142" s="126"/>
-      <c r="G142" s="126"/>
-      <c r="H142" s="126"/>
-      <c r="I142" s="126"/>
-      <c r="J142" s="126"/>
-      <c r="K142" s="126"/>
-      <c r="L142" s="126"/>
-      <c r="M142" s="126"/>
-      <c r="N142" s="126"/>
-      <c r="O142" s="126"/>
-      <c r="P142" s="126"/>
-      <c r="Q142" s="126"/>
-      <c r="R142" s="126"/>
-      <c r="S142" s="126"/>
-      <c r="T142" s="126"/>
-      <c r="U142" s="126"/>
-      <c r="V142" s="126"/>
-      <c r="W142" s="126"/>
+      <c r="A142" s="127"/>
+      <c r="B142" s="127"/>
+      <c r="C142" s="127"/>
+      <c r="D142" s="127"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="127"/>
+      <c r="H142" s="127"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="127"/>
+      <c r="K142" s="127"/>
+      <c r="L142" s="127"/>
+      <c r="M142" s="127"/>
+      <c r="N142" s="127"/>
+      <c r="O142" s="127"/>
+      <c r="P142" s="127"/>
+      <c r="Q142" s="127"/>
+      <c r="R142" s="127"/>
+      <c r="S142" s="127"/>
+      <c r="T142" s="127"/>
+      <c r="U142" s="127"/>
+      <c r="V142" s="127"/>
+      <c r="W142" s="127"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -27032,29 +27596,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="126"/>
-      <c r="B170" s="126"/>
-      <c r="C170" s="126"/>
-      <c r="D170" s="126"/>
-      <c r="E170" s="126"/>
-      <c r="F170" s="126"/>
-      <c r="G170" s="126"/>
-      <c r="H170" s="126"/>
-      <c r="I170" s="126"/>
-      <c r="J170" s="126"/>
-      <c r="K170" s="126"/>
-      <c r="L170" s="126"/>
-      <c r="M170" s="126"/>
-      <c r="N170" s="126"/>
-      <c r="O170" s="126"/>
-      <c r="P170" s="126"/>
-      <c r="Q170" s="126"/>
-      <c r="R170" s="126"/>
-      <c r="S170" s="126"/>
-      <c r="T170" s="126"/>
-      <c r="U170" s="126"/>
-      <c r="V170" s="126"/>
-      <c r="W170" s="126"/>
+      <c r="A170" s="127"/>
+      <c r="B170" s="127"/>
+      <c r="C170" s="127"/>
+      <c r="D170" s="127"/>
+      <c r="E170" s="127"/>
+      <c r="F170" s="127"/>
+      <c r="G170" s="127"/>
+      <c r="H170" s="127"/>
+      <c r="I170" s="127"/>
+      <c r="J170" s="127"/>
+      <c r="K170" s="127"/>
+      <c r="L170" s="127"/>
+      <c r="M170" s="127"/>
+      <c r="N170" s="127"/>
+      <c r="O170" s="127"/>
+      <c r="P170" s="127"/>
+      <c r="Q170" s="127"/>
+      <c r="R170" s="127"/>
+      <c r="S170" s="127"/>
+      <c r="T170" s="127"/>
+      <c r="U170" s="127"/>
+      <c r="V170" s="127"/>
+      <c r="W170" s="127"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -28526,29 +29090,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="126"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="126"/>
-      <c r="D198" s="126"/>
-      <c r="E198" s="126"/>
-      <c r="F198" s="126"/>
-      <c r="G198" s="126"/>
-      <c r="H198" s="126"/>
-      <c r="I198" s="126"/>
-      <c r="J198" s="126"/>
-      <c r="K198" s="126"/>
-      <c r="L198" s="126"/>
-      <c r="M198" s="126"/>
-      <c r="N198" s="126"/>
-      <c r="O198" s="126"/>
-      <c r="P198" s="126"/>
-      <c r="Q198" s="126"/>
-      <c r="R198" s="126"/>
-      <c r="S198" s="126"/>
-      <c r="T198" s="126"/>
-      <c r="U198" s="126"/>
-      <c r="V198" s="126"/>
-      <c r="W198" s="126"/>
+      <c r="A198" s="127"/>
+      <c r="B198" s="127"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="127"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
+      <c r="G198" s="127"/>
+      <c r="H198" s="127"/>
+      <c r="I198" s="127"/>
+      <c r="J198" s="127"/>
+      <c r="K198" s="127"/>
+      <c r="L198" s="127"/>
+      <c r="M198" s="127"/>
+      <c r="N198" s="127"/>
+      <c r="O198" s="127"/>
+      <c r="P198" s="127"/>
+      <c r="Q198" s="127"/>
+      <c r="R198" s="127"/>
+      <c r="S198" s="127"/>
+      <c r="T198" s="127"/>
+      <c r="U198" s="127"/>
+      <c r="V198" s="127"/>
+      <c r="W198" s="127"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -30040,15 +30604,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="M60:M85"/>
+    <mergeCell ref="S144:S169"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A30:W30"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="A32:A57"/>
+    <mergeCell ref="S4:S29"/>
+    <mergeCell ref="M4:M29"/>
+    <mergeCell ref="G4:G29"/>
+    <mergeCell ref="A60:A85"/>
+    <mergeCell ref="G32:G57"/>
+    <mergeCell ref="M32:M57"/>
+    <mergeCell ref="S32:S57"/>
     <mergeCell ref="G60:G85"/>
     <mergeCell ref="G172:G195"/>
     <mergeCell ref="A200:A225"/>
@@ -30065,22 +30636,15 @@
     <mergeCell ref="A114:W114"/>
     <mergeCell ref="G88:G111"/>
     <mergeCell ref="A88:A113"/>
-    <mergeCell ref="M60:M85"/>
-    <mergeCell ref="S144:S169"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A30:W30"/>
-    <mergeCell ref="A58:W58"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="A32:A57"/>
-    <mergeCell ref="S4:S29"/>
-    <mergeCell ref="M4:M29"/>
-    <mergeCell ref="G4:G29"/>
-    <mergeCell ref="A60:A85"/>
-    <mergeCell ref="G32:G57"/>
-    <mergeCell ref="M32:M57"/>
-    <mergeCell ref="S32:S57"/>
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31331,11 +31895,6 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -31343,6 +31902,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="用户关系逻辑图" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="问题讨论" sheetId="11" r:id="rId11"/>
     <sheet name="算法对位" sheetId="13" r:id="rId12"/>
     <sheet name="原型设计-工程对位" sheetId="14" r:id="rId13"/>
+    <sheet name="原型设计-零件对位" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1074">
   <si>
     <t>用户角色与权限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4612,6 +4613,17 @@
       <t>的功能，选择一条工程记录，将数据库中的工程记录和现场的工程编号进行关联，关联的工程编号及名称通过OPC的表名称解析出来，界面如下：
 2. 现场工程名称列表的数据来源【张洋在返回数据的时候，将现场数据对应的工程名称填写到数据库中】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 算法对位设置有两个作用：
+   A：通过算法设置，将系统的零件参数和实际现场的参数数据对应起来，界面提供实时显示。
+   B：算法设置的时候，保存了各个算法对应参数的额定值信息，作为提醒或报警时的比较数据。
+2. 实时数据进入系统后，每一条数据都要进行比较和汇总。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法1原型图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5248,7 +5260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5507,17 +5519,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5588,9 +5600,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5598,6 +5607,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5621,11 +5633,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5633,14 +5648,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5654,20 +5678,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5684,30 +5696,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5716,6 +5704,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5729,11 +5732,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5741,8 +5747,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5753,6 +5765,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5760,6 +5778,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -9786,6 +9870,1235 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="1762125"/>
+          <a:ext cx="7334250" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2847976"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工程名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71208</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2857500"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择客户，动态显示出对应的工程名称，只读。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="2390775"/>
+          <a:ext cx="1466849" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59449</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="2362200"/>
+          <a:ext cx="4774324" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下来选择当前角色的所有工程列表，只读</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1971675"/>
+          <a:ext cx="1466849" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>算法名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819399" y="1962150"/>
+          <a:ext cx="4791076" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择：算法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="3286126"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件类别：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85202</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="3295650"/>
+          <a:ext cx="4809602" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前工程对应的零件类别，可以固定为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种，只读。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3733801"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="3743325"/>
+          <a:ext cx="4809602" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前工程零件类别下对应的零件名称列表，只读</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="4200526"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件更换时间（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90258</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="4210050"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日期类型，弹框选择。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="4657726"/>
+          <a:ext cx="1476374" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>额定运行时间（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80733</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="4667250"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文本输入，校验：小时，整数。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="5124451"/>
+          <a:ext cx="1495424" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>算法说明：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838449" y="5133975"/>
+          <a:ext cx="4772025" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>累计运行时间（年）达到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>年，转化为小时数，记为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置小时，        </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>固定值。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务档案记录的上一次更换时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，若当前时间记为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，距离上一次更换 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的时间差为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Ta=(T-Td)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（注：转化为小时数），既是在服务档案中对应的零</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>件目前的累计运行时间。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. Ta&gt;Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时发送提醒。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="6743700"/>
+          <a:ext cx="485774" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="6734175"/>
+          <a:ext cx="476249" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -9794,7 +11107,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -10455,134 +11768,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="136" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="137" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="138"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="L7" s="140" t="s">
+      <c r="I7" s="142"/>
+      <c r="L7" s="137" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="141"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="137" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="L8" s="140" t="s">
+      <c r="F8" s="138"/>
+      <c r="L8" s="137" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="141"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="141"/>
-      <c r="L9" s="138" t="s">
+      <c r="F9" s="138"/>
+      <c r="L9" s="139" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="139"/>
+      <c r="M9" s="140"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="139" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="L10" s="136" t="s">
+      <c r="F10" s="140"/>
+      <c r="L10" s="141" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="137"/>
+      <c r="M10" s="142"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="137"/>
-      <c r="I11" s="140" t="s">
+      <c r="F11" s="142"/>
+      <c r="I11" s="137" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="141"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="137" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="141"/>
+      <c r="J12" s="138"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="138" t="s">
+      <c r="I13" s="139" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="137"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -10599,673 +11912,779 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="137" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="137" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="141"/>
+      <c r="I18" s="138"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="138" t="s">
+      <c r="H19" s="139" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="139"/>
+      <c r="I19" s="140"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="137"/>
+      <c r="I20" s="142"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="141" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="137"/>
+      <c r="I21" s="142"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="148" t="s">
+      <c r="W22" s="143" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="149"/>
-      <c r="Z22" s="143" t="s">
+      <c r="X22" s="144"/>
+      <c r="Z22" s="147" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="144"/>
+      <c r="AA22" s="148"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="137" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="H23" s="140" t="s">
+      <c r="C23" s="151"/>
+      <c r="H23" s="137" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="W23" s="150"/>
-      <c r="X23" s="151"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="146"/>
+      <c r="I23" s="138"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="146"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="150"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="137" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="H24" s="140" t="s">
+      <c r="C24" s="138"/>
+      <c r="H24" s="137" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="141"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="H25" s="136" t="s">
+      <c r="C25" s="140"/>
+      <c r="H25" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="N25" s="140" t="s">
+      <c r="I25" s="142"/>
+      <c r="N25" s="137" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="141"/>
-      <c r="T25" s="140" t="s">
+      <c r="O25" s="138"/>
+      <c r="T25" s="137" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="141"/>
-      <c r="W25" s="140" t="s">
+      <c r="U25" s="138"/>
+      <c r="W25" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="141"/>
+      <c r="X25" s="138"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="141" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="H26" s="138" t="s">
+      <c r="C26" s="142"/>
+      <c r="H26" s="139" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="139"/>
-      <c r="N26" s="140" t="s">
+      <c r="I26" s="140"/>
+      <c r="N26" s="137" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="141"/>
-      <c r="T26" s="140" t="s">
+      <c r="O26" s="138"/>
+      <c r="T26" s="137" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="141"/>
-      <c r="W26" s="140" t="s">
+      <c r="U26" s="138"/>
+      <c r="W26" s="137" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="141"/>
+      <c r="X26" s="138"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="H27" s="136" t="s">
+      <c r="C27" s="142"/>
+      <c r="H27" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="137"/>
-      <c r="N27" s="138" t="s">
+      <c r="I27" s="142"/>
+      <c r="N27" s="139" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="140" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="138" t="s">
+      <c r="T27" s="139" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="139" t="s">
+      <c r="U27" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="138" t="s">
+      <c r="W27" s="139" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="139" t="s">
+      <c r="X27" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="141" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="N28" s="136" t="s">
+      <c r="C28" s="142"/>
+      <c r="N28" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="142" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="136" t="s">
+      <c r="T28" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="137" t="s">
+      <c r="U28" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="136" t="s">
+      <c r="W28" s="141" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="137" t="s">
+      <c r="X28" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="137" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="141"/>
+      <c r="L30" s="138"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="140" t="s">
+      <c r="K31" s="137" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="141"/>
-      <c r="N31" s="140" t="s">
+      <c r="L31" s="138"/>
+      <c r="N31" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="141"/>
-      <c r="T31" s="140" t="s">
+      <c r="O31" s="138"/>
+      <c r="T31" s="137" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="141"/>
-      <c r="W31" s="140" t="s">
+      <c r="U31" s="138"/>
+      <c r="W31" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="141"/>
+      <c r="X31" s="138"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="139" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="139" t="s">
+      <c r="L32" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="140" t="s">
+      <c r="N32" s="137" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="141"/>
-      <c r="T32" s="140" t="s">
+      <c r="O32" s="138"/>
+      <c r="T32" s="137" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="141"/>
-      <c r="W32" s="140" t="s">
+      <c r="U32" s="138"/>
+      <c r="W32" s="137" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="141"/>
+      <c r="X32" s="138"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="141" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="137" t="s">
+      <c r="L33" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="138" t="s">
+      <c r="N33" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="139" t="s">
+      <c r="O33" s="140" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="138" t="s">
+      <c r="T33" s="139" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="139" t="s">
+      <c r="U33" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="138" t="s">
+      <c r="W33" s="139" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="139" t="s">
+      <c r="X33" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="136" t="s">
+      <c r="N34" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="137" t="s">
+      <c r="O34" s="142" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="136" t="s">
+      <c r="T34" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="137" t="s">
+      <c r="U34" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="136" t="s">
+      <c r="W34" s="141" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="137" t="s">
+      <c r="X34" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="140" t="s">
+      <c r="E35" s="137" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="141"/>
+      <c r="F35" s="138"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="140" t="s">
+      <c r="E36" s="137" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="142"/>
+      <c r="F36" s="151"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="139" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="J37" s="140" t="s">
+      <c r="F37" s="140"/>
+      <c r="J37" s="137" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="141"/>
-      <c r="T37" s="140" t="s">
+      <c r="K37" s="138"/>
+      <c r="T37" s="137" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="141"/>
-      <c r="W37" s="140" t="s">
+      <c r="U37" s="138"/>
+      <c r="W37" s="137" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="141"/>
+      <c r="X37" s="138"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="140" t="s">
+      <c r="J38" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="141"/>
-      <c r="Q38" s="140" t="s">
+      <c r="K38" s="138"/>
+      <c r="Q38" s="137" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="141"/>
-      <c r="T38" s="140" t="s">
+      <c r="R38" s="138"/>
+      <c r="T38" s="137" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="141"/>
-      <c r="W38" s="140" t="s">
+      <c r="U38" s="138"/>
+      <c r="W38" s="137" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="141"/>
+      <c r="X38" s="138"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="138" t="s">
+      <c r="J39" s="139" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="139" t="s">
+      <c r="K39" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="140" t="s">
+      <c r="Q39" s="137" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="141"/>
-      <c r="T39" s="138" t="s">
+      <c r="R39" s="138"/>
+      <c r="T39" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="139" t="s">
+      <c r="U39" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="138" t="s">
+      <c r="W39" s="139" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="139" t="s">
+      <c r="X39" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="136" t="s">
+      <c r="J40" s="141" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="137" t="s">
+      <c r="K40" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="138" t="s">
+      <c r="Q40" s="139" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="139" t="s">
+      <c r="R40" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="136" t="s">
+      <c r="T40" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="137" t="s">
+      <c r="U40" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="136" t="s">
+      <c r="W40" s="141" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="137" t="s">
+      <c r="X40" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="136" t="s">
+      <c r="Q41" s="141" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="142" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="140" t="s">
+      <c r="T43" s="137" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="141"/>
-      <c r="W43" s="140" t="s">
+      <c r="U43" s="138"/>
+      <c r="W43" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="141"/>
+      <c r="X43" s="138"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="140" t="s">
+      <c r="T44" s="137" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="141"/>
-      <c r="W44" s="140" t="s">
+      <c r="U44" s="138"/>
+      <c r="W44" s="137" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="141"/>
+      <c r="X44" s="138"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="138" t="s">
+      <c r="T45" s="139" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="139" t="s">
+      <c r="U45" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="138" t="s">
+      <c r="W45" s="139" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="139" t="s">
+      <c r="X45" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="136" t="s">
+      <c r="T46" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="137" t="s">
+      <c r="U46" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="136" t="s">
+      <c r="W46" s="141" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="137" t="s">
+      <c r="X46" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="140" t="s">
+      <c r="T49" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="141"/>
-      <c r="W49" s="140" t="s">
+      <c r="U49" s="138"/>
+      <c r="W49" s="137" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="141"/>
+      <c r="X49" s="138"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="140" t="s">
+      <c r="T50" s="137" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="141"/>
-      <c r="W50" s="140" t="s">
+      <c r="U50" s="138"/>
+      <c r="W50" s="137" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="141"/>
+      <c r="X50" s="138"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="138" t="s">
+      <c r="T51" s="139" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="139" t="s">
+      <c r="U51" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="138" t="s">
+      <c r="W51" s="139" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="139" t="s">
+      <c r="X51" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="136" t="s">
+      <c r="T52" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="137" t="s">
+      <c r="U52" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="136" t="s">
+      <c r="W52" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="137" t="s">
+      <c r="X52" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="140" t="s">
+      <c r="T55" s="137" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="141"/>
-      <c r="W55" s="140" t="s">
+      <c r="U55" s="138"/>
+      <c r="W55" s="137" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="141"/>
+      <c r="X55" s="138"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="140" t="s">
+      <c r="T56" s="137" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="141"/>
-      <c r="W56" s="140" t="s">
+      <c r="U56" s="138"/>
+      <c r="W56" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="141"/>
+      <c r="X56" s="138"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="138" t="s">
+      <c r="T57" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="139" t="s">
+      <c r="U57" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="138" t="s">
+      <c r="W57" s="139" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="139" t="s">
+      <c r="X57" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="136" t="s">
+      <c r="T58" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="137" t="s">
+      <c r="U58" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="136" t="s">
+      <c r="W58" s="141" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="137" t="s">
+      <c r="X58" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="140" t="s">
+      <c r="T61" s="137" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="141"/>
-      <c r="W61" s="140" t="s">
+      <c r="U61" s="138"/>
+      <c r="W61" s="137" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="141"/>
+      <c r="X61" s="138"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="140" t="s">
+      <c r="T62" s="137" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="141"/>
-      <c r="W62" s="140" t="s">
+      <c r="U62" s="138"/>
+      <c r="W62" s="137" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="141"/>
+      <c r="X62" s="138"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="138" t="s">
+      <c r="T63" s="139" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="139" t="s">
+      <c r="U63" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="138" t="s">
+      <c r="W63" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="139" t="s">
+      <c r="X63" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="136" t="s">
+      <c r="T64" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="137" t="s">
+      <c r="U64" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="136" t="s">
+      <c r="W64" s="141" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="137" t="s">
+      <c r="X64" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="140" t="s">
+      <c r="T67" s="137" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="141"/>
-      <c r="W67" s="140" t="s">
+      <c r="U67" s="138"/>
+      <c r="W67" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="141"/>
+      <c r="X67" s="138"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="140" t="s">
+      <c r="T68" s="137" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="141"/>
-      <c r="W68" s="140" t="s">
+      <c r="U68" s="138"/>
+      <c r="W68" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="141"/>
+      <c r="X68" s="138"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="138" t="s">
+      <c r="T69" s="139" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="139" t="s">
+      <c r="U69" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="138" t="s">
+      <c r="W69" s="139" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="139" t="s">
+      <c r="X69" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="136" t="s">
+      <c r="T70" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="137" t="s">
+      <c r="U70" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="136" t="s">
+      <c r="W70" s="141" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="137" t="s">
+      <c r="X70" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="140" t="s">
+      <c r="T73" s="137" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="141"/>
-      <c r="W73" s="140" t="s">
+      <c r="U73" s="138"/>
+      <c r="W73" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="141"/>
+      <c r="X73" s="138"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="140" t="s">
+      <c r="T74" s="137" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="141"/>
-      <c r="W74" s="140" t="s">
+      <c r="U74" s="138"/>
+      <c r="W74" s="137" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="141"/>
+      <c r="X74" s="138"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="138" t="s">
+      <c r="T75" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="139" t="s">
+      <c r="U75" s="140" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="138" t="s">
+      <c r="W75" s="139" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="139" t="s">
+      <c r="X75" s="140" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="136" t="s">
+      <c r="T76" s="141" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="137" t="s">
+      <c r="U76" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="136" t="s">
+      <c r="W76" s="141" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="137" t="s">
+      <c r="X76" s="142" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
     <mergeCell ref="C1:L3"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W74:X74"/>
@@ -11290,112 +12709,6 @@
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="W45:X45"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11633,8 +12946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11646,285 +12959,285 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="158"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="175"/>
       <c r="G4" s="89" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="160" t="s">
         <v>1022</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165" t="s">
+      <c r="C5" s="161"/>
+      <c r="D5" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="167"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="160" t="s">
         <v>1028</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165" t="s">
+      <c r="C6" s="161"/>
+      <c r="D6" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="167"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="160" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="161"/>
+      <c r="D7" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
       <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="160" t="s">
         <v>1030</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165" t="s">
+      <c r="C8" s="161"/>
+      <c r="D8" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
       <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="160" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165" t="s">
+      <c r="C9" s="161"/>
+      <c r="D9" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="167" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="159" t="s">
+      <c r="C10" s="168"/>
+      <c r="D10" s="169" t="s">
         <v>1023</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="172" t="s">
+      <c r="E10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="162" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="167" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="159" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="169" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="176"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="163"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="167" t="s">
         <v>1033</v>
       </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="159" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="169" t="s">
         <v>1024</v>
       </c>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="173"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="164"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="160" t="s">
         <v>1034</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165" t="s">
+      <c r="C13" s="161"/>
+      <c r="D13" s="157" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="167"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="88" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="160" t="s">
         <v>1035</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="165" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="160" t="s">
         <v>1036</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="169"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="166"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="160" t="s">
         <v>1038</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168" t="s">
+      <c r="C16" s="161"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="165" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="160" t="s">
         <v>1039</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="169"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="166"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="160" t="s">
         <v>1041</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="168" t="s">
+      <c r="C18" s="161"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="165" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="160" t="s">
         <v>1042</v>
       </c>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="169"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="166"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="172" t="s">
         <v>1045</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="168" t="s">
+      <c r="C20" s="173"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="165" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="160" t="s">
         <v>1046</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="169"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="166"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="172" t="s">
         <v>1048</v>
       </c>
-      <c r="C22" s="175"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="89" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="160" t="s">
         <v>1050</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168" t="s">
+      <c r="C23" s="161"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="165" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="160" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="169"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="167" t="s">
         <v>1065</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="159" t="s">
+      <c r="C25" s="168"/>
+      <c r="D25" s="169" t="s">
         <v>1068</v>
       </c>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="172" t="s">
+      <c r="E25" s="170"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="162" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="167" t="s">
         <v>1066</v>
       </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="159" t="s">
+      <c r="C26" s="168"/>
+      <c r="D26" s="169" t="s">
         <v>1067</v>
       </c>
-      <c r="E26" s="160"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="173"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="164"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="160" t="s">
         <v>1026</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165" t="s">
+      <c r="C27" s="161"/>
+      <c r="D27" s="157" t="s">
         <v>1027</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="73"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" thickBot="1">
@@ -11939,12 +13252,12 @@
       <c r="C31" s="92" t="s">
         <v>1057</v>
       </c>
-      <c r="D31" s="162" t="s">
+      <c r="D31" s="176" t="s">
         <v>1069</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="2:7" ht="45.75" customHeight="1" thickBot="1">
       <c r="B32" s="91">
@@ -12020,16 +13333,35 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="B14:C14"/>
@@ -12046,35 +13378,16 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12086,8 +13399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12117,6 +13430,415 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="180" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="180"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="180"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="R7" s="160" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S7" s="161"/>
+      <c r="T7" s="157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U7" s="158"/>
+      <c r="V7" s="159"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="R8" s="160" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S8" s="161"/>
+      <c r="T8" s="157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U8" s="158"/>
+      <c r="V8" s="159"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="R9" s="160" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S9" s="161"/>
+      <c r="T9" s="157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U9" s="158"/>
+      <c r="V9" s="159"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="181" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="R10" s="160" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S10" s="161"/>
+      <c r="T10" s="157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U10" s="158"/>
+      <c r="V10" s="159"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="R11" s="160" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S11" s="161"/>
+      <c r="T11" s="157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U11" s="158"/>
+      <c r="V11" s="159"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="R12" s="167" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S12" s="168"/>
+      <c r="T12" s="169" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U12" s="170"/>
+      <c r="V12" s="171"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="R13" s="167" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S13" s="168"/>
+      <c r="T13" s="169" t="s">
+        <v>1023</v>
+      </c>
+      <c r="U13" s="170"/>
+      <c r="V13" s="171"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="R14" s="167" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S14" s="168"/>
+      <c r="T14" s="169" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U14" s="170"/>
+      <c r="V14" s="171"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="R15" s="160" t="s">
+        <v>1034</v>
+      </c>
+      <c r="S15" s="161"/>
+      <c r="T15" s="157" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U15" s="158"/>
+      <c r="V15" s="159"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="R16" s="160" t="s">
+        <v>1035</v>
+      </c>
+      <c r="S16" s="161"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="159"/>
+    </row>
+    <row r="17" spans="18:22">
+      <c r="R17" s="160" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S17" s="161"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="158"/>
+      <c r="V17" s="159"/>
+    </row>
+    <row r="18" spans="18:22">
+      <c r="R18" s="160" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S18" s="161"/>
+      <c r="T18" s="157"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="159"/>
+    </row>
+    <row r="19" spans="18:22">
+      <c r="R19" s="160" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S19" s="161"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="159"/>
+    </row>
+    <row r="20" spans="18:22">
+      <c r="R20" s="160" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S20" s="161"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="158"/>
+      <c r="V20" s="159"/>
+    </row>
+    <row r="21" spans="18:22">
+      <c r="R21" s="160" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S21" s="161"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="158"/>
+      <c r="V21" s="159"/>
+    </row>
+    <row r="22" spans="18:22">
+      <c r="R22" s="172" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S22" s="173"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="159"/>
+    </row>
+    <row r="23" spans="18:22">
+      <c r="R23" s="160" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S23" s="161"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="159"/>
+    </row>
+    <row r="24" spans="18:22">
+      <c r="R24" s="172" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S24" s="173"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="159"/>
+    </row>
+    <row r="25" spans="18:22">
+      <c r="R25" s="160" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S25" s="161"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="159"/>
+    </row>
+    <row r="26" spans="18:22">
+      <c r="R26" s="160" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S26" s="161"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="159"/>
+    </row>
+    <row r="27" spans="18:22">
+      <c r="R27" s="167" t="s">
+        <v>1065</v>
+      </c>
+      <c r="S27" s="168"/>
+      <c r="T27" s="169" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U27" s="170"/>
+      <c r="V27" s="171"/>
+    </row>
+    <row r="28" spans="18:22">
+      <c r="R28" s="167" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S28" s="168"/>
+      <c r="T28" s="169" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U28" s="170"/>
+      <c r="V28" s="171"/>
+    </row>
+    <row r="29" spans="18:22">
+      <c r="R29" s="160" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S29" s="161"/>
+      <c r="T29" s="157" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U29" s="158"/>
+      <c r="V29" s="159"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="A1:M7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:V9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12154,7 +13876,7 @@
       <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -12169,7 +13891,7 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="99"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="83" t="s">
         <v>754</v>
       </c>
@@ -12182,7 +13904,7 @@
       <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="99" t="s">
         <v>771</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -12259,7 +13981,7 @@
       <c r="D9" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="98" t="s">
         <v>986</v>
       </c>
     </row>
@@ -12274,7 +13996,7 @@
       <c r="D10" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="100"/>
@@ -12287,7 +14009,7 @@
       <c r="D11" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="100"/>
@@ -12300,7 +14022,7 @@
       <c r="D12" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="100"/>
@@ -12313,7 +14035,7 @@
       <c r="D13" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="100"/>
@@ -12326,7 +14048,7 @@
       <c r="D14" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="100"/>
@@ -12339,7 +14061,7 @@
       <c r="D15" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="98"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="100"/>
@@ -12352,10 +14074,10 @@
       <c r="D16" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="99"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="83" t="s">
         <v>855</v>
       </c>
@@ -12365,10 +14087,10 @@
       <c r="D17" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="99" t="s">
         <v>875</v>
       </c>
       <c r="B18" s="83" t="s">
@@ -12394,7 +14116,7 @@
       <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="99"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="83" t="s">
         <v>873</v>
       </c>
@@ -12405,7 +14127,7 @@
       <c r="E20" s="85"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="99" t="s">
         <v>941</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -12417,7 +14139,7 @@
       <c r="D21" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="98" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -12432,7 +14154,7 @@
       <c r="D22" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="100"/>
@@ -12445,7 +14167,7 @@
       <c r="D23" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="100"/>
@@ -12458,7 +14180,7 @@
       <c r="D24" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="100"/>
@@ -12471,7 +14193,7 @@
       <c r="D25" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E25" s="101"/>
+      <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="100"/>
@@ -12484,7 +14206,7 @@
       <c r="D26" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="100"/>
@@ -12497,7 +14219,7 @@
       <c r="D27" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E27" s="101"/>
+      <c r="E27" s="98"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="100"/>
@@ -12510,10 +14232,10 @@
       <c r="D28" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E28" s="101"/>
+      <c r="E28" s="98"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="99"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="83" t="s">
         <v>912</v>
       </c>
@@ -12523,10 +14245,10 @@
       <c r="D29" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E29" s="101"/>
+      <c r="E29" s="98"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="99" t="s">
         <v>940</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -12538,7 +14260,7 @@
       <c r="D30" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E30" s="101"/>
+      <c r="E30" s="98"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="100"/>
@@ -12551,7 +14273,7 @@
       <c r="D31" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E31" s="101"/>
+      <c r="E31" s="98"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="100"/>
@@ -12564,7 +14286,7 @@
       <c r="D32" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E32" s="101"/>
+      <c r="E32" s="98"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="100"/>
@@ -12577,7 +14299,7 @@
       <c r="D33" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E33" s="101"/>
+      <c r="E33" s="98"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="100"/>
@@ -12590,7 +14312,7 @@
       <c r="D34" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E34" s="101"/>
+      <c r="E34" s="98"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="100"/>
@@ -12603,7 +14325,7 @@
       <c r="D35" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E35" s="101"/>
+      <c r="E35" s="98"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="100"/>
@@ -12616,7 +14338,7 @@
       <c r="D36" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E36" s="101"/>
+      <c r="E36" s="98"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="100"/>
@@ -12629,7 +14351,7 @@
       <c r="D37" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E37" s="101"/>
+      <c r="E37" s="98"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="81" t="s">
@@ -12645,7 +14367,7 @@
       <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="99" t="s">
         <v>948</v>
       </c>
       <c r="B39" s="80" t="s">
@@ -12713,7 +14435,7 @@
       <c r="E44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="99"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="80" t="s">
         <v>964</v>
       </c>
@@ -12903,17 +14625,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15640,6 +17362,18 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -15656,18 +17390,6 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16114,233 +17836,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="126"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="126"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="126" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -17585,30 +19307,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="125"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
-      <c r="W36" s="125"/>
-      <c r="X36" s="125"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -17738,30 +19460,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="128"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="125"/>
-      <c r="U46" s="125"/>
-      <c r="V46" s="125"/>
-      <c r="W46" s="125"/>
-      <c r="X46" s="125"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -17917,30 +19639,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="128"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
-      <c r="S58" s="125"/>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125"/>
-      <c r="W58" s="125"/>
-      <c r="X58" s="125"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -18198,30 +19920,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
-      <c r="M66" s="125"/>
-      <c r="N66" s="125"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="125"/>
-      <c r="Q66" s="125"/>
-      <c r="R66" s="125"/>
-      <c r="S66" s="125"/>
-      <c r="T66" s="125"/>
-      <c r="U66" s="125"/>
-      <c r="V66" s="125"/>
-      <c r="W66" s="125"/>
-      <c r="X66" s="125"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
+      <c r="Q66" s="128"/>
+      <c r="R66" s="128"/>
+      <c r="S66" s="128"/>
+      <c r="T66" s="128"/>
+      <c r="U66" s="128"/>
+      <c r="V66" s="128"/>
+      <c r="W66" s="128"/>
+      <c r="X66" s="128"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -18338,30 +20060,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="125"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125"/>
-      <c r="Q75" s="125"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
-      <c r="U75" s="125"/>
-      <c r="V75" s="125"/>
-      <c r="W75" s="125"/>
-      <c r="X75" s="125"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="128"/>
+      <c r="E75" s="128"/>
+      <c r="F75" s="128"/>
+      <c r="G75" s="128"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="128"/>
+      <c r="K75" s="128"/>
+      <c r="L75" s="128"/>
+      <c r="M75" s="128"/>
+      <c r="N75" s="128"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="128"/>
+      <c r="U75" s="128"/>
+      <c r="V75" s="128"/>
+      <c r="W75" s="128"/>
+      <c r="X75" s="128"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -18543,30 +20265,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="125"/>
-      <c r="O89" s="125"/>
-      <c r="P89" s="125"/>
-      <c r="Q89" s="125"/>
-      <c r="R89" s="125"/>
-      <c r="S89" s="125"/>
-      <c r="T89" s="125"/>
-      <c r="U89" s="125"/>
-      <c r="V89" s="125"/>
-      <c r="W89" s="125"/>
-      <c r="X89" s="125"/>
+      <c r="A89" s="128"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="128"/>
+      <c r="O89" s="128"/>
+      <c r="P89" s="128"/>
+      <c r="Q89" s="128"/>
+      <c r="R89" s="128"/>
+      <c r="S89" s="128"/>
+      <c r="T89" s="128"/>
+      <c r="U89" s="128"/>
+      <c r="V89" s="128"/>
+      <c r="W89" s="128"/>
+      <c r="X89" s="128"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -18670,30 +20392,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="125"/>
-      <c r="B97" s="125"/>
-      <c r="C97" s="125"/>
-      <c r="D97" s="125"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="125"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125"/>
-      <c r="J97" s="125"/>
-      <c r="K97" s="125"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="125"/>
-      <c r="N97" s="125"/>
-      <c r="O97" s="125"/>
-      <c r="P97" s="125"/>
-      <c r="Q97" s="125"/>
-      <c r="R97" s="125"/>
-      <c r="S97" s="125"/>
-      <c r="T97" s="125"/>
-      <c r="U97" s="125"/>
-      <c r="V97" s="125"/>
-      <c r="W97" s="125"/>
-      <c r="X97" s="125"/>
+      <c r="A97" s="128"/>
+      <c r="B97" s="128"/>
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="128"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="128"/>
+      <c r="J97" s="128"/>
+      <c r="K97" s="128"/>
+      <c r="L97" s="128"/>
+      <c r="M97" s="128"/>
+      <c r="N97" s="128"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="128"/>
+      <c r="Q97" s="128"/>
+      <c r="R97" s="128"/>
+      <c r="S97" s="128"/>
+      <c r="T97" s="128"/>
+      <c r="U97" s="128"/>
+      <c r="V97" s="128"/>
+      <c r="W97" s="128"/>
+      <c r="X97" s="128"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -18797,30 +20519,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="125"/>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="125"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="125"/>
-      <c r="K105" s="125"/>
-      <c r="L105" s="125"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="125"/>
-      <c r="O105" s="125"/>
-      <c r="P105" s="125"/>
-      <c r="Q105" s="125"/>
-      <c r="R105" s="125"/>
-      <c r="S105" s="125"/>
-      <c r="T105" s="125"/>
-      <c r="U105" s="125"/>
-      <c r="V105" s="125"/>
-      <c r="W105" s="125"/>
-      <c r="X105" s="125"/>
+      <c r="A105" s="128"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="128"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="128"/>
+      <c r="F105" s="128"/>
+      <c r="G105" s="128"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="128"/>
+      <c r="K105" s="128"/>
+      <c r="L105" s="128"/>
+      <c r="M105" s="128"/>
+      <c r="N105" s="128"/>
+      <c r="O105" s="128"/>
+      <c r="P105" s="128"/>
+      <c r="Q105" s="128"/>
+      <c r="R105" s="128"/>
+      <c r="S105" s="128"/>
+      <c r="T105" s="128"/>
+      <c r="U105" s="128"/>
+      <c r="V105" s="128"/>
+      <c r="W105" s="128"/>
+      <c r="X105" s="128"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -18926,6 +20648,15 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -18939,15 +20670,6 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19012,31 +20734,31 @@
       <c r="W1" s="129"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -20353,29 +22075,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
       <c r="S30" s="130"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -21693,28 +23415,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="130"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="127"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="127"/>
-      <c r="R58" s="127"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
       <c r="S58" s="130"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="127"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -23111,29 +24833,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="127"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="127"/>
-      <c r="N86" s="127"/>
-      <c r="O86" s="127"/>
-      <c r="P86" s="127"/>
-      <c r="Q86" s="127"/>
-      <c r="R86" s="127"/>
-      <c r="S86" s="127"/>
-      <c r="T86" s="127"/>
-      <c r="U86" s="127"/>
-      <c r="V86" s="127"/>
-      <c r="W86" s="127"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
+      <c r="M86" s="126"/>
+      <c r="N86" s="126"/>
+      <c r="O86" s="126"/>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
+      <c r="R86" s="126"/>
+      <c r="S86" s="126"/>
+      <c r="T86" s="126"/>
+      <c r="U86" s="126"/>
+      <c r="V86" s="126"/>
+      <c r="W86" s="126"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -24609,29 +26331,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="127"/>
-      <c r="B114" s="127"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="127"/>
-      <c r="L114" s="127"/>
-      <c r="M114" s="127"/>
-      <c r="N114" s="127"/>
-      <c r="O114" s="127"/>
-      <c r="P114" s="127"/>
-      <c r="Q114" s="127"/>
-      <c r="R114" s="127"/>
-      <c r="S114" s="127"/>
-      <c r="T114" s="127"/>
-      <c r="U114" s="127"/>
-      <c r="V114" s="127"/>
-      <c r="W114" s="127"/>
+      <c r="A114" s="126"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+      <c r="M114" s="126"/>
+      <c r="N114" s="126"/>
+      <c r="O114" s="126"/>
+      <c r="P114" s="126"/>
+      <c r="Q114" s="126"/>
+      <c r="R114" s="126"/>
+      <c r="S114" s="126"/>
+      <c r="T114" s="126"/>
+      <c r="U114" s="126"/>
+      <c r="V114" s="126"/>
+      <c r="W114" s="126"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -26103,29 +27825,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="127"/>
-      <c r="B142" s="127"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="127"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="127"/>
-      <c r="L142" s="127"/>
-      <c r="M142" s="127"/>
-      <c r="N142" s="127"/>
-      <c r="O142" s="127"/>
-      <c r="P142" s="127"/>
-      <c r="Q142" s="127"/>
-      <c r="R142" s="127"/>
-      <c r="S142" s="127"/>
-      <c r="T142" s="127"/>
-      <c r="U142" s="127"/>
-      <c r="V142" s="127"/>
-      <c r="W142" s="127"/>
+      <c r="A142" s="126"/>
+      <c r="B142" s="126"/>
+      <c r="C142" s="126"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="126"/>
+      <c r="F142" s="126"/>
+      <c r="G142" s="126"/>
+      <c r="H142" s="126"/>
+      <c r="I142" s="126"/>
+      <c r="J142" s="126"/>
+      <c r="K142" s="126"/>
+      <c r="L142" s="126"/>
+      <c r="M142" s="126"/>
+      <c r="N142" s="126"/>
+      <c r="O142" s="126"/>
+      <c r="P142" s="126"/>
+      <c r="Q142" s="126"/>
+      <c r="R142" s="126"/>
+      <c r="S142" s="126"/>
+      <c r="T142" s="126"/>
+      <c r="U142" s="126"/>
+      <c r="V142" s="126"/>
+      <c r="W142" s="126"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -27596,29 +29318,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="127"/>
-      <c r="B170" s="127"/>
-      <c r="C170" s="127"/>
-      <c r="D170" s="127"/>
-      <c r="E170" s="127"/>
-      <c r="F170" s="127"/>
-      <c r="G170" s="127"/>
-      <c r="H170" s="127"/>
-      <c r="I170" s="127"/>
-      <c r="J170" s="127"/>
-      <c r="K170" s="127"/>
-      <c r="L170" s="127"/>
-      <c r="M170" s="127"/>
-      <c r="N170" s="127"/>
-      <c r="O170" s="127"/>
-      <c r="P170" s="127"/>
-      <c r="Q170" s="127"/>
-      <c r="R170" s="127"/>
-      <c r="S170" s="127"/>
-      <c r="T170" s="127"/>
-      <c r="U170" s="127"/>
-      <c r="V170" s="127"/>
-      <c r="W170" s="127"/>
+      <c r="A170" s="126"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="126"/>
+      <c r="D170" s="126"/>
+      <c r="E170" s="126"/>
+      <c r="F170" s="126"/>
+      <c r="G170" s="126"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
+      <c r="J170" s="126"/>
+      <c r="K170" s="126"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="126"/>
+      <c r="N170" s="126"/>
+      <c r="O170" s="126"/>
+      <c r="P170" s="126"/>
+      <c r="Q170" s="126"/>
+      <c r="R170" s="126"/>
+      <c r="S170" s="126"/>
+      <c r="T170" s="126"/>
+      <c r="U170" s="126"/>
+      <c r="V170" s="126"/>
+      <c r="W170" s="126"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -29090,29 +30812,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="127"/>
-      <c r="B198" s="127"/>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="127"/>
-      <c r="L198" s="127"/>
-      <c r="M198" s="127"/>
-      <c r="N198" s="127"/>
-      <c r="O198" s="127"/>
-      <c r="P198" s="127"/>
-      <c r="Q198" s="127"/>
-      <c r="R198" s="127"/>
-      <c r="S198" s="127"/>
-      <c r="T198" s="127"/>
-      <c r="U198" s="127"/>
-      <c r="V198" s="127"/>
-      <c r="W198" s="127"/>
+      <c r="A198" s="126"/>
+      <c r="B198" s="126"/>
+      <c r="C198" s="126"/>
+      <c r="D198" s="126"/>
+      <c r="E198" s="126"/>
+      <c r="F198" s="126"/>
+      <c r="G198" s="126"/>
+      <c r="H198" s="126"/>
+      <c r="I198" s="126"/>
+      <c r="J198" s="126"/>
+      <c r="K198" s="126"/>
+      <c r="L198" s="126"/>
+      <c r="M198" s="126"/>
+      <c r="N198" s="126"/>
+      <c r="O198" s="126"/>
+      <c r="P198" s="126"/>
+      <c r="Q198" s="126"/>
+      <c r="R198" s="126"/>
+      <c r="S198" s="126"/>
+      <c r="T198" s="126"/>
+      <c r="U198" s="126"/>
+      <c r="V198" s="126"/>
+      <c r="W198" s="126"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -30604,6 +32326,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="G60:G85"/>
+    <mergeCell ref="G172:G195"/>
+    <mergeCell ref="A200:A225"/>
+    <mergeCell ref="G200:G223"/>
+    <mergeCell ref="A198:W198"/>
+    <mergeCell ref="A170:W170"/>
+    <mergeCell ref="M200:M225"/>
+    <mergeCell ref="S200:S225"/>
+    <mergeCell ref="S172:S197"/>
+    <mergeCell ref="S60:S85"/>
+    <mergeCell ref="M116:M141"/>
+    <mergeCell ref="M144:M169"/>
+    <mergeCell ref="M172:M197"/>
+    <mergeCell ref="A114:W114"/>
+    <mergeCell ref="G88:G111"/>
+    <mergeCell ref="A88:A113"/>
     <mergeCell ref="M60:M85"/>
     <mergeCell ref="S144:S169"/>
     <mergeCell ref="A1:W1"/>
@@ -30620,31 +32367,6 @@
     <mergeCell ref="G32:G57"/>
     <mergeCell ref="M32:M57"/>
     <mergeCell ref="S32:S57"/>
-    <mergeCell ref="G60:G85"/>
-    <mergeCell ref="G172:G195"/>
-    <mergeCell ref="A200:A225"/>
-    <mergeCell ref="G200:G223"/>
-    <mergeCell ref="A198:W198"/>
-    <mergeCell ref="A170:W170"/>
-    <mergeCell ref="M200:M225"/>
-    <mergeCell ref="S200:S225"/>
-    <mergeCell ref="S172:S197"/>
-    <mergeCell ref="S60:S85"/>
-    <mergeCell ref="M116:M141"/>
-    <mergeCell ref="M144:M169"/>
-    <mergeCell ref="M172:M197"/>
-    <mergeCell ref="A114:W114"/>
-    <mergeCell ref="G88:G111"/>
-    <mergeCell ref="A88:A113"/>
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30863,8 +32585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31895,6 +33617,11 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -31902,11 +33629,6 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="1075">
   <si>
     <t>用户角色与权限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4626,12 +4626,16 @@
     <t>算法1原型图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>算法2原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4773,6 +4777,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -5519,17 +5532,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5600,6 +5613,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5607,9 +5623,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5633,8 +5646,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5642,29 +5664,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5678,8 +5679,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5696,6 +5709,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5704,21 +5741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5732,14 +5754,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5747,14 +5766,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5768,7 +5781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10964,7 +10977,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>件目前的累计运行时间。</a:t>
+            <a:t>件目前的累计运行时间，数据库中保存为累计运行时间。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11090,6 +11103,1602 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>确认</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="7820025"/>
+          <a:ext cx="7334250" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="8905876"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工程名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71208</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="8915400"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择客户，动态显示出对应的工程名称，只读。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="8448675"/>
+          <a:ext cx="1466849" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59449</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="8420100"/>
+          <a:ext cx="4774324" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下来选择当前角色的所有工程列表，只读</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="8029575"/>
+          <a:ext cx="1466849" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>算法名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819399" y="8020050"/>
+          <a:ext cx="4791076" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择：算法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="9344026"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件类别：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85202</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="9353550"/>
+          <a:ext cx="4809602" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前工程对应的零件类别，可以固定为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种，只读。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="9791701"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94727</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="9801225"/>
+          <a:ext cx="4809602" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前工程零件类别下对应的零件名称列表，只读</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="10258426"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件部位名称：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90258</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="10267950"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前零件对应的部位明细列表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="11134726"/>
+          <a:ext cx="1476374" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>额定运行时间（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80733</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="11144250"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>文本输入，校验：小时，整数。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="12592051"/>
+          <a:ext cx="1495424" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>算法说明：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838449" y="12601576"/>
+          <a:ext cx="4772025" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开关量的额定运行时间，单位是小时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Na=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置小时，固定值。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>若当前时间记为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，则距离第一条有效数据的时间差为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>累计运行时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>， </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据库中保存为累计运行时间。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3. Ha&gt;Na</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时发送提醒。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="13858875"/>
+          <a:ext cx="485774" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关闭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="13849350"/>
+          <a:ext cx="476249" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>确认</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="10687051"/>
+          <a:ext cx="1466849" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>零件部位参数：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99783</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="10696575"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，当前零件部位下的参数列表。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657226" y="11610976"/>
+          <a:ext cx="1476374" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对应现场实时数据表：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90258</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="11620500"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，根据工程信息中的对应的工程编号，解析数据库相关表名称。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657226" y="12096751"/>
+          <a:ext cx="1476374" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对应现场实时表字段：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90258</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="12106275"/>
+          <a:ext cx="4786083" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下拉选择，选择数据表的字段名称。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11768,134 +13377,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="147" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="140" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="138"/>
+      <c r="I4" s="141"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="140" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="138"/>
+      <c r="I5" s="141"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="142"/>
-      <c r="L7" s="137" t="s">
+      <c r="I7" s="137"/>
+      <c r="L7" s="140" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="138"/>
+      <c r="M7" s="141"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="140" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="L8" s="137" t="s">
+      <c r="F8" s="141"/>
+      <c r="L8" s="140" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="138"/>
+      <c r="M8" s="141"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="140" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="L9" s="139" t="s">
+      <c r="F9" s="141"/>
+      <c r="L9" s="138" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="140"/>
+      <c r="M9" s="139"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="139" t="s">
+      <c r="E10" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="L10" s="141" t="s">
+      <c r="F10" s="139"/>
+      <c r="L10" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="142"/>
+      <c r="M10" s="137"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="136" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="I11" s="137" t="s">
+      <c r="F11" s="137"/>
+      <c r="I11" s="140" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="138"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="137" t="s">
+      <c r="I12" s="140" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="138"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="139" t="s">
+      <c r="I13" s="138" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="141" t="s">
+      <c r="I14" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="142"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -11912,709 +13521,743 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="140" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="138"/>
+      <c r="I17" s="141"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="140" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="138"/>
+      <c r="I18" s="141"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="139" t="s">
+      <c r="H19" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="140"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="141" t="s">
+      <c r="H20" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="142"/>
+      <c r="I20" s="137"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="136" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="142"/>
+      <c r="I21" s="137"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="143" t="s">
+      <c r="W22" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="144"/>
-      <c r="Z22" s="147" t="s">
+      <c r="X22" s="149"/>
+      <c r="Z22" s="143" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="148"/>
+      <c r="AA22" s="144"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="140" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="H23" s="137" t="s">
+      <c r="C23" s="142"/>
+      <c r="H23" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="138"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="146"/>
-      <c r="Z23" s="149"/>
-      <c r="AA23" s="150"/>
+      <c r="I23" s="141"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="151"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="146"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="140" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="H24" s="137" t="s">
+      <c r="C24" s="141"/>
+      <c r="H24" s="140" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="138"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="H25" s="141" t="s">
+      <c r="C25" s="139"/>
+      <c r="H25" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="142"/>
-      <c r="N25" s="137" t="s">
+      <c r="I25" s="137"/>
+      <c r="N25" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="138"/>
-      <c r="T25" s="137" t="s">
+      <c r="O25" s="141"/>
+      <c r="T25" s="140" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="138"/>
-      <c r="W25" s="137" t="s">
+      <c r="U25" s="141"/>
+      <c r="W25" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="138"/>
+      <c r="X25" s="141"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="H26" s="139" t="s">
+      <c r="C26" s="137"/>
+      <c r="H26" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="140"/>
-      <c r="N26" s="137" t="s">
+      <c r="I26" s="139"/>
+      <c r="N26" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="138"/>
-      <c r="T26" s="137" t="s">
+      <c r="O26" s="141"/>
+      <c r="T26" s="140" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="138"/>
-      <c r="W26" s="137" t="s">
+      <c r="U26" s="141"/>
+      <c r="W26" s="140" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="138"/>
+      <c r="X26" s="141"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="H27" s="141" t="s">
+      <c r="C27" s="137"/>
+      <c r="H27" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="142"/>
-      <c r="N27" s="139" t="s">
+      <c r="I27" s="137"/>
+      <c r="N27" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="140" t="s">
+      <c r="O27" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="139" t="s">
+      <c r="T27" s="138" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="140" t="s">
+      <c r="U27" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="139" t="s">
+      <c r="W27" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="140" t="s">
+      <c r="X27" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="N28" s="141" t="s">
+      <c r="C28" s="137"/>
+      <c r="N28" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="142" t="s">
+      <c r="O28" s="137" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="141" t="s">
+      <c r="T28" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="142" t="s">
+      <c r="U28" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="141" t="s">
+      <c r="W28" s="136" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="142" t="s">
+      <c r="X28" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="137" t="s">
+      <c r="K30" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="138"/>
+      <c r="L30" s="141"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="140" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="138"/>
-      <c r="N31" s="137" t="s">
+      <c r="L31" s="141"/>
+      <c r="N31" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="138"/>
-      <c r="T31" s="137" t="s">
+      <c r="O31" s="141"/>
+      <c r="T31" s="140" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="138"/>
-      <c r="W31" s="137" t="s">
+      <c r="U31" s="141"/>
+      <c r="W31" s="140" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="138"/>
+      <c r="X31" s="141"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="139" t="s">
+      <c r="K32" s="138" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="140" t="s">
+      <c r="L32" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="137" t="s">
+      <c r="N32" s="140" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="138"/>
-      <c r="T32" s="137" t="s">
+      <c r="O32" s="141"/>
+      <c r="T32" s="140" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="138"/>
-      <c r="W32" s="137" t="s">
+      <c r="U32" s="141"/>
+      <c r="W32" s="140" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="138"/>
+      <c r="X32" s="141"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="136" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="142" t="s">
+      <c r="L33" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="139" t="s">
+      <c r="N33" s="138" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="140" t="s">
+      <c r="O33" s="139" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="139" t="s">
+      <c r="T33" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="140" t="s">
+      <c r="U33" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="139" t="s">
+      <c r="W33" s="138" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="140" t="s">
+      <c r="X33" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="141" t="s">
+      <c r="N34" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="142" t="s">
+      <c r="O34" s="137" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="141" t="s">
+      <c r="T34" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="142" t="s">
+      <c r="U34" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="141" t="s">
+      <c r="W34" s="136" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="142" t="s">
+      <c r="X34" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="137" t="s">
+      <c r="E35" s="140" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="138"/>
+      <c r="F35" s="141"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="137" t="s">
+      <c r="E36" s="140" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="151"/>
+      <c r="F36" s="142"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="139" t="s">
+      <c r="E37" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="J37" s="137" t="s">
+      <c r="F37" s="139"/>
+      <c r="J37" s="140" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="138"/>
-      <c r="T37" s="137" t="s">
+      <c r="K37" s="141"/>
+      <c r="T37" s="140" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="138"/>
-      <c r="W37" s="137" t="s">
+      <c r="U37" s="141"/>
+      <c r="W37" s="140" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="138"/>
+      <c r="X37" s="141"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="137" t="s">
+      <c r="J38" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="138"/>
-      <c r="Q38" s="137" t="s">
+      <c r="K38" s="141"/>
+      <c r="Q38" s="140" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="138"/>
-      <c r="T38" s="137" t="s">
+      <c r="R38" s="141"/>
+      <c r="T38" s="140" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="138"/>
-      <c r="W38" s="137" t="s">
+      <c r="U38" s="141"/>
+      <c r="W38" s="140" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="138"/>
+      <c r="X38" s="141"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="139" t="s">
+      <c r="J39" s="138" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="137" t="s">
+      <c r="Q39" s="140" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="138"/>
-      <c r="T39" s="139" t="s">
+      <c r="R39" s="141"/>
+      <c r="T39" s="138" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="140" t="s">
+      <c r="U39" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="139" t="s">
+      <c r="W39" s="138" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="140" t="s">
+      <c r="X39" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="141" t="s">
+      <c r="J40" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="142" t="s">
+      <c r="K40" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="139" t="s">
+      <c r="Q40" s="138" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="140" t="s">
+      <c r="R40" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="141" t="s">
+      <c r="T40" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="142" t="s">
+      <c r="U40" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="141" t="s">
+      <c r="W40" s="136" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="142" t="s">
+      <c r="X40" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="141" t="s">
+      <c r="Q41" s="136" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="142" t="s">
+      <c r="R41" s="137" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="137" t="s">
+      <c r="T43" s="140" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="138"/>
-      <c r="W43" s="137" t="s">
+      <c r="U43" s="141"/>
+      <c r="W43" s="140" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="138"/>
+      <c r="X43" s="141"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="137" t="s">
+      <c r="T44" s="140" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="138"/>
-      <c r="W44" s="137" t="s">
+      <c r="U44" s="141"/>
+      <c r="W44" s="140" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="138"/>
+      <c r="X44" s="141"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="139" t="s">
+      <c r="T45" s="138" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="140" t="s">
+      <c r="U45" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="139" t="s">
+      <c r="W45" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="140" t="s">
+      <c r="X45" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="141" t="s">
+      <c r="T46" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="142" t="s">
+      <c r="U46" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="141" t="s">
+      <c r="W46" s="136" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="142" t="s">
+      <c r="X46" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="137" t="s">
+      <c r="T49" s="140" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="138"/>
-      <c r="W49" s="137" t="s">
+      <c r="U49" s="141"/>
+      <c r="W49" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="138"/>
+      <c r="X49" s="141"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="137" t="s">
+      <c r="T50" s="140" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="138"/>
-      <c r="W50" s="137" t="s">
+      <c r="U50" s="141"/>
+      <c r="W50" s="140" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="138"/>
+      <c r="X50" s="141"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="139" t="s">
+      <c r="T51" s="138" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="140" t="s">
+      <c r="U51" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="139" t="s">
+      <c r="W51" s="138" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="140" t="s">
+      <c r="X51" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="141" t="s">
+      <c r="T52" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="142" t="s">
+      <c r="U52" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="141" t="s">
+      <c r="W52" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="142" t="s">
+      <c r="X52" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="137" t="s">
+      <c r="T55" s="140" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="138"/>
-      <c r="W55" s="137" t="s">
+      <c r="U55" s="141"/>
+      <c r="W55" s="140" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="138"/>
+      <c r="X55" s="141"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="137" t="s">
+      <c r="T56" s="140" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="138"/>
-      <c r="W56" s="137" t="s">
+      <c r="U56" s="141"/>
+      <c r="W56" s="140" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="138"/>
+      <c r="X56" s="141"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="139" t="s">
+      <c r="T57" s="138" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="140" t="s">
+      <c r="U57" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="139" t="s">
+      <c r="W57" s="138" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="140" t="s">
+      <c r="X57" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="141" t="s">
+      <c r="T58" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="142" t="s">
+      <c r="U58" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="141" t="s">
+      <c r="W58" s="136" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="142" t="s">
+      <c r="X58" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="137" t="s">
+      <c r="T61" s="140" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="138"/>
-      <c r="W61" s="137" t="s">
+      <c r="U61" s="141"/>
+      <c r="W61" s="140" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="138"/>
+      <c r="X61" s="141"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="137" t="s">
+      <c r="T62" s="140" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="138"/>
-      <c r="W62" s="137" t="s">
+      <c r="U62" s="141"/>
+      <c r="W62" s="140" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="138"/>
+      <c r="X62" s="141"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="139" t="s">
+      <c r="T63" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="140" t="s">
+      <c r="U63" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="139" t="s">
+      <c r="W63" s="138" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="140" t="s">
+      <c r="X63" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="141" t="s">
+      <c r="T64" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="142" t="s">
+      <c r="U64" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="141" t="s">
+      <c r="W64" s="136" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="142" t="s">
+      <c r="X64" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="137" t="s">
+      <c r="T67" s="140" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="138"/>
-      <c r="W67" s="137" t="s">
+      <c r="U67" s="141"/>
+      <c r="W67" s="140" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="138"/>
+      <c r="X67" s="141"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="137" t="s">
+      <c r="T68" s="140" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="138"/>
-      <c r="W68" s="137" t="s">
+      <c r="U68" s="141"/>
+      <c r="W68" s="140" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="138"/>
+      <c r="X68" s="141"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="139" t="s">
+      <c r="T69" s="138" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="140" t="s">
+      <c r="U69" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="139" t="s">
+      <c r="W69" s="138" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="140" t="s">
+      <c r="X69" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="141" t="s">
+      <c r="T70" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="142" t="s">
+      <c r="U70" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="141" t="s">
+      <c r="W70" s="136" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="142" t="s">
+      <c r="X70" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="137" t="s">
+      <c r="T73" s="140" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="138"/>
-      <c r="W73" s="137" t="s">
+      <c r="U73" s="141"/>
+      <c r="W73" s="140" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="138"/>
+      <c r="X73" s="141"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="137" t="s">
+      <c r="T74" s="140" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="138"/>
-      <c r="W74" s="137" t="s">
+      <c r="U74" s="141"/>
+      <c r="W74" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="138"/>
+      <c r="X74" s="141"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="139" t="s">
+      <c r="T75" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="140" t="s">
+      <c r="U75" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="139" t="s">
+      <c r="W75" s="138" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="140" t="s">
+      <c r="X75" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="141" t="s">
+      <c r="T76" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="142" t="s">
+      <c r="U76" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="141" t="s">
+      <c r="W76" s="136" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="142" t="s">
+      <c r="X76" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C1:L3"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
@@ -12639,76 +14282,42 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="C1:L3"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="W67:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12947,7 +14556,7 @@
   <dimension ref="B4:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12959,285 +14568,285 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="175"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="89" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="163" t="s">
         <v>1022</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="157" t="s">
+      <c r="C5" s="164"/>
+      <c r="D5" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="159"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="163" t="s">
         <v>1028</v>
       </c>
-      <c r="C6" s="161"/>
-      <c r="D6" s="157" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="163" t="s">
         <v>1029</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="157" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="163" t="s">
         <v>1030</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="157" t="s">
+      <c r="C8" s="164"/>
+      <c r="D8" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="163" t="s">
         <v>1031</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="157" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="170" t="s">
         <v>1054</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169" t="s">
+      <c r="C10" s="171"/>
+      <c r="D10" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="162" t="s">
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="172" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="170" t="s">
         <v>1032</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169" t="s">
+      <c r="C11" s="171"/>
+      <c r="D11" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="163"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="176"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="170" t="s">
         <v>1033</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="159" t="s">
         <v>1024</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="164"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="173"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="163" t="s">
         <v>1034</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="157" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="165" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="88" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="163" t="s">
         <v>1035</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="165" t="s">
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="163" t="s">
         <v>1036</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="166"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="169"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="163" t="s">
         <v>1038</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="165" t="s">
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="163" t="s">
         <v>1039</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="166"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="163" t="s">
         <v>1041</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="165" t="s">
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="168" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="163" t="s">
         <v>1042</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="166"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="174" t="s">
         <v>1045</v>
       </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="165" t="s">
+      <c r="C20" s="175"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="168" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="163" t="s">
         <v>1046</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="166"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="169"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="174" t="s">
         <v>1048</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="159"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
       <c r="G22" s="89" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="163" t="s">
         <v>1050</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="165" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="163" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="166"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="170" t="s">
         <v>1065</v>
       </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169" t="s">
+      <c r="C25" s="171"/>
+      <c r="D25" s="159" t="s">
         <v>1068</v>
       </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="162" t="s">
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="172" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="170" t="s">
         <v>1066</v>
       </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169" t="s">
+      <c r="C26" s="171"/>
+      <c r="D26" s="159" t="s">
         <v>1067</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="164"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="163" t="s">
         <v>1026</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="157" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165" t="s">
         <v>1027</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="159"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
       <c r="G27" s="73"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" thickBot="1">
@@ -13252,12 +14861,12 @@
       <c r="C31" s="92" t="s">
         <v>1057</v>
       </c>
-      <c r="D31" s="176" t="s">
+      <c r="D31" s="162" t="s">
         <v>1069</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
     </row>
     <row r="32" spans="2:7" ht="45.75" customHeight="1" thickBot="1">
       <c r="B32" s="91">
@@ -13333,6 +14942,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D31:G31"/>
@@ -13349,45 +14997,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13400,7 +15009,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13435,10 +15044,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13549,37 +15158,37 @@
       <c r="K7" s="180"/>
       <c r="L7" s="180"/>
       <c r="M7" s="180"/>
-      <c r="R7" s="160" t="s">
+      <c r="R7" s="163" t="s">
         <v>1022</v>
       </c>
-      <c r="S7" s="161"/>
-      <c r="T7" s="157" t="s">
+      <c r="S7" s="164"/>
+      <c r="T7" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="U7" s="158"/>
-      <c r="V7" s="159"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="167"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="R8" s="160" t="s">
+      <c r="R8" s="163" t="s">
         <v>1028</v>
       </c>
-      <c r="S8" s="161"/>
-      <c r="T8" s="157" t="s">
+      <c r="S8" s="164"/>
+      <c r="T8" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="U8" s="158"/>
-      <c r="V8" s="159"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="167"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="R9" s="160" t="s">
+      <c r="R9" s="163" t="s">
         <v>1029</v>
       </c>
-      <c r="S9" s="161"/>
-      <c r="T9" s="157" t="s">
+      <c r="S9" s="164"/>
+      <c r="T9" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="U9" s="158"/>
-      <c r="V9" s="159"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="167"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="181" t="s">
@@ -13587,205 +15196,237 @@
       </c>
       <c r="B10" s="181"/>
       <c r="C10" s="181"/>
-      <c r="R10" s="160" t="s">
+      <c r="R10" s="163" t="s">
         <v>1030</v>
       </c>
-      <c r="S10" s="161"/>
-      <c r="T10" s="157" t="s">
+      <c r="S10" s="164"/>
+      <c r="T10" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="U10" s="158"/>
-      <c r="V10" s="159"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="167"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="R11" s="160" t="s">
+      <c r="R11" s="163" t="s">
         <v>1031</v>
       </c>
-      <c r="S11" s="161"/>
-      <c r="T11" s="157" t="s">
+      <c r="S11" s="164"/>
+      <c r="T11" s="165" t="s">
         <v>1023</v>
       </c>
-      <c r="U11" s="158"/>
-      <c r="V11" s="159"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="167"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="R12" s="167" t="s">
+      <c r="R12" s="170" t="s">
         <v>1054</v>
       </c>
-      <c r="S12" s="168"/>
-      <c r="T12" s="169" t="s">
+      <c r="S12" s="171"/>
+      <c r="T12" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="U12" s="170"/>
-      <c r="V12" s="171"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="161"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="R13" s="167" t="s">
+      <c r="R13" s="170" t="s">
         <v>1032</v>
       </c>
-      <c r="S13" s="168"/>
-      <c r="T13" s="169" t="s">
+      <c r="S13" s="171"/>
+      <c r="T13" s="159" t="s">
         <v>1023</v>
       </c>
-      <c r="U13" s="170"/>
-      <c r="V13" s="171"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="161"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="R14" s="167" t="s">
+      <c r="R14" s="170" t="s">
         <v>1033</v>
       </c>
-      <c r="S14" s="168"/>
-      <c r="T14" s="169" t="s">
+      <c r="S14" s="171"/>
+      <c r="T14" s="159" t="s">
         <v>1024</v>
       </c>
-      <c r="U14" s="170"/>
-      <c r="V14" s="171"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="161"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="R15" s="160" t="s">
-        <v>1034</v>
-      </c>
-      <c r="S15" s="161"/>
-      <c r="T15" s="157" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U15" s="158"/>
-      <c r="V15" s="159"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="167"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="R16" s="160" t="s">
-        <v>1035</v>
-      </c>
-      <c r="S16" s="161"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="159"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="167"/>
     </row>
     <row r="17" spans="18:22">
-      <c r="R17" s="160" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S17" s="161"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="159"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="167"/>
     </row>
     <row r="18" spans="18:22">
-      <c r="R18" s="160" t="s">
+      <c r="R18" s="163" t="s">
         <v>1038</v>
       </c>
-      <c r="S18" s="161"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="159"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="167"/>
     </row>
     <row r="19" spans="18:22">
-      <c r="R19" s="160" t="s">
+      <c r="R19" s="163" t="s">
         <v>1039</v>
       </c>
-      <c r="S19" s="161"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="159"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="167"/>
     </row>
     <row r="20" spans="18:22">
-      <c r="R20" s="160" t="s">
+      <c r="R20" s="163" t="s">
         <v>1041</v>
       </c>
-      <c r="S20" s="161"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="159"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="167"/>
     </row>
     <row r="21" spans="18:22">
-      <c r="R21" s="160" t="s">
+      <c r="R21" s="163" t="s">
         <v>1042</v>
       </c>
-      <c r="S21" s="161"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="159"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="167"/>
     </row>
     <row r="22" spans="18:22">
-      <c r="R22" s="172" t="s">
+      <c r="R22" s="174" t="s">
         <v>1045</v>
       </c>
-      <c r="S22" s="173"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="159"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="167"/>
     </row>
     <row r="23" spans="18:22">
-      <c r="R23" s="160" t="s">
+      <c r="R23" s="163" t="s">
         <v>1046</v>
       </c>
-      <c r="S23" s="161"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="159"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="167"/>
     </row>
     <row r="24" spans="18:22">
-      <c r="R24" s="172" t="s">
+      <c r="R24" s="174" t="s">
         <v>1048</v>
       </c>
-      <c r="S24" s="173"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="159"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="167"/>
     </row>
     <row r="25" spans="18:22">
-      <c r="R25" s="160" t="s">
+      <c r="R25" s="163" t="s">
         <v>1050</v>
       </c>
-      <c r="S25" s="161"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="159"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="166"/>
+      <c r="V25" s="167"/>
     </row>
     <row r="26" spans="18:22">
-      <c r="R26" s="160" t="s">
+      <c r="R26" s="163" t="s">
         <v>1051</v>
       </c>
-      <c r="S26" s="161"/>
-      <c r="T26" s="157"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="159"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="167"/>
     </row>
     <row r="27" spans="18:22">
-      <c r="R27" s="167" t="s">
+      <c r="R27" s="170" t="s">
         <v>1065</v>
       </c>
-      <c r="S27" s="168"/>
-      <c r="T27" s="169" t="s">
+      <c r="S27" s="171"/>
+      <c r="T27" s="159" t="s">
         <v>1068</v>
       </c>
-      <c r="U27" s="170"/>
-      <c r="V27" s="171"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="161"/>
     </row>
     <row r="28" spans="18:22">
-      <c r="R28" s="167" t="s">
+      <c r="R28" s="170" t="s">
         <v>1066</v>
       </c>
-      <c r="S28" s="168"/>
-      <c r="T28" s="169" t="s">
+      <c r="S28" s="171"/>
+      <c r="T28" s="159" t="s">
         <v>1067</v>
       </c>
-      <c r="U28" s="170"/>
-      <c r="V28" s="171"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="161"/>
     </row>
     <row r="29" spans="18:22">
-      <c r="R29" s="160" t="s">
+      <c r="R29" s="163" t="s">
         <v>1026</v>
       </c>
-      <c r="S29" s="161"/>
-      <c r="T29" s="157" t="s">
+      <c r="S29" s="164"/>
+      <c r="T29" s="165" t="s">
         <v>1027</v>
       </c>
-      <c r="U29" s="158"/>
-      <c r="V29" s="159"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="167"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="181" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:V21"/>
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="R29:S29"/>
@@ -13802,38 +15443,6 @@
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="T23:V23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:V9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13876,7 +15485,7 @@
       <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="83" t="s">
@@ -13891,7 +15500,7 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="101"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="83" t="s">
         <v>754</v>
       </c>
@@ -13904,7 +15513,7 @@
       <c r="E3" s="85"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>771</v>
       </c>
       <c r="B4" s="83" t="s">
@@ -13981,7 +15590,7 @@
       <c r="D9" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="101" t="s">
         <v>986</v>
       </c>
     </row>
@@ -13996,7 +15605,7 @@
       <c r="D10" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="100"/>
@@ -14009,7 +15618,7 @@
       <c r="D11" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="100"/>
@@ -14022,7 +15631,7 @@
       <c r="D12" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="100"/>
@@ -14035,7 +15644,7 @@
       <c r="D13" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="100"/>
@@ -14048,7 +15657,7 @@
       <c r="D14" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="100"/>
@@ -14061,7 +15670,7 @@
       <c r="D15" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="100"/>
@@ -14074,10 +15683,10 @@
       <c r="D16" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E16" s="98"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="101"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="83" t="s">
         <v>855</v>
       </c>
@@ -14087,10 +15696,10 @@
       <c r="D17" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>875</v>
       </c>
       <c r="B18" s="83" t="s">
@@ -14116,7 +15725,7 @@
       <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="101"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="83" t="s">
         <v>873</v>
       </c>
@@ -14127,7 +15736,7 @@
       <c r="E20" s="85"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>941</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -14139,7 +15748,7 @@
       <c r="D21" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="101" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -14154,7 +15763,7 @@
       <c r="D22" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="100"/>
@@ -14167,7 +15776,7 @@
       <c r="D23" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E23" s="98"/>
+      <c r="E23" s="101"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="100"/>
@@ -14180,7 +15789,7 @@
       <c r="D24" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E24" s="98"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="100"/>
@@ -14193,7 +15802,7 @@
       <c r="D25" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E25" s="98"/>
+      <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="100"/>
@@ -14206,7 +15815,7 @@
       <c r="D26" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E26" s="98"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="100"/>
@@ -14219,7 +15828,7 @@
       <c r="D27" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E27" s="98"/>
+      <c r="E27" s="101"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="100"/>
@@ -14232,10 +15841,10 @@
       <c r="D28" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="101"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="101"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="83" t="s">
         <v>912</v>
       </c>
@@ -14245,10 +15854,10 @@
       <c r="D29" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E29" s="98"/>
+      <c r="E29" s="101"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="98" t="s">
         <v>940</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -14260,7 +15869,7 @@
       <c r="D30" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E30" s="98"/>
+      <c r="E30" s="101"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="100"/>
@@ -14273,7 +15882,7 @@
       <c r="D31" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E31" s="98"/>
+      <c r="E31" s="101"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="100"/>
@@ -14286,7 +15895,7 @@
       <c r="D32" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E32" s="98"/>
+      <c r="E32" s="101"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="100"/>
@@ -14299,7 +15908,7 @@
       <c r="D33" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E33" s="98"/>
+      <c r="E33" s="101"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="100"/>
@@ -14312,7 +15921,7 @@
       <c r="D34" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E34" s="98"/>
+      <c r="E34" s="101"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="100"/>
@@ -14325,7 +15934,7 @@
       <c r="D35" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E35" s="98"/>
+      <c r="E35" s="101"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="100"/>
@@ -14338,7 +15947,7 @@
       <c r="D36" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="101"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="100"/>
@@ -14351,7 +15960,7 @@
       <c r="D37" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="E37" s="98"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="81" t="s">
@@ -14367,7 +15976,7 @@
       <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="98" t="s">
         <v>948</v>
       </c>
       <c r="B39" s="80" t="s">
@@ -14435,7 +16044,7 @@
       <c r="E44" s="85"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="101"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="80" t="s">
         <v>964</v>
       </c>
@@ -14625,17 +16234,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17362,18 +18971,6 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -17390,6 +18987,18 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17803,7 +19412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -17836,233 +19445,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="127" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -19307,30 +20916,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="128"/>
-      <c r="X36" s="128"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -19460,30 +21069,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="127"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="128"/>
-      <c r="S46" s="128"/>
-      <c r="T46" s="128"/>
-      <c r="U46" s="128"/>
-      <c r="V46" s="128"/>
-      <c r="W46" s="128"/>
-      <c r="X46" s="128"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -19639,30 +21248,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="127"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
-      <c r="R58" s="128"/>
-      <c r="S58" s="128"/>
-      <c r="T58" s="128"/>
-      <c r="U58" s="128"/>
-      <c r="V58" s="128"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="128"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="125"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
+      <c r="X58" s="125"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -19920,30 +21529,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="127"/>
-      <c r="B66" s="128"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="128"/>
-      <c r="M66" s="128"/>
-      <c r="N66" s="128"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="128"/>
-      <c r="R66" s="128"/>
-      <c r="S66" s="128"/>
-      <c r="T66" s="128"/>
-      <c r="U66" s="128"/>
-      <c r="V66" s="128"/>
-      <c r="W66" s="128"/>
-      <c r="X66" s="128"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="125"/>
+      <c r="L66" s="125"/>
+      <c r="M66" s="125"/>
+      <c r="N66" s="125"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="125"/>
+      <c r="Q66" s="125"/>
+      <c r="R66" s="125"/>
+      <c r="S66" s="125"/>
+      <c r="T66" s="125"/>
+      <c r="U66" s="125"/>
+      <c r="V66" s="125"/>
+      <c r="W66" s="125"/>
+      <c r="X66" s="125"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -20060,30 +21669,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="128"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="128"/>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="128"/>
-      <c r="N75" s="128"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="128"/>
-      <c r="Q75" s="128"/>
-      <c r="R75" s="128"/>
-      <c r="S75" s="128"/>
-      <c r="T75" s="128"/>
-      <c r="U75" s="128"/>
-      <c r="V75" s="128"/>
-      <c r="W75" s="128"/>
-      <c r="X75" s="128"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="125"/>
+      <c r="M75" s="125"/>
+      <c r="N75" s="125"/>
+      <c r="O75" s="125"/>
+      <c r="P75" s="125"/>
+      <c r="Q75" s="125"/>
+      <c r="R75" s="125"/>
+      <c r="S75" s="125"/>
+      <c r="T75" s="125"/>
+      <c r="U75" s="125"/>
+      <c r="V75" s="125"/>
+      <c r="W75" s="125"/>
+      <c r="X75" s="125"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -20265,30 +21874,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="128"/>
-      <c r="B89" s="128"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="128"/>
-      <c r="L89" s="128"/>
-      <c r="M89" s="128"/>
-      <c r="N89" s="128"/>
-      <c r="O89" s="128"/>
-      <c r="P89" s="128"/>
-      <c r="Q89" s="128"/>
-      <c r="R89" s="128"/>
-      <c r="S89" s="128"/>
-      <c r="T89" s="128"/>
-      <c r="U89" s="128"/>
-      <c r="V89" s="128"/>
-      <c r="W89" s="128"/>
-      <c r="X89" s="128"/>
+      <c r="A89" s="125"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="125"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="125"/>
+      <c r="N89" s="125"/>
+      <c r="O89" s="125"/>
+      <c r="P89" s="125"/>
+      <c r="Q89" s="125"/>
+      <c r="R89" s="125"/>
+      <c r="S89" s="125"/>
+      <c r="T89" s="125"/>
+      <c r="U89" s="125"/>
+      <c r="V89" s="125"/>
+      <c r="W89" s="125"/>
+      <c r="X89" s="125"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -20392,30 +22001,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="128"/>
-      <c r="B97" s="128"/>
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-      <c r="H97" s="128"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="128"/>
-      <c r="K97" s="128"/>
-      <c r="L97" s="128"/>
-      <c r="M97" s="128"/>
-      <c r="N97" s="128"/>
-      <c r="O97" s="128"/>
-      <c r="P97" s="128"/>
-      <c r="Q97" s="128"/>
-      <c r="R97" s="128"/>
-      <c r="S97" s="128"/>
-      <c r="T97" s="128"/>
-      <c r="U97" s="128"/>
-      <c r="V97" s="128"/>
-      <c r="W97" s="128"/>
-      <c r="X97" s="128"/>
+      <c r="A97" s="125"/>
+      <c r="B97" s="125"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="125"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125"/>
+      <c r="Q97" s="125"/>
+      <c r="R97" s="125"/>
+      <c r="S97" s="125"/>
+      <c r="T97" s="125"/>
+      <c r="U97" s="125"/>
+      <c r="V97" s="125"/>
+      <c r="W97" s="125"/>
+      <c r="X97" s="125"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -20519,30 +22128,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="128"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
-      <c r="H105" s="128"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="128"/>
-      <c r="K105" s="128"/>
-      <c r="L105" s="128"/>
-      <c r="M105" s="128"/>
-      <c r="N105" s="128"/>
-      <c r="O105" s="128"/>
-      <c r="P105" s="128"/>
-      <c r="Q105" s="128"/>
-      <c r="R105" s="128"/>
-      <c r="S105" s="128"/>
-      <c r="T105" s="128"/>
-      <c r="U105" s="128"/>
-      <c r="V105" s="128"/>
-      <c r="W105" s="128"/>
-      <c r="X105" s="128"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="125"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="125"/>
+      <c r="N105" s="125"/>
+      <c r="O105" s="125"/>
+      <c r="P105" s="125"/>
+      <c r="Q105" s="125"/>
+      <c r="R105" s="125"/>
+      <c r="S105" s="125"/>
+      <c r="T105" s="125"/>
+      <c r="U105" s="125"/>
+      <c r="V105" s="125"/>
+      <c r="W105" s="125"/>
+      <c r="X105" s="125"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -20648,15 +22257,6 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -20670,6 +22270,15 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20681,7 +22290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView topLeftCell="H184" workbookViewId="0">
+    <sheetView topLeftCell="H142" workbookViewId="0">
       <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
@@ -20734,31 +22343,31 @@
       <c r="W1" s="129"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -22075,29 +23684,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="130"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -23415,28 +25024,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="130"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
       <c r="S58" s="130"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
-      <c r="V58" s="126"/>
-      <c r="W58" s="126"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -24833,29 +26442,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="126"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="126"/>
-      <c r="N86" s="126"/>
-      <c r="O86" s="126"/>
-      <c r="P86" s="126"/>
-      <c r="Q86" s="126"/>
-      <c r="R86" s="126"/>
-      <c r="S86" s="126"/>
-      <c r="T86" s="126"/>
-      <c r="U86" s="126"/>
-      <c r="V86" s="126"/>
-      <c r="W86" s="126"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="127"/>
+      <c r="L86" s="127"/>
+      <c r="M86" s="127"/>
+      <c r="N86" s="127"/>
+      <c r="O86" s="127"/>
+      <c r="P86" s="127"/>
+      <c r="Q86" s="127"/>
+      <c r="R86" s="127"/>
+      <c r="S86" s="127"/>
+      <c r="T86" s="127"/>
+      <c r="U86" s="127"/>
+      <c r="V86" s="127"/>
+      <c r="W86" s="127"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -26331,29 +27940,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="126"/>
-      <c r="B114" s="126"/>
-      <c r="C114" s="126"/>
-      <c r="D114" s="126"/>
-      <c r="E114" s="126"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="I114" s="126"/>
-      <c r="J114" s="126"/>
-      <c r="K114" s="126"/>
-      <c r="L114" s="126"/>
-      <c r="M114" s="126"/>
-      <c r="N114" s="126"/>
-      <c r="O114" s="126"/>
-      <c r="P114" s="126"/>
-      <c r="Q114" s="126"/>
-      <c r="R114" s="126"/>
-      <c r="S114" s="126"/>
-      <c r="T114" s="126"/>
-      <c r="U114" s="126"/>
-      <c r="V114" s="126"/>
-      <c r="W114" s="126"/>
+      <c r="A114" s="127"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="127"/>
+      <c r="L114" s="127"/>
+      <c r="M114" s="127"/>
+      <c r="N114" s="127"/>
+      <c r="O114" s="127"/>
+      <c r="P114" s="127"/>
+      <c r="Q114" s="127"/>
+      <c r="R114" s="127"/>
+      <c r="S114" s="127"/>
+      <c r="T114" s="127"/>
+      <c r="U114" s="127"/>
+      <c r="V114" s="127"/>
+      <c r="W114" s="127"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -27825,29 +29434,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="126"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="126"/>
-      <c r="F142" s="126"/>
-      <c r="G142" s="126"/>
-      <c r="H142" s="126"/>
-      <c r="I142" s="126"/>
-      <c r="J142" s="126"/>
-      <c r="K142" s="126"/>
-      <c r="L142" s="126"/>
-      <c r="M142" s="126"/>
-      <c r="N142" s="126"/>
-      <c r="O142" s="126"/>
-      <c r="P142" s="126"/>
-      <c r="Q142" s="126"/>
-      <c r="R142" s="126"/>
-      <c r="S142" s="126"/>
-      <c r="T142" s="126"/>
-      <c r="U142" s="126"/>
-      <c r="V142" s="126"/>
-      <c r="W142" s="126"/>
+      <c r="A142" s="127"/>
+      <c r="B142" s="127"/>
+      <c r="C142" s="127"/>
+      <c r="D142" s="127"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="127"/>
+      <c r="H142" s="127"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="127"/>
+      <c r="K142" s="127"/>
+      <c r="L142" s="127"/>
+      <c r="M142" s="127"/>
+      <c r="N142" s="127"/>
+      <c r="O142" s="127"/>
+      <c r="P142" s="127"/>
+      <c r="Q142" s="127"/>
+      <c r="R142" s="127"/>
+      <c r="S142" s="127"/>
+      <c r="T142" s="127"/>
+      <c r="U142" s="127"/>
+      <c r="V142" s="127"/>
+      <c r="W142" s="127"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -29318,29 +30927,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="126"/>
-      <c r="B170" s="126"/>
-      <c r="C170" s="126"/>
-      <c r="D170" s="126"/>
-      <c r="E170" s="126"/>
-      <c r="F170" s="126"/>
-      <c r="G170" s="126"/>
-      <c r="H170" s="126"/>
-      <c r="I170" s="126"/>
-      <c r="J170" s="126"/>
-      <c r="K170" s="126"/>
-      <c r="L170" s="126"/>
-      <c r="M170" s="126"/>
-      <c r="N170" s="126"/>
-      <c r="O170" s="126"/>
-      <c r="P170" s="126"/>
-      <c r="Q170" s="126"/>
-      <c r="R170" s="126"/>
-      <c r="S170" s="126"/>
-      <c r="T170" s="126"/>
-      <c r="U170" s="126"/>
-      <c r="V170" s="126"/>
-      <c r="W170" s="126"/>
+      <c r="A170" s="127"/>
+      <c r="B170" s="127"/>
+      <c r="C170" s="127"/>
+      <c r="D170" s="127"/>
+      <c r="E170" s="127"/>
+      <c r="F170" s="127"/>
+      <c r="G170" s="127"/>
+      <c r="H170" s="127"/>
+      <c r="I170" s="127"/>
+      <c r="J170" s="127"/>
+      <c r="K170" s="127"/>
+      <c r="L170" s="127"/>
+      <c r="M170" s="127"/>
+      <c r="N170" s="127"/>
+      <c r="O170" s="127"/>
+      <c r="P170" s="127"/>
+      <c r="Q170" s="127"/>
+      <c r="R170" s="127"/>
+      <c r="S170" s="127"/>
+      <c r="T170" s="127"/>
+      <c r="U170" s="127"/>
+      <c r="V170" s="127"/>
+      <c r="W170" s="127"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -30812,29 +32421,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="126"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="126"/>
-      <c r="D198" s="126"/>
-      <c r="E198" s="126"/>
-      <c r="F198" s="126"/>
-      <c r="G198" s="126"/>
-      <c r="H198" s="126"/>
-      <c r="I198" s="126"/>
-      <c r="J198" s="126"/>
-      <c r="K198" s="126"/>
-      <c r="L198" s="126"/>
-      <c r="M198" s="126"/>
-      <c r="N198" s="126"/>
-      <c r="O198" s="126"/>
-      <c r="P198" s="126"/>
-      <c r="Q198" s="126"/>
-      <c r="R198" s="126"/>
-      <c r="S198" s="126"/>
-      <c r="T198" s="126"/>
-      <c r="U198" s="126"/>
-      <c r="V198" s="126"/>
-      <c r="W198" s="126"/>
+      <c r="A198" s="127"/>
+      <c r="B198" s="127"/>
+      <c r="C198" s="127"/>
+      <c r="D198" s="127"/>
+      <c r="E198" s="127"/>
+      <c r="F198" s="127"/>
+      <c r="G198" s="127"/>
+      <c r="H198" s="127"/>
+      <c r="I198" s="127"/>
+      <c r="J198" s="127"/>
+      <c r="K198" s="127"/>
+      <c r="L198" s="127"/>
+      <c r="M198" s="127"/>
+      <c r="N198" s="127"/>
+      <c r="O198" s="127"/>
+      <c r="P198" s="127"/>
+      <c r="Q198" s="127"/>
+      <c r="R198" s="127"/>
+      <c r="S198" s="127"/>
+      <c r="T198" s="127"/>
+      <c r="U198" s="127"/>
+      <c r="V198" s="127"/>
+      <c r="W198" s="127"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -32326,15 +33935,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="M60:M85"/>
+    <mergeCell ref="S144:S169"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A30:W30"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="A32:A57"/>
+    <mergeCell ref="S4:S29"/>
+    <mergeCell ref="M4:M29"/>
+    <mergeCell ref="G4:G29"/>
+    <mergeCell ref="A60:A85"/>
+    <mergeCell ref="G32:G57"/>
+    <mergeCell ref="M32:M57"/>
+    <mergeCell ref="S32:S57"/>
     <mergeCell ref="G60:G85"/>
     <mergeCell ref="G172:G195"/>
     <mergeCell ref="A200:A225"/>
@@ -32351,22 +33967,15 @@
     <mergeCell ref="A114:W114"/>
     <mergeCell ref="G88:G111"/>
     <mergeCell ref="A88:A113"/>
-    <mergeCell ref="M60:M85"/>
-    <mergeCell ref="S144:S169"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A30:W30"/>
-    <mergeCell ref="A58:W58"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="A32:A57"/>
-    <mergeCell ref="S4:S29"/>
-    <mergeCell ref="M4:M29"/>
-    <mergeCell ref="G4:G29"/>
-    <mergeCell ref="A60:A85"/>
-    <mergeCell ref="G32:G57"/>
-    <mergeCell ref="M32:M57"/>
-    <mergeCell ref="S32:S57"/>
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32586,7 +34195,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33617,11 +35226,6 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -33629,6 +35233,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="6" activeTab="12"/>
@@ -21,7 +21,7 @@
     <sheet name="原型设计-工程对位" sheetId="14" r:id="rId12"/>
     <sheet name="原型设计-零件对位" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1084">
   <si>
     <t>用户角色与权限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4656,11 +4656,23 @@
 4. 报警或提示信息发送之后，累计运行时间清零，所有的报警或提醒记录都保存到数据库中的【提醒报警信息表：r_alarmprompt】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>算法六：也需要增加现场表及字段选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个零件参数别名的输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通三类，EMC还是六类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -5569,17 +5581,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5650,9 +5662,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5660,6 +5669,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5683,11 +5695,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5695,14 +5710,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5716,20 +5740,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5746,20 +5758,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5775,48 +5781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5845,8 +5809,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23389,7 +23401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23724,7 +23736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AA77"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -23752,134 +23764,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="135" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="136" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="140"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="136" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="140"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="140" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="136"/>
-      <c r="L7" s="139" t="s">
+      <c r="I7" s="141"/>
+      <c r="L7" s="136" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="140"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="L8" s="139" t="s">
+      <c r="F8" s="137"/>
+      <c r="L8" s="136" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="140"/>
+      <c r="M8" s="137"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="L9" s="137" t="s">
+      <c r="F9" s="137"/>
+      <c r="L9" s="138" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="139"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="L10" s="135" t="s">
+      <c r="F10" s="139"/>
+      <c r="L10" s="140" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="136"/>
+      <c r="M10" s="141"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="I11" s="139" t="s">
+      <c r="F11" s="141"/>
+      <c r="I11" s="136" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="140"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="136" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="140"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="137" t="s">
+      <c r="I13" s="138" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="138"/>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="140" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="136"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -23896,673 +23908,779 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="136" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="140"/>
+      <c r="I17" s="137"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="136" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="140"/>
+      <c r="I18" s="137"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="138"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="140" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="136"/>
+      <c r="I20" s="141"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="140" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="136"/>
+      <c r="I21" s="141"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="147" t="s">
+      <c r="W22" s="142" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="148"/>
-      <c r="Z22" s="142" t="s">
+      <c r="X22" s="143"/>
+      <c r="Z22" s="146" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="143"/>
+      <c r="AA22" s="147"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="H23" s="139" t="s">
+      <c r="C23" s="150"/>
+      <c r="H23" s="136" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="140"/>
-      <c r="W23" s="149"/>
-      <c r="X23" s="150"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="145"/>
+      <c r="I23" s="137"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="145"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="149"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="136" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="H24" s="139" t="s">
+      <c r="C24" s="137"/>
+      <c r="H24" s="136" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="140"/>
+      <c r="I24" s="137"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="138"/>
-      <c r="H25" s="135" t="s">
+      <c r="C25" s="139"/>
+      <c r="H25" s="140" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="N25" s="139" t="s">
+      <c r="I25" s="141"/>
+      <c r="N25" s="136" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="140"/>
-      <c r="T25" s="139" t="s">
+      <c r="O25" s="137"/>
+      <c r="T25" s="136" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="140"/>
-      <c r="W25" s="139" t="s">
+      <c r="U25" s="137"/>
+      <c r="W25" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="140"/>
+      <c r="X25" s="137"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="140" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="H26" s="137" t="s">
+      <c r="C26" s="141"/>
+      <c r="H26" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="138"/>
-      <c r="N26" s="139" t="s">
+      <c r="I26" s="139"/>
+      <c r="N26" s="136" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="140"/>
-      <c r="T26" s="139" t="s">
+      <c r="O26" s="137"/>
+      <c r="T26" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="140"/>
-      <c r="W26" s="139" t="s">
+      <c r="U26" s="137"/>
+      <c r="W26" s="136" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="140"/>
+      <c r="X26" s="137"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="H27" s="135" t="s">
+      <c r="C27" s="141"/>
+      <c r="H27" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="136"/>
-      <c r="N27" s="137" t="s">
+      <c r="I27" s="141"/>
+      <c r="N27" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="138" t="s">
+      <c r="O27" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="137" t="s">
+      <c r="T27" s="138" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="138" t="s">
+      <c r="U27" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="137" t="s">
+      <c r="W27" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="138" t="s">
+      <c r="X27" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="N28" s="135" t="s">
+      <c r="C28" s="141"/>
+      <c r="N28" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="136" t="s">
+      <c r="O28" s="141" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="135" t="s">
+      <c r="T28" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="136" t="s">
+      <c r="U28" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="135" t="s">
+      <c r="W28" s="140" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="136" t="s">
+      <c r="X28" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="139" t="s">
+      <c r="K30" s="136" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="140"/>
+      <c r="L30" s="137"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="139" t="s">
+      <c r="K31" s="136" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="140"/>
-      <c r="N31" s="139" t="s">
+      <c r="L31" s="137"/>
+      <c r="N31" s="136" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="140"/>
-      <c r="T31" s="139" t="s">
+      <c r="O31" s="137"/>
+      <c r="T31" s="136" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="140"/>
-      <c r="W31" s="139" t="s">
+      <c r="U31" s="137"/>
+      <c r="W31" s="136" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="140"/>
+      <c r="X31" s="137"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="138" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="138" t="s">
+      <c r="L32" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="139" t="s">
+      <c r="N32" s="136" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="140"/>
-      <c r="T32" s="139" t="s">
+      <c r="O32" s="137"/>
+      <c r="T32" s="136" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="140"/>
-      <c r="W32" s="139" t="s">
+      <c r="U32" s="137"/>
+      <c r="W32" s="136" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="140"/>
+      <c r="X32" s="137"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="135" t="s">
+      <c r="K33" s="140" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="136" t="s">
+      <c r="L33" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="137" t="s">
+      <c r="N33" s="138" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="138" t="s">
+      <c r="O33" s="139" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="137" t="s">
+      <c r="T33" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="138" t="s">
+      <c r="U33" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="137" t="s">
+      <c r="W33" s="138" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="138" t="s">
+      <c r="X33" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="135" t="s">
+      <c r="N34" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="136" t="s">
+      <c r="O34" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="135" t="s">
+      <c r="T34" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="136" t="s">
+      <c r="U34" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="135" t="s">
+      <c r="W34" s="140" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="136" t="s">
+      <c r="X34" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="139" t="s">
+      <c r="E35" s="136" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="140"/>
+      <c r="F35" s="137"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="139" t="s">
+      <c r="E36" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="141"/>
+      <c r="F36" s="150"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="137" t="s">
+      <c r="E37" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="138"/>
-      <c r="J37" s="139" t="s">
+      <c r="F37" s="139"/>
+      <c r="J37" s="136" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="140"/>
-      <c r="T37" s="139" t="s">
+      <c r="K37" s="137"/>
+      <c r="T37" s="136" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="140"/>
-      <c r="W37" s="139" t="s">
+      <c r="U37" s="137"/>
+      <c r="W37" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="140"/>
+      <c r="X37" s="137"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="139" t="s">
+      <c r="J38" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="140"/>
-      <c r="Q38" s="139" t="s">
+      <c r="K38" s="137"/>
+      <c r="Q38" s="136" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="140"/>
-      <c r="T38" s="139" t="s">
+      <c r="R38" s="137"/>
+      <c r="T38" s="136" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="140"/>
-      <c r="W38" s="139" t="s">
+      <c r="U38" s="137"/>
+      <c r="W38" s="136" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="140"/>
+      <c r="X38" s="137"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="138" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="138" t="s">
+      <c r="K39" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="139" t="s">
+      <c r="Q39" s="136" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="140"/>
-      <c r="T39" s="137" t="s">
+      <c r="R39" s="137"/>
+      <c r="T39" s="138" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="138" t="s">
+      <c r="U39" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="137" t="s">
+      <c r="W39" s="138" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="138" t="s">
+      <c r="X39" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="135" t="s">
+      <c r="J40" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="136" t="s">
+      <c r="K40" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="137" t="s">
+      <c r="Q40" s="138" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="138" t="s">
+      <c r="R40" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="135" t="s">
+      <c r="T40" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="136" t="s">
+      <c r="U40" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="135" t="s">
+      <c r="W40" s="140" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="136" t="s">
+      <c r="X40" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="135" t="s">
+      <c r="Q41" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="136" t="s">
+      <c r="R41" s="141" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="139" t="s">
+      <c r="T43" s="136" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="140"/>
-      <c r="W43" s="139" t="s">
+      <c r="U43" s="137"/>
+      <c r="W43" s="136" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="140"/>
+      <c r="X43" s="137"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="139" t="s">
+      <c r="T44" s="136" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="140"/>
-      <c r="W44" s="139" t="s">
+      <c r="U44" s="137"/>
+      <c r="W44" s="136" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="140"/>
+      <c r="X44" s="137"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="137" t="s">
+      <c r="T45" s="138" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="138" t="s">
+      <c r="U45" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="137" t="s">
+      <c r="W45" s="138" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="138" t="s">
+      <c r="X45" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="135" t="s">
+      <c r="T46" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="136" t="s">
+      <c r="U46" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="135" t="s">
+      <c r="W46" s="140" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="136" t="s">
+      <c r="X46" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="139" t="s">
+      <c r="T49" s="136" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="140"/>
-      <c r="W49" s="139" t="s">
+      <c r="U49" s="137"/>
+      <c r="W49" s="136" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="140"/>
+      <c r="X49" s="137"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="139" t="s">
+      <c r="T50" s="136" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="140"/>
-      <c r="W50" s="139" t="s">
+      <c r="U50" s="137"/>
+      <c r="W50" s="136" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="140"/>
+      <c r="X50" s="137"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="137" t="s">
+      <c r="T51" s="138" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="138" t="s">
+      <c r="U51" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="137" t="s">
+      <c r="W51" s="138" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="138" t="s">
+      <c r="X51" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="135" t="s">
+      <c r="T52" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="136" t="s">
+      <c r="U52" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="135" t="s">
+      <c r="W52" s="140" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="136" t="s">
+      <c r="X52" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="139" t="s">
+      <c r="T55" s="136" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="140"/>
-      <c r="W55" s="139" t="s">
+      <c r="U55" s="137"/>
+      <c r="W55" s="136" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="140"/>
+      <c r="X55" s="137"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="139" t="s">
+      <c r="T56" s="136" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="140"/>
-      <c r="W56" s="139" t="s">
+      <c r="U56" s="137"/>
+      <c r="W56" s="136" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="140"/>
+      <c r="X56" s="137"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="137" t="s">
+      <c r="T57" s="138" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="138" t="s">
+      <c r="U57" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="137" t="s">
+      <c r="W57" s="138" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="138" t="s">
+      <c r="X57" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="135" t="s">
+      <c r="T58" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="136" t="s">
+      <c r="U58" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="135" t="s">
+      <c r="W58" s="140" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="136" t="s">
+      <c r="X58" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="139" t="s">
+      <c r="T61" s="136" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="140"/>
-      <c r="W61" s="139" t="s">
+      <c r="U61" s="137"/>
+      <c r="W61" s="136" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="140"/>
+      <c r="X61" s="137"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="139" t="s">
+      <c r="T62" s="136" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="140"/>
-      <c r="W62" s="139" t="s">
+      <c r="U62" s="137"/>
+      <c r="W62" s="136" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="140"/>
+      <c r="X62" s="137"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="137" t="s">
+      <c r="T63" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="138" t="s">
+      <c r="U63" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="137" t="s">
+      <c r="W63" s="138" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="138" t="s">
+      <c r="X63" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="135" t="s">
+      <c r="T64" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="136" t="s">
+      <c r="U64" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="135" t="s">
+      <c r="W64" s="140" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="136" t="s">
+      <c r="X64" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="139" t="s">
+      <c r="T67" s="136" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="140"/>
-      <c r="W67" s="139" t="s">
+      <c r="U67" s="137"/>
+      <c r="W67" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="140"/>
+      <c r="X67" s="137"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="139" t="s">
+      <c r="T68" s="136" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="140"/>
-      <c r="W68" s="139" t="s">
+      <c r="U68" s="137"/>
+      <c r="W68" s="136" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="140"/>
+      <c r="X68" s="137"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="137" t="s">
+      <c r="T69" s="138" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="138" t="s">
+      <c r="U69" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="137" t="s">
+      <c r="W69" s="138" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="138" t="s">
+      <c r="X69" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="135" t="s">
+      <c r="T70" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="136" t="s">
+      <c r="U70" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="135" t="s">
+      <c r="W70" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="136" t="s">
+      <c r="X70" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="139" t="s">
+      <c r="T73" s="136" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="140"/>
-      <c r="W73" s="139" t="s">
+      <c r="U73" s="137"/>
+      <c r="W73" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="140"/>
+      <c r="X73" s="137"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="139" t="s">
+      <c r="T74" s="136" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="140"/>
-      <c r="W74" s="139" t="s">
+      <c r="U74" s="137"/>
+      <c r="W74" s="136" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="140"/>
+      <c r="X74" s="137"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="137" t="s">
+      <c r="T75" s="138" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="138" t="s">
+      <c r="U75" s="139" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="137" t="s">
+      <c r="W75" s="138" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="138" t="s">
+      <c r="X75" s="139" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="135" t="s">
+      <c r="T76" s="140" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="136" t="s">
+      <c r="U76" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="135" t="s">
+      <c r="W76" s="140" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="136" t="s">
+      <c r="X76" s="141" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
     <mergeCell ref="C1:L3"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W74:X74"/>
@@ -24587,112 +24705,6 @@
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="W45:X45"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24701,7 +24713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -24927,11 +24939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24940,19 +24952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="80.25" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="156" t="s">
         <v>1060</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="177"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24966,11 +24978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U307"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="E382" sqref="E382"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="Q355" sqref="Q355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24984,381 +24996,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="189" t="s">
         <v>1080</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="157"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="187"/>
       <c r="U1" s="88" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="P2" s="161" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="P2" s="159" t="s">
         <v>1013</v>
       </c>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163" t="s">
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161" t="s">
         <v>1014</v>
       </c>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="163"/>
       <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="P3" s="161" t="s">
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="P3" s="159" t="s">
         <v>1019</v>
       </c>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="163" t="s">
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161" t="s">
         <v>1014</v>
       </c>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
       <c r="U3" s="72"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="P4" s="161" t="s">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="P4" s="159" t="s">
         <v>1020</v>
       </c>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="163" t="s">
+      <c r="Q4" s="160"/>
+      <c r="R4" s="161" t="s">
         <v>1014</v>
       </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="165"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="163"/>
       <c r="U4" s="72"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="P5" s="161" t="s">
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="P5" s="159" t="s">
         <v>1021</v>
       </c>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="163" t="s">
+      <c r="Q5" s="160"/>
+      <c r="R5" s="161" t="s">
         <v>1014</v>
       </c>
-      <c r="S5" s="164"/>
-      <c r="T5" s="165"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="163"/>
       <c r="U5" s="72"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="P6" s="161" t="s">
+      <c r="A6" s="189"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="P6" s="159" t="s">
         <v>1022</v>
       </c>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="163" t="s">
+      <c r="Q6" s="160"/>
+      <c r="R6" s="161" t="s">
         <v>1014</v>
       </c>
-      <c r="S6" s="164"/>
-      <c r="T6" s="165"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="163"/>
       <c r="U6" s="72"/>
     </row>
     <row r="7" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="P7" s="168" t="s">
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="P7" s="175" t="s">
         <v>1042</v>
       </c>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="158" t="s">
+      <c r="Q7" s="176"/>
+      <c r="R7" s="177" t="s">
         <v>1014</v>
       </c>
-      <c r="S7" s="159"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="170" t="s">
+      <c r="S7" s="178"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="180" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="P8" s="168" t="s">
+      <c r="P8" s="175" t="s">
         <v>1023</v>
       </c>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="158" t="s">
+      <c r="Q8" s="176"/>
+      <c r="R8" s="177" t="s">
         <v>1014</v>
       </c>
-      <c r="S8" s="159"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="174"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="184"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="P9" s="168" t="s">
+      <c r="P9" s="175" t="s">
         <v>1024</v>
       </c>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="158" t="s">
+      <c r="Q9" s="176"/>
+      <c r="R9" s="177" t="s">
         <v>1015</v>
       </c>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="171"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="181"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="185" t="s">
         <v>1058</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="P10" s="161" t="s">
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="P10" s="159" t="s">
         <v>1025</v>
       </c>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="163" t="s">
+      <c r="Q10" s="160"/>
+      <c r="R10" s="161" t="s">
         <v>1016</v>
       </c>
-      <c r="S10" s="164"/>
-      <c r="T10" s="165"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="163"/>
       <c r="U10" s="87" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="P11" s="161" t="s">
+      <c r="P11" s="159" t="s">
         <v>1026</v>
       </c>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="166" t="s">
+      <c r="Q11" s="160"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="173" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="P12" s="161" t="s">
+      <c r="P12" s="159" t="s">
         <v>1027</v>
       </c>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="167"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="174"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="P13" s="161" t="s">
+      <c r="P13" s="159" t="s">
         <v>1029</v>
       </c>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="166" t="s">
+      <c r="Q13" s="160"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="173" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="159" t="s">
         <v>1030</v>
       </c>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="167"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="174"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="P15" s="161" t="s">
+      <c r="P15" s="159" t="s">
         <v>1032</v>
       </c>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="166" t="s">
+      <c r="Q15" s="160"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="173" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="167"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="174"/>
     </row>
     <row r="17" spans="16:21">
-      <c r="P17" s="172" t="s">
+      <c r="P17" s="182" t="s">
         <v>1035</v>
       </c>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="166" t="s">
+      <c r="Q17" s="183"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="173" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="18" spans="16:21">
-      <c r="P18" s="161" t="s">
+      <c r="P18" s="159" t="s">
         <v>1078</v>
       </c>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="167"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="174"/>
     </row>
     <row r="19" spans="16:21">
-      <c r="P19" s="172" t="s">
+      <c r="P19" s="182" t="s">
         <v>1037</v>
       </c>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="165"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="163"/>
       <c r="U19" s="88" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="20" spans="16:21">
-      <c r="P20" s="161" t="s">
+      <c r="P20" s="159" t="s">
         <v>1039</v>
       </c>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="166" t="s">
+      <c r="Q20" s="160"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="173" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="21" spans="16:21">
-      <c r="P21" s="161" t="s">
+      <c r="P21" s="159" t="s">
         <v>1079</v>
       </c>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="167"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="174"/>
     </row>
     <row r="22" spans="16:21">
-      <c r="P22" s="168" t="s">
+      <c r="P22" s="175" t="s">
         <v>1053</v>
       </c>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="158" t="s">
+      <c r="Q22" s="176"/>
+      <c r="R22" s="177" t="s">
         <v>1056</v>
       </c>
-      <c r="S22" s="159"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="170" t="s">
+      <c r="S22" s="178"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="180" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="23" spans="16:21">
-      <c r="P23" s="168" t="s">
+      <c r="P23" s="175" t="s">
         <v>1054</v>
       </c>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="158" t="s">
+      <c r="Q23" s="176"/>
+      <c r="R23" s="177" t="s">
         <v>1055</v>
       </c>
-      <c r="S23" s="159"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="171"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="179"/>
+      <c r="U23" s="181"/>
     </row>
     <row r="24" spans="16:21">
-      <c r="P24" s="161" t="s">
+      <c r="P24" s="159" t="s">
         <v>1017</v>
       </c>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="163" t="s">
+      <c r="Q24" s="160"/>
+      <c r="R24" s="161" t="s">
         <v>1018</v>
       </c>
-      <c r="S24" s="164"/>
-      <c r="T24" s="165"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="163"/>
       <c r="U24" s="72"/>
     </row>
     <row r="27" spans="16:21" ht="14.25" thickBot="1">
@@ -25373,12 +25385,12 @@
       <c r="Q28" s="91" t="s">
         <v>1045</v>
       </c>
-      <c r="R28" s="180" t="s">
+      <c r="R28" s="164" t="s">
         <v>1077</v>
       </c>
-      <c r="S28" s="181"/>
-      <c r="T28" s="181"/>
-      <c r="U28" s="182"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="166"/>
     </row>
     <row r="29" spans="16:21" ht="14.25" thickBot="1">
       <c r="P29" s="90">
@@ -25387,10 +25399,10 @@
       <c r="Q29" s="92" t="s">
         <v>1046</v>
       </c>
-      <c r="R29" s="183"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="185"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="169"/>
     </row>
     <row r="30" spans="16:21" ht="14.25" thickBot="1">
       <c r="P30" s="90">
@@ -25399,10 +25411,10 @@
       <c r="Q30" s="92" t="s">
         <v>1047</v>
       </c>
-      <c r="R30" s="183"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="185"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="169"/>
     </row>
     <row r="31" spans="16:21" ht="14.25" thickBot="1">
       <c r="P31" s="90">
@@ -25411,10 +25423,10 @@
       <c r="Q31" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="R31" s="183"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="185"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="169"/>
     </row>
     <row r="32" spans="16:21" ht="14.25" thickBot="1">
       <c r="P32" s="90">
@@ -25423,10 +25435,10 @@
       <c r="Q32" s="93" t="s">
         <v>1049</v>
       </c>
-      <c r="R32" s="183"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="185"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="169"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" thickBot="1">
       <c r="P33" s="90">
@@ -25435,10 +25447,10 @@
       <c r="Q33" s="93" t="s">
         <v>1050</v>
       </c>
-      <c r="R33" s="183"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="185"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="169"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" thickBot="1">
       <c r="P34" s="90">
@@ -25447,108 +25459,97 @@
       <c r="Q34" s="93" t="s">
         <v>1051</v>
       </c>
-      <c r="R34" s="186"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="187"/>
-      <c r="U34" s="188"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="171"/>
+      <c r="T34" s="171"/>
+      <c r="U34" s="172"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="185" t="s">
         <v>1059</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="185"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="179" t="s">
+      <c r="A87" s="185" t="s">
         <v>1061</v>
       </c>
-      <c r="B87" s="179"/>
-      <c r="C87" s="179"/>
+      <c r="B87" s="185"/>
+      <c r="C87" s="185"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="179" t="s">
+      <c r="A135" s="185" t="s">
         <v>1063</v>
       </c>
-      <c r="B135" s="179"/>
-      <c r="C135" s="179"/>
+      <c r="B135" s="185"/>
+      <c r="C135" s="185"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="179" t="s">
+      <c r="A179" s="185" t="s">
         <v>1064</v>
       </c>
-      <c r="B179" s="179"/>
-      <c r="C179" s="179"/>
+      <c r="B179" s="185"/>
+      <c r="C179" s="185"/>
+    </row>
+    <row r="198" spans="17:17">
+      <c r="Q198" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="179" t="s">
+      <c r="A226" s="185" t="s">
         <v>1066</v>
       </c>
-      <c r="B226" s="179"/>
-      <c r="C226" s="179"/>
-      <c r="D226" s="189" t="s">
+      <c r="B226" s="185"/>
+      <c r="C226" s="185"/>
+      <c r="D226" s="188" t="s">
         <v>1067</v>
       </c>
-      <c r="E226" s="189"/>
-      <c r="F226" s="189"/>
-      <c r="G226" s="189"/>
-      <c r="H226" s="189"/>
-      <c r="I226" s="189"/>
-      <c r="J226" s="189"/>
+      <c r="E226" s="188"/>
+      <c r="F226" s="188"/>
+      <c r="G226" s="188"/>
+      <c r="H226" s="188"/>
+      <c r="I226" s="188"/>
+      <c r="J226" s="188"/>
+    </row>
+    <row r="244" spans="17:17">
+      <c r="Q244" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="179" t="s">
+      <c r="A260" s="185" t="s">
         <v>1068</v>
       </c>
-      <c r="B260" s="179"/>
-      <c r="C260" s="179"/>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="179" t="s">
+      <c r="B260" s="185"/>
+      <c r="C260" s="185"/>
+    </row>
+    <row r="307" spans="1:17">
+      <c r="A307" s="185" t="s">
         <v>1069</v>
       </c>
-      <c r="B307" s="179"/>
-      <c r="C307" s="179"/>
+      <c r="B307" s="185"/>
+      <c r="C307" s="185"/>
+    </row>
+    <row r="318" spans="1:17">
+      <c r="Q318" t="s">
+        <v>1083</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R28:U34"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="A1:M7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="D226:J226"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="A260:C260"/>
     <mergeCell ref="A307:C307"/>
     <mergeCell ref="P1:T1"/>
@@ -25565,18 +25566,44 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="D226:J226"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="R15:T15"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="A1:M7"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R28:U34"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25586,7 +25613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -25619,7 +25646,7 @@
       <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -25634,7 +25661,7 @@
       <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="98"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="82" t="s">
         <v>746</v>
       </c>
@@ -25647,7 +25674,7 @@
       <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>763</v>
       </c>
       <c r="B4" s="82" t="s">
@@ -25724,7 +25751,7 @@
       <c r="D9" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="97" t="s">
         <v>978</v>
       </c>
     </row>
@@ -25739,7 +25766,7 @@
       <c r="D10" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E10" s="100"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="99"/>
@@ -25752,7 +25779,7 @@
       <c r="D11" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="99"/>
@@ -25765,7 +25792,7 @@
       <c r="D12" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="99"/>
@@ -25778,7 +25805,7 @@
       <c r="D13" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="99"/>
@@ -25791,7 +25818,7 @@
       <c r="D14" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="99"/>
@@ -25804,7 +25831,7 @@
       <c r="D15" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="99"/>
@@ -25817,10 +25844,10 @@
       <c r="D16" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="98"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="82" t="s">
         <v>847</v>
       </c>
@@ -25830,10 +25857,10 @@
       <c r="D17" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="98" t="s">
         <v>867</v>
       </c>
       <c r="B18" s="82" t="s">
@@ -25859,7 +25886,7 @@
       <c r="E19" s="84"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="98"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="82" t="s">
         <v>865</v>
       </c>
@@ -25870,7 +25897,7 @@
       <c r="E20" s="84"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="98" t="s">
         <v>933</v>
       </c>
       <c r="B21" s="82" t="s">
@@ -25882,7 +25909,7 @@
       <c r="D21" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="97" t="s">
         <v>992</v>
       </c>
     </row>
@@ -25897,7 +25924,7 @@
       <c r="D22" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E22" s="100"/>
+      <c r="E22" s="97"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="99"/>
@@ -25910,7 +25937,7 @@
       <c r="D23" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E23" s="100"/>
+      <c r="E23" s="97"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="99"/>
@@ -25923,7 +25950,7 @@
       <c r="D24" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E24" s="100"/>
+      <c r="E24" s="97"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="99"/>
@@ -25936,7 +25963,7 @@
       <c r="D25" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="99"/>
@@ -25949,7 +25976,7 @@
       <c r="D26" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E26" s="100"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="99"/>
@@ -25962,7 +25989,7 @@
       <c r="D27" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="97"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="99"/>
@@ -25975,10 +26002,10 @@
       <c r="D28" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="97"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="98"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="82" t="s">
         <v>904</v>
       </c>
@@ -25988,10 +26015,10 @@
       <c r="D29" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E29" s="100"/>
+      <c r="E29" s="97"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="98" t="s">
         <v>932</v>
       </c>
       <c r="B30" s="82" t="s">
@@ -26003,7 +26030,7 @@
       <c r="D30" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="97"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="99"/>
@@ -26016,7 +26043,7 @@
       <c r="D31" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E31" s="100"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="99"/>
@@ -26029,7 +26056,7 @@
       <c r="D32" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E32" s="100"/>
+      <c r="E32" s="97"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="99"/>
@@ -26042,7 +26069,7 @@
       <c r="D33" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E33" s="100"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="99"/>
@@ -26055,7 +26082,7 @@
       <c r="D34" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E34" s="100"/>
+      <c r="E34" s="97"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="99"/>
@@ -26068,7 +26095,7 @@
       <c r="D35" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E35" s="100"/>
+      <c r="E35" s="97"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="99"/>
@@ -26081,7 +26108,7 @@
       <c r="D36" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E36" s="100"/>
+      <c r="E36" s="97"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="99"/>
@@ -26094,7 +26121,7 @@
       <c r="D37" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E37" s="100"/>
+      <c r="E37" s="97"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="80" t="s">
@@ -26110,7 +26137,7 @@
       <c r="E38" s="84"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="98" t="s">
         <v>940</v>
       </c>
       <c r="B39" s="79" t="s">
@@ -26178,7 +26205,7 @@
       <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="98"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="79" t="s">
         <v>956</v>
       </c>
@@ -26368,17 +26395,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26387,7 +26414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26663,7 +26690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -29105,6 +29132,18 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -29121,18 +29160,6 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29141,7 +29168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -29543,7 +29570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -29579,233 +29606,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="125" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -31050,30 +31077,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="127"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="124"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="124"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -31203,30 +31230,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="127"/>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
+      <c r="A46" s="126"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="127"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -31382,30 +31409,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="127"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
-      <c r="O58" s="124"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="124"/>
-      <c r="S58" s="124"/>
-      <c r="T58" s="124"/>
-      <c r="U58" s="124"/>
-      <c r="V58" s="124"/>
-      <c r="W58" s="124"/>
-      <c r="X58" s="124"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
+      <c r="X58" s="127"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -31663,30 +31690,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="127"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="124"/>
-      <c r="T66" s="124"/>
-      <c r="U66" s="124"/>
-      <c r="V66" s="124"/>
-      <c r="W66" s="124"/>
-      <c r="X66" s="124"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="127"/>
+      <c r="M66" s="127"/>
+      <c r="N66" s="127"/>
+      <c r="O66" s="127"/>
+      <c r="P66" s="127"/>
+      <c r="Q66" s="127"/>
+      <c r="R66" s="127"/>
+      <c r="S66" s="127"/>
+      <c r="T66" s="127"/>
+      <c r="U66" s="127"/>
+      <c r="V66" s="127"/>
+      <c r="W66" s="127"/>
+      <c r="X66" s="127"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -31803,30 +31830,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="124"/>
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="124"/>
-      <c r="O75" s="124"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="124"/>
-      <c r="R75" s="124"/>
-      <c r="S75" s="124"/>
-      <c r="T75" s="124"/>
-      <c r="U75" s="124"/>
-      <c r="V75" s="124"/>
-      <c r="W75" s="124"/>
-      <c r="X75" s="124"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="127"/>
+      <c r="M75" s="127"/>
+      <c r="N75" s="127"/>
+      <c r="O75" s="127"/>
+      <c r="P75" s="127"/>
+      <c r="Q75" s="127"/>
+      <c r="R75" s="127"/>
+      <c r="S75" s="127"/>
+      <c r="T75" s="127"/>
+      <c r="U75" s="127"/>
+      <c r="V75" s="127"/>
+      <c r="W75" s="127"/>
+      <c r="X75" s="127"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -32008,30 +32035,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="124"/>
-      <c r="K89" s="124"/>
-      <c r="L89" s="124"/>
-      <c r="M89" s="124"/>
-      <c r="N89" s="124"/>
-      <c r="O89" s="124"/>
-      <c r="P89" s="124"/>
-      <c r="Q89" s="124"/>
-      <c r="R89" s="124"/>
-      <c r="S89" s="124"/>
-      <c r="T89" s="124"/>
-      <c r="U89" s="124"/>
-      <c r="V89" s="124"/>
-      <c r="W89" s="124"/>
-      <c r="X89" s="124"/>
+      <c r="A89" s="127"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="127"/>
+      <c r="L89" s="127"/>
+      <c r="M89" s="127"/>
+      <c r="N89" s="127"/>
+      <c r="O89" s="127"/>
+      <c r="P89" s="127"/>
+      <c r="Q89" s="127"/>
+      <c r="R89" s="127"/>
+      <c r="S89" s="127"/>
+      <c r="T89" s="127"/>
+      <c r="U89" s="127"/>
+      <c r="V89" s="127"/>
+      <c r="W89" s="127"/>
+      <c r="X89" s="127"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -32135,30 +32162,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="124"/>
-      <c r="B97" s="124"/>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="124"/>
-      <c r="H97" s="124"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="124"/>
-      <c r="K97" s="124"/>
-      <c r="L97" s="124"/>
-      <c r="M97" s="124"/>
-      <c r="N97" s="124"/>
-      <c r="O97" s="124"/>
-      <c r="P97" s="124"/>
-      <c r="Q97" s="124"/>
-      <c r="R97" s="124"/>
-      <c r="S97" s="124"/>
-      <c r="T97" s="124"/>
-      <c r="U97" s="124"/>
-      <c r="V97" s="124"/>
-      <c r="W97" s="124"/>
-      <c r="X97" s="124"/>
+      <c r="A97" s="127"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+      <c r="H97" s="127"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="127"/>
+      <c r="L97" s="127"/>
+      <c r="M97" s="127"/>
+      <c r="N97" s="127"/>
+      <c r="O97" s="127"/>
+      <c r="P97" s="127"/>
+      <c r="Q97" s="127"/>
+      <c r="R97" s="127"/>
+      <c r="S97" s="127"/>
+      <c r="T97" s="127"/>
+      <c r="U97" s="127"/>
+      <c r="V97" s="127"/>
+      <c r="W97" s="127"/>
+      <c r="X97" s="127"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -32262,30 +32289,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="124"/>
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="124"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="124"/>
-      <c r="K105" s="124"/>
-      <c r="L105" s="124"/>
-      <c r="M105" s="124"/>
-      <c r="N105" s="124"/>
-      <c r="O105" s="124"/>
-      <c r="P105" s="124"/>
-      <c r="Q105" s="124"/>
-      <c r="R105" s="124"/>
-      <c r="S105" s="124"/>
-      <c r="T105" s="124"/>
-      <c r="U105" s="124"/>
-      <c r="V105" s="124"/>
-      <c r="W105" s="124"/>
-      <c r="X105" s="124"/>
+      <c r="A105" s="127"/>
+      <c r="B105" s="127"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="127"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="127"/>
+      <c r="K105" s="127"/>
+      <c r="L105" s="127"/>
+      <c r="M105" s="127"/>
+      <c r="N105" s="127"/>
+      <c r="O105" s="127"/>
+      <c r="P105" s="127"/>
+      <c r="Q105" s="127"/>
+      <c r="R105" s="127"/>
+      <c r="S105" s="127"/>
+      <c r="T105" s="127"/>
+      <c r="U105" s="127"/>
+      <c r="V105" s="127"/>
+      <c r="W105" s="127"/>
+      <c r="X105" s="127"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -32391,6 +32418,15 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -32404,15 +32440,6 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32421,7 +32448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView topLeftCell="H142" workbookViewId="0">
@@ -32477,31 +32504,31 @@
       <c r="W1" s="128"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -33818,29 +33845,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
       <c r="S30" s="129"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -35158,28 +35185,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="129"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
       <c r="S58" s="129"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
-      <c r="V58" s="126"/>
-      <c r="W58" s="126"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="125"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="125"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -36576,29 +36603,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="126"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-      <c r="L86" s="126"/>
-      <c r="M86" s="126"/>
-      <c r="N86" s="126"/>
-      <c r="O86" s="126"/>
-      <c r="P86" s="126"/>
-      <c r="Q86" s="126"/>
-      <c r="R86" s="126"/>
-      <c r="S86" s="126"/>
-      <c r="T86" s="126"/>
-      <c r="U86" s="126"/>
-      <c r="V86" s="126"/>
-      <c r="W86" s="126"/>
+      <c r="A86" s="125"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="125"/>
+      <c r="L86" s="125"/>
+      <c r="M86" s="125"/>
+      <c r="N86" s="125"/>
+      <c r="O86" s="125"/>
+      <c r="P86" s="125"/>
+      <c r="Q86" s="125"/>
+      <c r="R86" s="125"/>
+      <c r="S86" s="125"/>
+      <c r="T86" s="125"/>
+      <c r="U86" s="125"/>
+      <c r="V86" s="125"/>
+      <c r="W86" s="125"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -38074,29 +38101,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="126"/>
-      <c r="B114" s="126"/>
-      <c r="C114" s="126"/>
-      <c r="D114" s="126"/>
-      <c r="E114" s="126"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="I114" s="126"/>
-      <c r="J114" s="126"/>
-      <c r="K114" s="126"/>
-      <c r="L114" s="126"/>
-      <c r="M114" s="126"/>
-      <c r="N114" s="126"/>
-      <c r="O114" s="126"/>
-      <c r="P114" s="126"/>
-      <c r="Q114" s="126"/>
-      <c r="R114" s="126"/>
-      <c r="S114" s="126"/>
-      <c r="T114" s="126"/>
-      <c r="U114" s="126"/>
-      <c r="V114" s="126"/>
-      <c r="W114" s="126"/>
+      <c r="A114" s="125"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="125"/>
+      <c r="L114" s="125"/>
+      <c r="M114" s="125"/>
+      <c r="N114" s="125"/>
+      <c r="O114" s="125"/>
+      <c r="P114" s="125"/>
+      <c r="Q114" s="125"/>
+      <c r="R114" s="125"/>
+      <c r="S114" s="125"/>
+      <c r="T114" s="125"/>
+      <c r="U114" s="125"/>
+      <c r="V114" s="125"/>
+      <c r="W114" s="125"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -39568,29 +39595,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="126"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="126"/>
-      <c r="F142" s="126"/>
-      <c r="G142" s="126"/>
-      <c r="H142" s="126"/>
-      <c r="I142" s="126"/>
-      <c r="J142" s="126"/>
-      <c r="K142" s="126"/>
-      <c r="L142" s="126"/>
-      <c r="M142" s="126"/>
-      <c r="N142" s="126"/>
-      <c r="O142" s="126"/>
-      <c r="P142" s="126"/>
-      <c r="Q142" s="126"/>
-      <c r="R142" s="126"/>
-      <c r="S142" s="126"/>
-      <c r="T142" s="126"/>
-      <c r="U142" s="126"/>
-      <c r="V142" s="126"/>
-      <c r="W142" s="126"/>
+      <c r="A142" s="125"/>
+      <c r="B142" s="125"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="125"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="125"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="125"/>
+      <c r="L142" s="125"/>
+      <c r="M142" s="125"/>
+      <c r="N142" s="125"/>
+      <c r="O142" s="125"/>
+      <c r="P142" s="125"/>
+      <c r="Q142" s="125"/>
+      <c r="R142" s="125"/>
+      <c r="S142" s="125"/>
+      <c r="T142" s="125"/>
+      <c r="U142" s="125"/>
+      <c r="V142" s="125"/>
+      <c r="W142" s="125"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -41061,29 +41088,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="126"/>
-      <c r="B170" s="126"/>
-      <c r="C170" s="126"/>
-      <c r="D170" s="126"/>
-      <c r="E170" s="126"/>
-      <c r="F170" s="126"/>
-      <c r="G170" s="126"/>
-      <c r="H170" s="126"/>
-      <c r="I170" s="126"/>
-      <c r="J170" s="126"/>
-      <c r="K170" s="126"/>
-      <c r="L170" s="126"/>
-      <c r="M170" s="126"/>
-      <c r="N170" s="126"/>
-      <c r="O170" s="126"/>
-      <c r="P170" s="126"/>
-      <c r="Q170" s="126"/>
-      <c r="R170" s="126"/>
-      <c r="S170" s="126"/>
-      <c r="T170" s="126"/>
-      <c r="U170" s="126"/>
-      <c r="V170" s="126"/>
-      <c r="W170" s="126"/>
+      <c r="A170" s="125"/>
+      <c r="B170" s="125"/>
+      <c r="C170" s="125"/>
+      <c r="D170" s="125"/>
+      <c r="E170" s="125"/>
+      <c r="F170" s="125"/>
+      <c r="G170" s="125"/>
+      <c r="H170" s="125"/>
+      <c r="I170" s="125"/>
+      <c r="J170" s="125"/>
+      <c r="K170" s="125"/>
+      <c r="L170" s="125"/>
+      <c r="M170" s="125"/>
+      <c r="N170" s="125"/>
+      <c r="O170" s="125"/>
+      <c r="P170" s="125"/>
+      <c r="Q170" s="125"/>
+      <c r="R170" s="125"/>
+      <c r="S170" s="125"/>
+      <c r="T170" s="125"/>
+      <c r="U170" s="125"/>
+      <c r="V170" s="125"/>
+      <c r="W170" s="125"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -42555,29 +42582,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="126"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="126"/>
-      <c r="D198" s="126"/>
-      <c r="E198" s="126"/>
-      <c r="F198" s="126"/>
-      <c r="G198" s="126"/>
-      <c r="H198" s="126"/>
-      <c r="I198" s="126"/>
-      <c r="J198" s="126"/>
-      <c r="K198" s="126"/>
-      <c r="L198" s="126"/>
-      <c r="M198" s="126"/>
-      <c r="N198" s="126"/>
-      <c r="O198" s="126"/>
-      <c r="P198" s="126"/>
-      <c r="Q198" s="126"/>
-      <c r="R198" s="126"/>
-      <c r="S198" s="126"/>
-      <c r="T198" s="126"/>
-      <c r="U198" s="126"/>
-      <c r="V198" s="126"/>
-      <c r="W198" s="126"/>
+      <c r="A198" s="125"/>
+      <c r="B198" s="125"/>
+      <c r="C198" s="125"/>
+      <c r="D198" s="125"/>
+      <c r="E198" s="125"/>
+      <c r="F198" s="125"/>
+      <c r="G198" s="125"/>
+      <c r="H198" s="125"/>
+      <c r="I198" s="125"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="125"/>
+      <c r="L198" s="125"/>
+      <c r="M198" s="125"/>
+      <c r="N198" s="125"/>
+      <c r="O198" s="125"/>
+      <c r="P198" s="125"/>
+      <c r="Q198" s="125"/>
+      <c r="R198" s="125"/>
+      <c r="S198" s="125"/>
+      <c r="T198" s="125"/>
+      <c r="U198" s="125"/>
+      <c r="V198" s="125"/>
+      <c r="W198" s="125"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -44069,6 +44096,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="G60:G85"/>
+    <mergeCell ref="G172:G195"/>
+    <mergeCell ref="A200:A225"/>
+    <mergeCell ref="G200:G223"/>
+    <mergeCell ref="A198:W198"/>
+    <mergeCell ref="A170:W170"/>
+    <mergeCell ref="M200:M225"/>
+    <mergeCell ref="S200:S225"/>
+    <mergeCell ref="S172:S197"/>
+    <mergeCell ref="S60:S85"/>
+    <mergeCell ref="M116:M141"/>
+    <mergeCell ref="M144:M169"/>
+    <mergeCell ref="M172:M197"/>
+    <mergeCell ref="A114:W114"/>
+    <mergeCell ref="G88:G111"/>
+    <mergeCell ref="A88:A113"/>
     <mergeCell ref="M60:M85"/>
     <mergeCell ref="S144:S169"/>
     <mergeCell ref="A1:W1"/>
@@ -44085,31 +44137,6 @@
     <mergeCell ref="G32:G57"/>
     <mergeCell ref="M32:M57"/>
     <mergeCell ref="S32:S57"/>
-    <mergeCell ref="G60:G85"/>
-    <mergeCell ref="G172:G195"/>
-    <mergeCell ref="A200:A225"/>
-    <mergeCell ref="G200:G223"/>
-    <mergeCell ref="A198:W198"/>
-    <mergeCell ref="A170:W170"/>
-    <mergeCell ref="M200:M225"/>
-    <mergeCell ref="S200:S225"/>
-    <mergeCell ref="S172:S197"/>
-    <mergeCell ref="S60:S85"/>
-    <mergeCell ref="M116:M141"/>
-    <mergeCell ref="M144:M169"/>
-    <mergeCell ref="M172:M197"/>
-    <mergeCell ref="A114:W114"/>
-    <mergeCell ref="G88:G111"/>
-    <mergeCell ref="A88:A113"/>
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44118,7 +44145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44325,7 +44352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45360,6 +45387,11 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -45367,11 +45399,6 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
+++ b/project.file/2-数据库设计/LSW_01_数据库表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户关系逻辑图" sheetId="3" r:id="rId1"/>
@@ -4657,22 +4657,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>增加一个零件参数别名的输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通三类，EMC还是六类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>算法六：也需要增加现场表及字段选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个零件参数别名的输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通三类，EMC还是六类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -5581,17 +5581,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5662,6 +5662,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5669,9 +5672,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5695,8 +5695,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5704,29 +5713,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5740,8 +5728,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5768,12 +5768,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5781,6 +5775,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5809,57 +5860,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5867,6 +5867,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -23103,7 +23169,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -23401,7 +23467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23736,7 +23802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA77"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -23764,134 +23830,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="18" customHeight="1">
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="146" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="3:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="139" t="s">
         <v>537</v>
       </c>
-      <c r="I4" s="137"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="137"/>
+      <c r="I5" s="140"/>
     </row>
     <row r="6" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="137" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="138"/>
     </row>
     <row r="7" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="135" t="s">
         <v>404</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="L7" s="136" t="s">
+      <c r="I7" s="136"/>
+      <c r="L7" s="139" t="s">
         <v>432</v>
       </c>
-      <c r="M7" s="137"/>
+      <c r="M7" s="140"/>
     </row>
     <row r="8" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="L8" s="136" t="s">
+      <c r="F8" s="140"/>
+      <c r="L8" s="139" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="137"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="139" t="s">
         <v>388</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="L9" s="138" t="s">
+      <c r="F9" s="140"/>
+      <c r="L9" s="137" t="s">
         <v>434</v>
       </c>
-      <c r="M9" s="139"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="3:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="137" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="L10" s="140" t="s">
+      <c r="F10" s="138"/>
+      <c r="L10" s="135" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="141"/>
+      <c r="M10" s="136"/>
     </row>
     <row r="11" spans="3:13" ht="18" thickTop="1" thickBot="1">
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="135" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="141"/>
-      <c r="I11" s="136" t="s">
+      <c r="F11" s="136"/>
+      <c r="I11" s="139" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="137"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="139" t="s">
         <v>503</v>
       </c>
-      <c r="J12" s="137"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
-      <c r="I13" s="138" t="s">
+      <c r="I13" s="137" t="s">
         <v>505</v>
       </c>
-      <c r="J13" s="139"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="3:13" ht="18" thickTop="1" thickBot="1">
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
-      <c r="I14" s="140" t="s">
+      <c r="I14" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="J14" s="141"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="3:13" ht="17.25" thickTop="1">
       <c r="E15" s="51"/>
@@ -23908,709 +23974,743 @@
     <row r="17" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="139" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="137"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="51"/>
     </row>
     <row r="18" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
-      <c r="H18" s="136" t="s">
+      <c r="H18" s="139" t="s">
         <v>499</v>
       </c>
-      <c r="I18" s="137"/>
+      <c r="I18" s="140"/>
     </row>
     <row r="19" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
-      <c r="H19" s="138" t="s">
+      <c r="H19" s="137" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="139"/>
+      <c r="I19" s="138"/>
     </row>
     <row r="20" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
-      <c r="H20" s="140" t="s">
+      <c r="H20" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="I20" s="141"/>
+      <c r="I20" s="136"/>
     </row>
     <row r="21" spans="2:27" ht="18" thickTop="1" thickBot="1">
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="135" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="141"/>
+      <c r="I21" s="136"/>
     </row>
     <row r="22" spans="2:27" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="W22" s="142" t="s">
+      <c r="W22" s="147" t="s">
         <v>431</v>
       </c>
-      <c r="X22" s="143"/>
-      <c r="Z22" s="146" t="s">
+      <c r="X22" s="148"/>
+      <c r="Z22" s="142" t="s">
         <v>536</v>
       </c>
-      <c r="AA22" s="147"/>
+      <c r="AA22" s="143"/>
     </row>
     <row r="23" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="139" t="s">
         <v>368</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="H23" s="136" t="s">
+      <c r="C23" s="141"/>
+      <c r="H23" s="139" t="s">
         <v>377</v>
       </c>
-      <c r="I23" s="137"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="145"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="149"/>
+      <c r="I23" s="140"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="150"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="145"/>
     </row>
     <row r="24" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="139" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="H24" s="136" t="s">
+      <c r="C24" s="140"/>
+      <c r="H24" s="139" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="137"/>
+      <c r="I24" s="140"/>
     </row>
     <row r="25" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="H25" s="140" t="s">
+      <c r="C25" s="138"/>
+      <c r="H25" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="141"/>
-      <c r="N25" s="136" t="s">
+      <c r="I25" s="136"/>
+      <c r="N25" s="139" t="s">
         <v>365</v>
       </c>
-      <c r="O25" s="137"/>
-      <c r="T25" s="136" t="s">
+      <c r="O25" s="140"/>
+      <c r="T25" s="139" t="s">
         <v>507</v>
       </c>
-      <c r="U25" s="137"/>
-      <c r="W25" s="136" t="s">
+      <c r="U25" s="140"/>
+      <c r="W25" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="X25" s="137"/>
+      <c r="X25" s="140"/>
     </row>
     <row r="26" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="135" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="H26" s="138" t="s">
+      <c r="C26" s="136"/>
+      <c r="H26" s="137" t="s">
         <v>383</v>
       </c>
-      <c r="I26" s="139"/>
-      <c r="N26" s="136" t="s">
+      <c r="I26" s="138"/>
+      <c r="N26" s="139" t="s">
         <v>386</v>
       </c>
-      <c r="O26" s="137"/>
-      <c r="T26" s="136" t="s">
+      <c r="O26" s="140"/>
+      <c r="T26" s="139" t="s">
         <v>453</v>
       </c>
-      <c r="U26" s="137"/>
-      <c r="W26" s="136" t="s">
+      <c r="U26" s="140"/>
+      <c r="W26" s="139" t="s">
         <v>396</v>
       </c>
-      <c r="X26" s="137"/>
+      <c r="X26" s="140"/>
     </row>
     <row r="27" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="135" t="s">
         <v>372</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="H27" s="140" t="s">
+      <c r="C27" s="136"/>
+      <c r="H27" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="I27" s="141"/>
-      <c r="N27" s="138" t="s">
+      <c r="I27" s="136"/>
+      <c r="N27" s="137" t="s">
         <v>401</v>
       </c>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="138" t="s">
         <v>382</v>
       </c>
-      <c r="T27" s="138" t="s">
+      <c r="T27" s="137" t="s">
         <v>512</v>
       </c>
-      <c r="U27" s="139" t="s">
+      <c r="U27" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W27" s="138" t="s">
+      <c r="W27" s="137" t="s">
         <v>397</v>
       </c>
-      <c r="X27" s="139" t="s">
+      <c r="X27" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="135" t="s">
         <v>366</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="N28" s="140" t="s">
+      <c r="C28" s="136"/>
+      <c r="N28" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="O28" s="141" t="s">
+      <c r="O28" s="136" t="s">
         <v>348</v>
       </c>
-      <c r="T28" s="140" t="s">
+      <c r="T28" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U28" s="141" t="s">
+      <c r="U28" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="135" t="s">
         <v>521</v>
       </c>
-      <c r="X28" s="141" t="s">
+      <c r="X28" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:27" ht="15" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="30" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K30" s="136" t="s">
+      <c r="K30" s="139" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="137"/>
+      <c r="L30" s="140"/>
     </row>
     <row r="31" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K31" s="136" t="s">
+      <c r="K31" s="139" t="s">
         <v>393</v>
       </c>
-      <c r="L31" s="137"/>
-      <c r="N31" s="136" t="s">
+      <c r="L31" s="140"/>
+      <c r="N31" s="139" t="s">
         <v>390</v>
       </c>
-      <c r="O31" s="137"/>
-      <c r="T31" s="136" t="s">
+      <c r="O31" s="140"/>
+      <c r="T31" s="139" t="s">
         <v>464</v>
       </c>
-      <c r="U31" s="137"/>
-      <c r="W31" s="136" t="s">
+      <c r="U31" s="140"/>
+      <c r="W31" s="139" t="s">
         <v>309</v>
       </c>
-      <c r="X31" s="137"/>
+      <c r="X31" s="140"/>
     </row>
     <row r="32" spans="2:27" ht="18" thickTop="1" thickBot="1">
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="137" t="s">
         <v>400</v>
       </c>
-      <c r="L32" s="139" t="s">
+      <c r="L32" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="136" t="s">
+      <c r="N32" s="139" t="s">
         <v>391</v>
       </c>
-      <c r="O32" s="137"/>
-      <c r="T32" s="136" t="s">
+      <c r="O32" s="140"/>
+      <c r="T32" s="139" t="s">
         <v>506</v>
       </c>
-      <c r="U32" s="137"/>
-      <c r="W32" s="136" t="s">
+      <c r="U32" s="140"/>
+      <c r="W32" s="139" t="s">
         <v>407</v>
       </c>
-      <c r="X32" s="137"/>
+      <c r="X32" s="140"/>
     </row>
     <row r="33" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="K33" s="140" t="s">
+      <c r="K33" s="135" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="141" t="s">
+      <c r="L33" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="138" t="s">
+      <c r="N33" s="137" t="s">
         <v>402</v>
       </c>
-      <c r="O33" s="139" t="s">
+      <c r="O33" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="T33" s="138" t="s">
+      <c r="T33" s="137" t="s">
         <v>513</v>
       </c>
-      <c r="U33" s="139" t="s">
+      <c r="U33" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W33" s="138" t="s">
+      <c r="W33" s="137" t="s">
         <v>408</v>
       </c>
-      <c r="X33" s="139" t="s">
+      <c r="X33" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="N34" s="140" t="s">
+      <c r="N34" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="O34" s="141" t="s">
+      <c r="O34" s="136" t="s">
         <v>380</v>
       </c>
-      <c r="T34" s="140" t="s">
+      <c r="T34" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U34" s="141" t="s">
+      <c r="U34" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W34" s="140" t="s">
+      <c r="W34" s="135" t="s">
         <v>522</v>
       </c>
-      <c r="X34" s="141" t="s">
+      <c r="X34" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E35" s="136" t="s">
+      <c r="E35" s="139" t="s">
         <v>384</v>
       </c>
-      <c r="F35" s="137"/>
+      <c r="F35" s="140"/>
     </row>
     <row r="36" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E36" s="136" t="s">
+      <c r="E36" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="150"/>
+      <c r="F36" s="141"/>
     </row>
     <row r="37" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="137" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="J37" s="136" t="s">
+      <c r="F37" s="138"/>
+      <c r="J37" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="K37" s="137"/>
-      <c r="T37" s="136" t="s">
+      <c r="K37" s="140"/>
+      <c r="T37" s="139" t="s">
         <v>508</v>
       </c>
-      <c r="U37" s="137"/>
-      <c r="W37" s="136" t="s">
+      <c r="U37" s="140"/>
+      <c r="W37" s="139" t="s">
         <v>410</v>
       </c>
-      <c r="X37" s="137"/>
+      <c r="X37" s="140"/>
     </row>
     <row r="38" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J38" s="136" t="s">
+      <c r="J38" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="K38" s="137"/>
-      <c r="Q38" s="136" t="s">
+      <c r="K38" s="140"/>
+      <c r="Q38" s="139" t="s">
         <v>394</v>
       </c>
-      <c r="R38" s="137"/>
-      <c r="T38" s="136" t="s">
+      <c r="R38" s="140"/>
+      <c r="T38" s="139" t="s">
         <v>509</v>
       </c>
-      <c r="U38" s="137"/>
-      <c r="W38" s="136" t="s">
+      <c r="U38" s="140"/>
+      <c r="W38" s="139" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="137"/>
+      <c r="X38" s="140"/>
     </row>
     <row r="39" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J39" s="138" t="s">
+      <c r="J39" s="137" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="139" t="s">
+      <c r="K39" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="136" t="s">
+      <c r="Q39" s="139" t="s">
         <v>395</v>
       </c>
-      <c r="R39" s="137"/>
-      <c r="T39" s="138" t="s">
+      <c r="R39" s="140"/>
+      <c r="T39" s="137" t="s">
         <v>514</v>
       </c>
-      <c r="U39" s="139" t="s">
+      <c r="U39" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W39" s="138" t="s">
+      <c r="W39" s="137" t="s">
         <v>411</v>
       </c>
-      <c r="X39" s="139" t="s">
+      <c r="X39" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="J40" s="140" t="s">
+      <c r="J40" s="135" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="141" t="s">
+      <c r="K40" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="138" t="s">
+      <c r="Q40" s="137" t="s">
         <v>403</v>
       </c>
-      <c r="R40" s="139" t="s">
+      <c r="R40" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="140" t="s">
+      <c r="T40" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U40" s="141" t="s">
+      <c r="U40" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="140" t="s">
+      <c r="W40" s="135" t="s">
         <v>523</v>
       </c>
-      <c r="X40" s="141" t="s">
+      <c r="X40" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="Q41" s="140" t="s">
+      <c r="Q41" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="R41" s="141" t="s">
+      <c r="R41" s="136" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="42" spans="5:24" ht="15" thickTop="1" thickBot="1"/>
     <row r="43" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T43" s="136" t="s">
+      <c r="T43" s="139" t="s">
         <v>510</v>
       </c>
-      <c r="U43" s="137"/>
-      <c r="W43" s="136" t="s">
+      <c r="U43" s="140"/>
+      <c r="W43" s="139" t="s">
         <v>326</v>
       </c>
-      <c r="X43" s="137"/>
+      <c r="X43" s="140"/>
     </row>
     <row r="44" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T44" s="136" t="s">
+      <c r="T44" s="139" t="s">
         <v>511</v>
       </c>
-      <c r="U44" s="137"/>
-      <c r="W44" s="136" t="s">
+      <c r="U44" s="140"/>
+      <c r="W44" s="139" t="s">
         <v>412</v>
       </c>
-      <c r="X44" s="137"/>
+      <c r="X44" s="140"/>
     </row>
     <row r="45" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T45" s="138" t="s">
+      <c r="T45" s="137" t="s">
         <v>524</v>
       </c>
-      <c r="U45" s="139" t="s">
+      <c r="U45" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W45" s="138" t="s">
+      <c r="W45" s="137" t="s">
         <v>413</v>
       </c>
-      <c r="X45" s="139" t="s">
+      <c r="X45" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="5:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T46" s="140" t="s">
+      <c r="T46" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U46" s="141" t="s">
+      <c r="U46" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W46" s="140" t="s">
+      <c r="W46" s="135" t="s">
         <v>525</v>
       </c>
-      <c r="X46" s="141" t="s">
+      <c r="X46" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="5:24" ht="14.25" thickTop="1"/>
     <row r="48" spans="5:24" ht="14.25" thickBot="1"/>
     <row r="49" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T49" s="136" t="s">
+      <c r="T49" s="139" t="s">
         <v>475</v>
       </c>
-      <c r="U49" s="137"/>
-      <c r="W49" s="136" t="s">
+      <c r="U49" s="140"/>
+      <c r="W49" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="X49" s="137"/>
+      <c r="X49" s="140"/>
     </row>
     <row r="50" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T50" s="136" t="s">
+      <c r="T50" s="139" t="s">
         <v>478</v>
       </c>
-      <c r="U50" s="137"/>
-      <c r="W50" s="136" t="s">
+      <c r="U50" s="140"/>
+      <c r="W50" s="139" t="s">
         <v>414</v>
       </c>
-      <c r="X50" s="137"/>
+      <c r="X50" s="140"/>
     </row>
     <row r="51" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T51" s="138" t="s">
+      <c r="T51" s="137" t="s">
         <v>526</v>
       </c>
-      <c r="U51" s="139" t="s">
+      <c r="U51" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W51" s="138" t="s">
+      <c r="W51" s="137" t="s">
         <v>415</v>
       </c>
-      <c r="X51" s="139" t="s">
+      <c r="X51" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T52" s="140" t="s">
+      <c r="T52" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U52" s="141" t="s">
+      <c r="U52" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W52" s="140" t="s">
+      <c r="W52" s="135" t="s">
         <v>527</v>
       </c>
-      <c r="X52" s="141" t="s">
+      <c r="X52" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="54" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="55" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T55" s="136" t="s">
+      <c r="T55" s="139" t="s">
         <v>479</v>
       </c>
-      <c r="U55" s="137"/>
-      <c r="W55" s="136" t="s">
+      <c r="U55" s="140"/>
+      <c r="W55" s="139" t="s">
         <v>417</v>
       </c>
-      <c r="X55" s="137"/>
+      <c r="X55" s="140"/>
     </row>
     <row r="56" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T56" s="136" t="s">
+      <c r="T56" s="139" t="s">
         <v>515</v>
       </c>
-      <c r="U56" s="137"/>
-      <c r="W56" s="136" t="s">
+      <c r="U56" s="140"/>
+      <c r="W56" s="139" t="s">
         <v>416</v>
       </c>
-      <c r="X56" s="137"/>
+      <c r="X56" s="140"/>
     </row>
     <row r="57" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T57" s="138" t="s">
+      <c r="T57" s="137" t="s">
         <v>528</v>
       </c>
-      <c r="U57" s="139" t="s">
+      <c r="U57" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="138" t="s">
+      <c r="W57" s="137" t="s">
         <v>418</v>
       </c>
-      <c r="X57" s="139" t="s">
+      <c r="X57" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="58" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T58" s="140" t="s">
+      <c r="T58" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U58" s="141" t="s">
+      <c r="U58" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W58" s="140" t="s">
+      <c r="W58" s="135" t="s">
         <v>529</v>
       </c>
-      <c r="X58" s="141" t="s">
+      <c r="X58" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="60" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="61" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T61" s="136" t="s">
+      <c r="T61" s="139" t="s">
         <v>516</v>
       </c>
-      <c r="U61" s="137"/>
-      <c r="W61" s="136" t="s">
+      <c r="U61" s="140"/>
+      <c r="W61" s="139" t="s">
         <v>420</v>
       </c>
-      <c r="X61" s="137"/>
+      <c r="X61" s="140"/>
     </row>
     <row r="62" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T62" s="136" t="s">
+      <c r="T62" s="139" t="s">
         <v>517</v>
       </c>
-      <c r="U62" s="137"/>
-      <c r="W62" s="136" t="s">
+      <c r="U62" s="140"/>
+      <c r="W62" s="139" t="s">
         <v>419</v>
       </c>
-      <c r="X62" s="137"/>
+      <c r="X62" s="140"/>
     </row>
     <row r="63" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T63" s="138" t="s">
+      <c r="T63" s="137" t="s">
         <v>530</v>
       </c>
-      <c r="U63" s="139" t="s">
+      <c r="U63" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W63" s="138" t="s">
+      <c r="W63" s="137" t="s">
         <v>421</v>
       </c>
-      <c r="X63" s="139" t="s">
+      <c r="X63" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T64" s="140" t="s">
+      <c r="T64" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U64" s="141" t="s">
+      <c r="U64" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W64" s="140" t="s">
+      <c r="W64" s="135" t="s">
         <v>531</v>
       </c>
-      <c r="X64" s="141" t="s">
+      <c r="X64" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="66" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="67" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T67" s="136" t="s">
+      <c r="T67" s="139" t="s">
         <v>484</v>
       </c>
-      <c r="U67" s="137"/>
-      <c r="W67" s="136" t="s">
+      <c r="U67" s="140"/>
+      <c r="W67" s="139" t="s">
         <v>423</v>
       </c>
-      <c r="X67" s="137"/>
+      <c r="X67" s="140"/>
     </row>
     <row r="68" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T68" s="136" t="s">
+      <c r="T68" s="139" t="s">
         <v>483</v>
       </c>
-      <c r="U68" s="137"/>
-      <c r="W68" s="136" t="s">
+      <c r="U68" s="140"/>
+      <c r="W68" s="139" t="s">
         <v>422</v>
       </c>
-      <c r="X68" s="137"/>
+      <c r="X68" s="140"/>
     </row>
     <row r="69" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T69" s="138" t="s">
+      <c r="T69" s="137" t="s">
         <v>532</v>
       </c>
-      <c r="U69" s="139" t="s">
+      <c r="U69" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W69" s="138" t="s">
+      <c r="W69" s="137" t="s">
         <v>424</v>
       </c>
-      <c r="X69" s="139" t="s">
+      <c r="X69" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T70" s="140" t="s">
+      <c r="T70" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U70" s="141" t="s">
+      <c r="U70" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W70" s="140" t="s">
+      <c r="W70" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="X70" s="141" t="s">
+      <c r="X70" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="20:24" ht="14.25" thickTop="1"/>
     <row r="72" spans="20:24" ht="14.25" thickBot="1"/>
     <row r="73" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T73" s="136" t="s">
+      <c r="T73" s="139" t="s">
         <v>518</v>
       </c>
-      <c r="U73" s="137"/>
-      <c r="W73" s="136" t="s">
+      <c r="U73" s="140"/>
+      <c r="W73" s="139" t="s">
         <v>426</v>
       </c>
-      <c r="X73" s="137"/>
+      <c r="X73" s="140"/>
     </row>
     <row r="74" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T74" s="136" t="s">
+      <c r="T74" s="139" t="s">
         <v>519</v>
       </c>
-      <c r="U74" s="137"/>
-      <c r="W74" s="136" t="s">
+      <c r="U74" s="140"/>
+      <c r="W74" s="139" t="s">
         <v>425</v>
       </c>
-      <c r="X74" s="137"/>
+      <c r="X74" s="140"/>
     </row>
     <row r="75" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T75" s="138" t="s">
+      <c r="T75" s="137" t="s">
         <v>520</v>
       </c>
-      <c r="U75" s="139" t="s">
+      <c r="U75" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="W75" s="138" t="s">
+      <c r="W75" s="137" t="s">
         <v>427</v>
       </c>
-      <c r="X75" s="139" t="s">
+      <c r="X75" s="138" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="20:24" ht="18" thickTop="1" thickBot="1">
-      <c r="T76" s="140" t="s">
+      <c r="T76" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="U76" s="141" t="s">
+      <c r="U76" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="W76" s="140" t="s">
+      <c r="W76" s="135" t="s">
         <v>534</v>
       </c>
-      <c r="X76" s="141" t="s">
+      <c r="X76" s="136" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="20:24" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C1:L3"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
@@ -24635,76 +24735,42 @@
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="C1:L3"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="W67:X67"/>
-    <mergeCell ref="W68:X68"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="W70:X70"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T74:U74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24713,7 +24779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -24939,7 +25005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24978,11 +25044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="Q355" sqref="Q355"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24996,381 +25062,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="164" t="s">
         <v>1080</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="186"/>
-      <c r="T1" s="187"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="170"/>
       <c r="U1" s="88" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="P2" s="159" t="s">
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="P2" s="162" t="s">
         <v>1013</v>
       </c>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161" t="s">
+      <c r="Q2" s="163"/>
+      <c r="R2" s="159" t="s">
         <v>1014</v>
       </c>
-      <c r="S2" s="162"/>
-      <c r="T2" s="163"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
       <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="P3" s="159" t="s">
+      <c r="A3" s="164"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="P3" s="162" t="s">
         <v>1019</v>
       </c>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161" t="s">
+      <c r="Q3" s="163"/>
+      <c r="R3" s="159" t="s">
         <v>1014</v>
       </c>
-      <c r="S3" s="162"/>
-      <c r="T3" s="163"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
       <c r="U3" s="72"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="P4" s="159" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="P4" s="162" t="s">
         <v>1020</v>
       </c>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="161" t="s">
+      <c r="Q4" s="163"/>
+      <c r="R4" s="159" t="s">
         <v>1014</v>
       </c>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="161"/>
       <c r="U4" s="72"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="189"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="P5" s="159" t="s">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="P5" s="162" t="s">
         <v>1021</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="161" t="s">
+      <c r="Q5" s="163"/>
+      <c r="R5" s="159" t="s">
         <v>1014</v>
       </c>
-      <c r="S5" s="162"/>
-      <c r="T5" s="163"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="161"/>
       <c r="U5" s="72"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="189"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="P6" s="159" t="s">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="P6" s="162" t="s">
         <v>1022</v>
       </c>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="161" t="s">
+      <c r="Q6" s="163"/>
+      <c r="R6" s="159" t="s">
         <v>1014</v>
       </c>
-      <c r="S6" s="162"/>
-      <c r="T6" s="163"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="161"/>
       <c r="U6" s="72"/>
     </row>
     <row r="7" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A7" s="189"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="P7" s="175" t="s">
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="P7" s="171" t="s">
         <v>1042</v>
       </c>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177" t="s">
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173" t="s">
         <v>1014</v>
       </c>
-      <c r="S7" s="178"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="180" t="s">
+      <c r="S7" s="174"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="176" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="P8" s="175" t="s">
+      <c r="P8" s="171" t="s">
         <v>1023</v>
       </c>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="177" t="s">
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173" t="s">
         <v>1014</v>
       </c>
-      <c r="S8" s="178"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="184"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="177"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="P9" s="175" t="s">
+      <c r="P9" s="171" t="s">
         <v>1024</v>
       </c>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177" t="s">
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173" t="s">
         <v>1015</v>
       </c>
-      <c r="S9" s="178"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="181"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="178"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="165" t="s">
         <v>1058</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="P10" s="159" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="P10" s="162" t="s">
         <v>1025</v>
       </c>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="161" t="s">
+      <c r="Q10" s="163"/>
+      <c r="R10" s="159" t="s">
         <v>1016</v>
       </c>
-      <c r="S10" s="162"/>
-      <c r="T10" s="163"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="161"/>
       <c r="U10" s="87" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="P11" s="159" t="s">
+      <c r="P11" s="162" t="s">
         <v>1026</v>
       </c>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="173" t="s">
+      <c r="Q11" s="163"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="179" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="162" t="s">
         <v>1027</v>
       </c>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="174"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="180"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="P13" s="159" t="s">
+      <c r="P13" s="162" t="s">
         <v>1029</v>
       </c>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="173" t="s">
+      <c r="Q13" s="163"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="179" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="P14" s="159" t="s">
+      <c r="P14" s="162" t="s">
         <v>1030</v>
       </c>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="174"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="180"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="162" t="s">
         <v>1032</v>
       </c>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="173" t="s">
+      <c r="Q15" s="163"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="161"/>
+      <c r="U15" s="179" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="P16" s="159"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="174"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="161"/>
+      <c r="U16" s="180"/>
     </row>
     <row r="17" spans="16:21">
-      <c r="P17" s="182" t="s">
+      <c r="P17" s="167" t="s">
         <v>1035</v>
       </c>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="173" t="s">
+      <c r="Q17" s="168"/>
+      <c r="R17" s="159"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="179" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="18" spans="16:21">
-      <c r="P18" s="159" t="s">
+      <c r="P18" s="162" t="s">
         <v>1078</v>
       </c>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="174"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="180"/>
     </row>
     <row r="19" spans="16:21">
-      <c r="P19" s="182" t="s">
+      <c r="P19" s="167" t="s">
         <v>1037</v>
       </c>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="163"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="161"/>
       <c r="U19" s="88" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="20" spans="16:21">
-      <c r="P20" s="159" t="s">
+      <c r="P20" s="162" t="s">
         <v>1039</v>
       </c>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="173" t="s">
+      <c r="Q20" s="163"/>
+      <c r="R20" s="159"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="179" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="21" spans="16:21">
-      <c r="P21" s="159" t="s">
+      <c r="P21" s="162" t="s">
         <v>1079</v>
       </c>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="174"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="180"/>
     </row>
     <row r="22" spans="16:21">
-      <c r="P22" s="175" t="s">
+      <c r="P22" s="171" t="s">
         <v>1053</v>
       </c>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="177" t="s">
+      <c r="Q22" s="172"/>
+      <c r="R22" s="173" t="s">
         <v>1056</v>
       </c>
-      <c r="S22" s="178"/>
-      <c r="T22" s="179"/>
-      <c r="U22" s="180" t="s">
+      <c r="S22" s="174"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="176" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="23" spans="16:21">
-      <c r="P23" s="175" t="s">
+      <c r="P23" s="171" t="s">
         <v>1054</v>
       </c>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="177" t="s">
+      <c r="Q23" s="172"/>
+      <c r="R23" s="173" t="s">
         <v>1055</v>
       </c>
-      <c r="S23" s="178"/>
-      <c r="T23" s="179"/>
-      <c r="U23" s="181"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="178"/>
     </row>
     <row r="24" spans="16:21">
-      <c r="P24" s="159" t="s">
+      <c r="P24" s="162" t="s">
         <v>1017</v>
       </c>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="161" t="s">
+      <c r="Q24" s="163"/>
+      <c r="R24" s="159" t="s">
         <v>1018</v>
       </c>
-      <c r="S24" s="162"/>
-      <c r="T24" s="163"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="161"/>
       <c r="U24" s="72"/>
     </row>
     <row r="27" spans="16:21" ht="14.25" thickBot="1">
@@ -25385,12 +25451,12 @@
       <c r="Q28" s="91" t="s">
         <v>1045</v>
       </c>
-      <c r="R28" s="164" t="s">
+      <c r="R28" s="181" t="s">
         <v>1077</v>
       </c>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="166"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="183"/>
     </row>
     <row r="29" spans="16:21" ht="14.25" thickBot="1">
       <c r="P29" s="90">
@@ -25399,10 +25465,10 @@
       <c r="Q29" s="92" t="s">
         <v>1046</v>
       </c>
-      <c r="R29" s="167"/>
-      <c r="S29" s="168"/>
-      <c r="T29" s="168"/>
-      <c r="U29" s="169"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+      <c r="U29" s="186"/>
     </row>
     <row r="30" spans="16:21" ht="14.25" thickBot="1">
       <c r="P30" s="90">
@@ -25411,10 +25477,10 @@
       <c r="Q30" s="92" t="s">
         <v>1047</v>
       </c>
-      <c r="R30" s="167"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="169"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="186"/>
     </row>
     <row r="31" spans="16:21" ht="14.25" thickBot="1">
       <c r="P31" s="90">
@@ -25423,10 +25489,10 @@
       <c r="Q31" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="R31" s="167"/>
-      <c r="S31" s="168"/>
-      <c r="T31" s="168"/>
-      <c r="U31" s="169"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+      <c r="U31" s="186"/>
     </row>
     <row r="32" spans="16:21" ht="14.25" thickBot="1">
       <c r="P32" s="90">
@@ -25435,10 +25501,10 @@
       <c r="Q32" s="93" t="s">
         <v>1049</v>
       </c>
-      <c r="R32" s="167"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="169"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="185"/>
+      <c r="U32" s="186"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" thickBot="1">
       <c r="P33" s="90">
@@ -25447,10 +25513,10 @@
       <c r="Q33" s="93" t="s">
         <v>1050</v>
       </c>
-      <c r="R33" s="167"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="169"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="185"/>
+      <c r="U33" s="186"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" thickBot="1">
       <c r="P34" s="90">
@@ -25459,97 +25525,118 @@
       <c r="Q34" s="93" t="s">
         <v>1051</v>
       </c>
-      <c r="R34" s="170"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="171"/>
-      <c r="U34" s="172"/>
+      <c r="R34" s="187"/>
+      <c r="S34" s="188"/>
+      <c r="T34" s="188"/>
+      <c r="U34" s="189"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="165" t="s">
         <v>1059</v>
       </c>
-      <c r="B45" s="185"/>
-      <c r="C45" s="185"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="185" t="s">
+      <c r="A87" s="165" t="s">
         <v>1061</v>
       </c>
-      <c r="B87" s="185"/>
-      <c r="C87" s="185"/>
+      <c r="B87" s="165"/>
+      <c r="C87" s="165"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="185" t="s">
+      <c r="A135" s="165" t="s">
         <v>1063</v>
       </c>
-      <c r="B135" s="185"/>
-      <c r="C135" s="185"/>
+      <c r="B135" s="165"/>
+      <c r="C135" s="165"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="185" t="s">
+      <c r="A179" s="165" t="s">
         <v>1064</v>
       </c>
-      <c r="B179" s="185"/>
-      <c r="C179" s="185"/>
+      <c r="B179" s="165"/>
+      <c r="C179" s="165"/>
     </row>
     <row r="198" spans="17:17">
       <c r="Q198" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="185" t="s">
+      <c r="A226" s="165" t="s">
         <v>1066</v>
       </c>
-      <c r="B226" s="185"/>
-      <c r="C226" s="185"/>
-      <c r="D226" s="188" t="s">
+      <c r="B226" s="165"/>
+      <c r="C226" s="165"/>
+      <c r="D226" s="166" t="s">
         <v>1067</v>
       </c>
-      <c r="E226" s="188"/>
-      <c r="F226" s="188"/>
-      <c r="G226" s="188"/>
-      <c r="H226" s="188"/>
-      <c r="I226" s="188"/>
-      <c r="J226" s="188"/>
+      <c r="E226" s="166"/>
+      <c r="F226" s="166"/>
+      <c r="G226" s="166"/>
+      <c r="H226" s="166"/>
+      <c r="I226" s="166"/>
+      <c r="J226" s="166"/>
     </row>
     <row r="244" spans="17:17">
       <c r="Q244" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="185" t="s">
+      <c r="A260" s="165" t="s">
         <v>1068</v>
       </c>
-      <c r="B260" s="185"/>
-      <c r="C260" s="185"/>
+      <c r="B260" s="165"/>
+      <c r="C260" s="165"/>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="185" t="s">
+      <c r="A307" s="165" t="s">
         <v>1069</v>
       </c>
-      <c r="B307" s="185"/>
-      <c r="C307" s="185"/>
+      <c r="B307" s="165"/>
+      <c r="C307" s="165"/>
     </row>
     <row r="318" spans="1:17">
       <c r="Q318" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="A1:M7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="D226:J226"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R28:U34"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="A260:C260"/>
     <mergeCell ref="A307:C307"/>
     <mergeCell ref="P1:T1"/>
@@ -25566,44 +25653,23 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="D226:J226"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="A1:M7"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:T9"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R10:T10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R28:U34"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:T23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25613,7 +25679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -25646,7 +25712,7 @@
       <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -25661,7 +25727,7 @@
       <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="16.5">
-      <c r="A3" s="100"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="82" t="s">
         <v>746</v>
       </c>
@@ -25674,7 +25740,7 @@
       <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="16.5">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>763</v>
       </c>
       <c r="B4" s="82" t="s">
@@ -25751,7 +25817,7 @@
       <c r="D9" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="100" t="s">
         <v>978</v>
       </c>
     </row>
@@ -25766,7 +25832,7 @@
       <c r="D10" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="100"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="99"/>
@@ -25779,7 +25845,7 @@
       <c r="D11" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="99"/>
@@ -25792,7 +25858,7 @@
       <c r="D12" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="100"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="99"/>
@@ -25805,7 +25871,7 @@
       <c r="D13" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="100"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="99"/>
@@ -25818,7 +25884,7 @@
       <c r="D14" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="100"/>
     </row>
     <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="99"/>
@@ -25831,7 +25897,7 @@
       <c r="D15" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="100"/>
     </row>
     <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="99"/>
@@ -25844,10 +25910,10 @@
       <c r="D16" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="1:5" ht="16.5">
-      <c r="A17" s="100"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="82" t="s">
         <v>847</v>
       </c>
@@ -25857,10 +25923,10 @@
       <c r="D17" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="1:5" ht="16.5">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="97" t="s">
         <v>867</v>
       </c>
       <c r="B18" s="82" t="s">
@@ -25886,7 +25952,7 @@
       <c r="E19" s="84"/>
     </row>
     <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="100"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="82" t="s">
         <v>865</v>
       </c>
@@ -25897,7 +25963,7 @@
       <c r="E20" s="84"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="97" t="s">
         <v>933</v>
       </c>
       <c r="B21" s="82" t="s">
@@ -25909,7 +25975,7 @@
       <c r="D21" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="100" t="s">
         <v>992</v>
       </c>
     </row>
@@ -25924,7 +25990,7 @@
       <c r="D22" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E22" s="97"/>
+      <c r="E22" s="100"/>
     </row>
     <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="99"/>
@@ -25937,7 +26003,7 @@
       <c r="D23" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E23" s="97"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="99"/>
@@ -25950,7 +26016,7 @@
       <c r="D24" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E24" s="97"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="99"/>
@@ -25963,7 +26029,7 @@
       <c r="D25" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="99"/>
@@ -25976,7 +26042,7 @@
       <c r="D26" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E26" s="97"/>
+      <c r="E26" s="100"/>
     </row>
     <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="99"/>
@@ -25989,7 +26055,7 @@
       <c r="D27" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="100"/>
     </row>
     <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="99"/>
@@ -26002,10 +26068,10 @@
       <c r="D28" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E28" s="97"/>
+      <c r="E28" s="100"/>
     </row>
     <row r="29" spans="1:5" ht="16.5">
-      <c r="A29" s="100"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="82" t="s">
         <v>904</v>
       </c>
@@ -26015,10 +26081,10 @@
       <c r="D29" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E29" s="97"/>
+      <c r="E29" s="100"/>
     </row>
     <row r="30" spans="1:5" ht="16.5">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="97" t="s">
         <v>932</v>
       </c>
       <c r="B30" s="82" t="s">
@@ -26030,7 +26096,7 @@
       <c r="D30" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E30" s="97"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="99"/>
@@ -26043,7 +26109,7 @@
       <c r="D31" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E31" s="97"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="99"/>
@@ -26056,7 +26122,7 @@
       <c r="D32" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="100"/>
     </row>
     <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="99"/>
@@ -26069,7 +26135,7 @@
       <c r="D33" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E33" s="97"/>
+      <c r="E33" s="100"/>
     </row>
     <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="99"/>
@@ -26082,7 +26148,7 @@
       <c r="D34" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E34" s="97"/>
+      <c r="E34" s="100"/>
     </row>
     <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="99"/>
@@ -26095,7 +26161,7 @@
       <c r="D35" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E35" s="97"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="99"/>
@@ -26108,7 +26174,7 @@
       <c r="D36" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E36" s="97"/>
+      <c r="E36" s="100"/>
     </row>
     <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="99"/>
@@ -26121,7 +26187,7 @@
       <c r="D37" s="84" t="s">
         <v>961</v>
       </c>
-      <c r="E37" s="97"/>
+      <c r="E37" s="100"/>
     </row>
     <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="80" t="s">
@@ -26137,7 +26203,7 @@
       <c r="E38" s="84"/>
     </row>
     <row r="39" spans="1:5" ht="16.5">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="97" t="s">
         <v>940</v>
       </c>
       <c r="B39" s="79" t="s">
@@ -26205,7 +26271,7 @@
       <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="16.5">
-      <c r="A45" s="100"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="79" t="s">
         <v>956</v>
       </c>
@@ -26395,17 +26461,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="E9:E17"/>
     <mergeCell ref="E21:E37"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="B46:C74"/>
     <mergeCell ref="A46:A74"/>
     <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26414,7 +26480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26690,7 +26756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -29132,18 +29198,6 @@
     <row r="182" spans="1:5" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A72:A84"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A98:A110"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="A131:A143"/>
     <mergeCell ref="A169:E169"/>
     <mergeCell ref="A146:A158"/>
     <mergeCell ref="A161:A168"/>
@@ -29160,6 +29214,18 @@
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A72:A84"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A98:A110"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29168,7 +29234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -29570,7 +29636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -29606,233 +29672,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="124"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="124"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="W6" s="124"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="124"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="126" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
     </row>
     <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="25" t="s">
@@ -31077,30 +31143,30 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" thickTop="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="124"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="124"/>
+      <c r="T36" s="124"/>
+      <c r="U36" s="124"/>
+      <c r="V36" s="124"/>
+      <c r="W36" s="124"/>
+      <c r="X36" s="124"/>
     </row>
     <row r="37" spans="1:24" ht="17.25" thickBot="1">
       <c r="A37" s="45" t="s">
@@ -31230,30 +31296,30 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="126"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="127"/>
-      <c r="V46" s="127"/>
-      <c r="W46" s="127"/>
-      <c r="X46" s="127"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="124"/>
+      <c r="U46" s="124"/>
+      <c r="V46" s="124"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="124"/>
     </row>
     <row r="47" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A47" s="4" t="s">
@@ -31409,30 +31475,30 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="126"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="127"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="127"/>
-      <c r="R58" s="127"/>
-      <c r="S58" s="127"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="127"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="127"/>
-      <c r="X58" s="127"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
+      <c r="Q58" s="124"/>
+      <c r="R58" s="124"/>
+      <c r="S58" s="124"/>
+      <c r="T58" s="124"/>
+      <c r="U58" s="124"/>
+      <c r="V58" s="124"/>
+      <c r="W58" s="124"/>
+      <c r="X58" s="124"/>
     </row>
     <row r="59" spans="1:27" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -31690,30 +31756,30 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="127"/>
-      <c r="L66" s="127"/>
-      <c r="M66" s="127"/>
-      <c r="N66" s="127"/>
-      <c r="O66" s="127"/>
-      <c r="P66" s="127"/>
-      <c r="Q66" s="127"/>
-      <c r="R66" s="127"/>
-      <c r="S66" s="127"/>
-      <c r="T66" s="127"/>
-      <c r="U66" s="127"/>
-      <c r="V66" s="127"/>
-      <c r="W66" s="127"/>
-      <c r="X66" s="127"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="124"/>
+      <c r="O66" s="124"/>
+      <c r="P66" s="124"/>
+      <c r="Q66" s="124"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="124"/>
+      <c r="T66" s="124"/>
+      <c r="U66" s="124"/>
+      <c r="V66" s="124"/>
+      <c r="W66" s="124"/>
+      <c r="X66" s="124"/>
     </row>
     <row r="67" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A67" s="4" t="s">
@@ -31830,30 +31896,30 @@
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="127"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="127"/>
-      <c r="I75" s="127"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="127"/>
-      <c r="M75" s="127"/>
-      <c r="N75" s="127"/>
-      <c r="O75" s="127"/>
-      <c r="P75" s="127"/>
-      <c r="Q75" s="127"/>
-      <c r="R75" s="127"/>
-      <c r="S75" s="127"/>
-      <c r="T75" s="127"/>
-      <c r="U75" s="127"/>
-      <c r="V75" s="127"/>
-      <c r="W75" s="127"/>
-      <c r="X75" s="127"/>
+      <c r="A75" s="124"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="124"/>
+      <c r="N75" s="124"/>
+      <c r="O75" s="124"/>
+      <c r="P75" s="124"/>
+      <c r="Q75" s="124"/>
+      <c r="R75" s="124"/>
+      <c r="S75" s="124"/>
+      <c r="T75" s="124"/>
+      <c r="U75" s="124"/>
+      <c r="V75" s="124"/>
+      <c r="W75" s="124"/>
+      <c r="X75" s="124"/>
     </row>
     <row r="76" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A76" s="4" t="s">
@@ -32035,30 +32101,30 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A89" s="127"/>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="127"/>
-      <c r="N89" s="127"/>
-      <c r="O89" s="127"/>
-      <c r="P89" s="127"/>
-      <c r="Q89" s="127"/>
-      <c r="R89" s="127"/>
-      <c r="S89" s="127"/>
-      <c r="T89" s="127"/>
-      <c r="U89" s="127"/>
-      <c r="V89" s="127"/>
-      <c r="W89" s="127"/>
-      <c r="X89" s="127"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124"/>
+      <c r="K89" s="124"/>
+      <c r="L89" s="124"/>
+      <c r="M89" s="124"/>
+      <c r="N89" s="124"/>
+      <c r="O89" s="124"/>
+      <c r="P89" s="124"/>
+      <c r="Q89" s="124"/>
+      <c r="R89" s="124"/>
+      <c r="S89" s="124"/>
+      <c r="T89" s="124"/>
+      <c r="U89" s="124"/>
+      <c r="V89" s="124"/>
+      <c r="W89" s="124"/>
+      <c r="X89" s="124"/>
     </row>
     <row r="90" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A90" s="4" t="s">
@@ -32162,30 +32228,30 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A97" s="127"/>
-      <c r="B97" s="127"/>
-      <c r="C97" s="127"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="127"/>
-      <c r="G97" s="127"/>
-      <c r="H97" s="127"/>
-      <c r="I97" s="127"/>
-      <c r="J97" s="127"/>
-      <c r="K97" s="127"/>
-      <c r="L97" s="127"/>
-      <c r="M97" s="127"/>
-      <c r="N97" s="127"/>
-      <c r="O97" s="127"/>
-      <c r="P97" s="127"/>
-      <c r="Q97" s="127"/>
-      <c r="R97" s="127"/>
-      <c r="S97" s="127"/>
-      <c r="T97" s="127"/>
-      <c r="U97" s="127"/>
-      <c r="V97" s="127"/>
-      <c r="W97" s="127"/>
-      <c r="X97" s="127"/>
+      <c r="A97" s="124"/>
+      <c r="B97" s="124"/>
+      <c r="C97" s="124"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="124"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="124"/>
+      <c r="N97" s="124"/>
+      <c r="O97" s="124"/>
+      <c r="P97" s="124"/>
+      <c r="Q97" s="124"/>
+      <c r="R97" s="124"/>
+      <c r="S97" s="124"/>
+      <c r="T97" s="124"/>
+      <c r="U97" s="124"/>
+      <c r="V97" s="124"/>
+      <c r="W97" s="124"/>
+      <c r="X97" s="124"/>
     </row>
     <row r="98" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A98" s="4" t="s">
@@ -32289,30 +32355,30 @@
       <c r="E104" s="21"/>
     </row>
     <row r="105" spans="1:24" ht="18" thickTop="1" thickBot="1">
-      <c r="A105" s="127"/>
-      <c r="B105" s="127"/>
-      <c r="C105" s="127"/>
-      <c r="D105" s="127"/>
-      <c r="E105" s="127"/>
-      <c r="F105" s="127"/>
-      <c r="G105" s="127"/>
-      <c r="H105" s="127"/>
-      <c r="I105" s="127"/>
-      <c r="J105" s="127"/>
-      <c r="K105" s="127"/>
-      <c r="L105" s="127"/>
-      <c r="M105" s="127"/>
-      <c r="N105" s="127"/>
-      <c r="O105" s="127"/>
-      <c r="P105" s="127"/>
-      <c r="Q105" s="127"/>
-      <c r="R105" s="127"/>
-      <c r="S105" s="127"/>
-      <c r="T105" s="127"/>
-      <c r="U105" s="127"/>
-      <c r="V105" s="127"/>
-      <c r="W105" s="127"/>
-      <c r="X105" s="127"/>
+      <c r="A105" s="124"/>
+      <c r="B105" s="124"/>
+      <c r="C105" s="124"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="124"/>
+      <c r="G105" s="124"/>
+      <c r="H105" s="124"/>
+      <c r="I105" s="124"/>
+      <c r="J105" s="124"/>
+      <c r="K105" s="124"/>
+      <c r="L105" s="124"/>
+      <c r="M105" s="124"/>
+      <c r="N105" s="124"/>
+      <c r="O105" s="124"/>
+      <c r="P105" s="124"/>
+      <c r="Q105" s="124"/>
+      <c r="R105" s="124"/>
+      <c r="S105" s="124"/>
+      <c r="T105" s="124"/>
+      <c r="U105" s="124"/>
+      <c r="V105" s="124"/>
+      <c r="W105" s="124"/>
+      <c r="X105" s="124"/>
     </row>
     <row r="106" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A106" s="4" t="s">
@@ -32418,15 +32484,6 @@
     <row r="113" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A75:X75"/>
-    <mergeCell ref="A89:X89"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A105:X105"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A97:X97"/>
     <mergeCell ref="A1:W8"/>
     <mergeCell ref="A9:W9"/>
     <mergeCell ref="A36:X36"/>
@@ -32440,6 +32497,15 @@
     <mergeCell ref="S11:S35"/>
     <mergeCell ref="M11:M35"/>
     <mergeCell ref="G11:G35"/>
+    <mergeCell ref="A75:X75"/>
+    <mergeCell ref="A89:X89"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A105:X105"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A97:X97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32448,7 +32514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView topLeftCell="H142" workbookViewId="0">
@@ -32504,31 +32570,31 @@
       <c r="W1" s="128"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="16.5">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="41" t="s">
@@ -33845,29 +33911,29 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
       <c r="S30" s="129"/>
-      <c r="T30" s="125"/>
-      <c r="U30" s="125"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="125"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="126"/>
+      <c r="W30" s="126"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A31" s="4" t="s">
@@ -35185,28 +35251,28 @@
     </row>
     <row r="58" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A58" s="129"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
-      <c r="Q58" s="125"/>
-      <c r="R58" s="125"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="126"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="126"/>
+      <c r="P58" s="126"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
       <c r="S58" s="129"/>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125"/>
-      <c r="W58" s="125"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="126"/>
+      <c r="W58" s="126"/>
     </row>
     <row r="59" spans="1:24" ht="18" thickTop="1" thickBot="1">
       <c r="A59" s="4" t="s">
@@ -36603,29 +36669,29 @@
       <c r="W85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="125"/>
-      <c r="K86" s="125"/>
-      <c r="L86" s="125"/>
-      <c r="M86" s="125"/>
-      <c r="N86" s="125"/>
-      <c r="O86" s="125"/>
-      <c r="P86" s="125"/>
-      <c r="Q86" s="125"/>
-      <c r="R86" s="125"/>
-      <c r="S86" s="125"/>
-      <c r="T86" s="125"/>
-      <c r="U86" s="125"/>
-      <c r="V86" s="125"/>
-      <c r="W86" s="125"/>
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+      <c r="L86" s="126"/>
+      <c r="M86" s="126"/>
+      <c r="N86" s="126"/>
+      <c r="O86" s="126"/>
+      <c r="P86" s="126"/>
+      <c r="Q86" s="126"/>
+      <c r="R86" s="126"/>
+      <c r="S86" s="126"/>
+      <c r="T86" s="126"/>
+      <c r="U86" s="126"/>
+      <c r="V86" s="126"/>
+      <c r="W86" s="126"/>
     </row>
     <row r="87" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A87" s="4" t="s">
@@ -38101,29 +38167,29 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A114" s="125"/>
-      <c r="B114" s="125"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="125"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="125"/>
-      <c r="J114" s="125"/>
-      <c r="K114" s="125"/>
-      <c r="L114" s="125"/>
-      <c r="M114" s="125"/>
-      <c r="N114" s="125"/>
-      <c r="O114" s="125"/>
-      <c r="P114" s="125"/>
-      <c r="Q114" s="125"/>
-      <c r="R114" s="125"/>
-      <c r="S114" s="125"/>
-      <c r="T114" s="125"/>
-      <c r="U114" s="125"/>
-      <c r="V114" s="125"/>
-      <c r="W114" s="125"/>
+      <c r="A114" s="126"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="126"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="126"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
+      <c r="M114" s="126"/>
+      <c r="N114" s="126"/>
+      <c r="O114" s="126"/>
+      <c r="P114" s="126"/>
+      <c r="Q114" s="126"/>
+      <c r="R114" s="126"/>
+      <c r="S114" s="126"/>
+      <c r="T114" s="126"/>
+      <c r="U114" s="126"/>
+      <c r="V114" s="126"/>
+      <c r="W114" s="126"/>
     </row>
     <row r="115" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A115" s="4" t="s">
@@ -39595,29 +39661,29 @@
       <c r="W141" s="4"/>
     </row>
     <row r="142" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A142" s="125"/>
-      <c r="B142" s="125"/>
-      <c r="C142" s="125"/>
-      <c r="D142" s="125"/>
-      <c r="E142" s="125"/>
-      <c r="F142" s="125"/>
-      <c r="G142" s="125"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="125"/>
-      <c r="J142" s="125"/>
-      <c r="K142" s="125"/>
-      <c r="L142" s="125"/>
-      <c r="M142" s="125"/>
-      <c r="N142" s="125"/>
-      <c r="O142" s="125"/>
-      <c r="P142" s="125"/>
-      <c r="Q142" s="125"/>
-      <c r="R142" s="125"/>
-      <c r="S142" s="125"/>
-      <c r="T142" s="125"/>
-      <c r="U142" s="125"/>
-      <c r="V142" s="125"/>
-      <c r="W142" s="125"/>
+      <c r="A142" s="126"/>
+      <c r="B142" s="126"/>
+      <c r="C142" s="126"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="126"/>
+      <c r="F142" s="126"/>
+      <c r="G142" s="126"/>
+      <c r="H142" s="126"/>
+      <c r="I142" s="126"/>
+      <c r="J142" s="126"/>
+      <c r="K142" s="126"/>
+      <c r="L142" s="126"/>
+      <c r="M142" s="126"/>
+      <c r="N142" s="126"/>
+      <c r="O142" s="126"/>
+      <c r="P142" s="126"/>
+      <c r="Q142" s="126"/>
+      <c r="R142" s="126"/>
+      <c r="S142" s="126"/>
+      <c r="T142" s="126"/>
+      <c r="U142" s="126"/>
+      <c r="V142" s="126"/>
+      <c r="W142" s="126"/>
     </row>
     <row r="143" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A143" s="4" t="s">
@@ -41088,29 +41154,29 @@
       <c r="W169" s="4"/>
     </row>
     <row r="170" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A170" s="125"/>
-      <c r="B170" s="125"/>
-      <c r="C170" s="125"/>
-      <c r="D170" s="125"/>
-      <c r="E170" s="125"/>
-      <c r="F170" s="125"/>
-      <c r="G170" s="125"/>
-      <c r="H170" s="125"/>
-      <c r="I170" s="125"/>
-      <c r="J170" s="125"/>
-      <c r="K170" s="125"/>
-      <c r="L170" s="125"/>
-      <c r="M170" s="125"/>
-      <c r="N170" s="125"/>
-      <c r="O170" s="125"/>
-      <c r="P170" s="125"/>
-      <c r="Q170" s="125"/>
-      <c r="R170" s="125"/>
-      <c r="S170" s="125"/>
-      <c r="T170" s="125"/>
-      <c r="U170" s="125"/>
-      <c r="V170" s="125"/>
-      <c r="W170" s="125"/>
+      <c r="A170" s="126"/>
+      <c r="B170" s="126"/>
+      <c r="C170" s="126"/>
+      <c r="D170" s="126"/>
+      <c r="E170" s="126"/>
+      <c r="F170" s="126"/>
+      <c r="G170" s="126"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
+      <c r="J170" s="126"/>
+      <c r="K170" s="126"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="126"/>
+      <c r="N170" s="126"/>
+      <c r="O170" s="126"/>
+      <c r="P170" s="126"/>
+      <c r="Q170" s="126"/>
+      <c r="R170" s="126"/>
+      <c r="S170" s="126"/>
+      <c r="T170" s="126"/>
+      <c r="U170" s="126"/>
+      <c r="V170" s="126"/>
+      <c r="W170" s="126"/>
     </row>
     <row r="171" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A171" s="4" t="s">
@@ -42582,29 +42648,29 @@
       <c r="W197" s="4"/>
     </row>
     <row r="198" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A198" s="125"/>
-      <c r="B198" s="125"/>
-      <c r="C198" s="125"/>
-      <c r="D198" s="125"/>
-      <c r="E198" s="125"/>
-      <c r="F198" s="125"/>
-      <c r="G198" s="125"/>
-      <c r="H198" s="125"/>
-      <c r="I198" s="125"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="125"/>
-      <c r="L198" s="125"/>
-      <c r="M198" s="125"/>
-      <c r="N198" s="125"/>
-      <c r="O198" s="125"/>
-      <c r="P198" s="125"/>
-      <c r="Q198" s="125"/>
-      <c r="R198" s="125"/>
-      <c r="S198" s="125"/>
-      <c r="T198" s="125"/>
-      <c r="U198" s="125"/>
-      <c r="V198" s="125"/>
-      <c r="W198" s="125"/>
+      <c r="A198" s="126"/>
+      <c r="B198" s="126"/>
+      <c r="C198" s="126"/>
+      <c r="D198" s="126"/>
+      <c r="E198" s="126"/>
+      <c r="F198" s="126"/>
+      <c r="G198" s="126"/>
+      <c r="H198" s="126"/>
+      <c r="I198" s="126"/>
+      <c r="J198" s="126"/>
+      <c r="K198" s="126"/>
+      <c r="L198" s="126"/>
+      <c r="M198" s="126"/>
+      <c r="N198" s="126"/>
+      <c r="O198" s="126"/>
+      <c r="P198" s="126"/>
+      <c r="Q198" s="126"/>
+      <c r="R198" s="126"/>
+      <c r="S198" s="126"/>
+      <c r="T198" s="126"/>
+      <c r="U198" s="126"/>
+      <c r="V198" s="126"/>
+      <c r="W198" s="126"/>
     </row>
     <row r="199" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A199" s="4" t="s">
@@ -44096,15 +44162,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A144:A169"/>
-    <mergeCell ref="G144:G167"/>
-    <mergeCell ref="A172:A197"/>
-    <mergeCell ref="M88:M113"/>
-    <mergeCell ref="S116:S141"/>
-    <mergeCell ref="A142:W142"/>
-    <mergeCell ref="A116:A141"/>
-    <mergeCell ref="G116:G139"/>
-    <mergeCell ref="S88:S113"/>
+    <mergeCell ref="M60:M85"/>
+    <mergeCell ref="S144:S169"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A30:W30"/>
+    <mergeCell ref="A58:W58"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="A4:A29"/>
+    <mergeCell ref="A32:A57"/>
+    <mergeCell ref="S4:S29"/>
+    <mergeCell ref="M4:M29"/>
+    <mergeCell ref="G4:G29"/>
+    <mergeCell ref="A60:A85"/>
+    <mergeCell ref="G32:G57"/>
+    <mergeCell ref="M32:M57"/>
+    <mergeCell ref="S32:S57"/>
     <mergeCell ref="G60:G85"/>
     <mergeCell ref="G172:G195"/>
     <mergeCell ref="A200:A225"/>
@@ -44121,22 +44194,15 @@
     <mergeCell ref="A114:W114"/>
     <mergeCell ref="G88:G111"/>
     <mergeCell ref="A88:A113"/>
-    <mergeCell ref="M60:M85"/>
-    <mergeCell ref="S144:S169"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A30:W30"/>
-    <mergeCell ref="A58:W58"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="A4:A29"/>
-    <mergeCell ref="A32:A57"/>
-    <mergeCell ref="S4:S29"/>
-    <mergeCell ref="M4:M29"/>
-    <mergeCell ref="G4:G29"/>
-    <mergeCell ref="A60:A85"/>
-    <mergeCell ref="G32:G57"/>
-    <mergeCell ref="M32:M57"/>
-    <mergeCell ref="S32:S57"/>
+    <mergeCell ref="A144:A169"/>
+    <mergeCell ref="G144:G167"/>
+    <mergeCell ref="A172:A197"/>
+    <mergeCell ref="M88:M113"/>
+    <mergeCell ref="S116:S141"/>
+    <mergeCell ref="A142:W142"/>
+    <mergeCell ref="A116:A141"/>
+    <mergeCell ref="G116:G139"/>
+    <mergeCell ref="S88:S113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44145,7 +44211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44352,10 +44418,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -45387,11 +45453,6 @@
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B39:B44"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B19:B20"/>
@@ -45399,6 +45460,11 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B39:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
